--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28136E3-8436-48B4-A241-9E24CBF3A25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425F2A9E-BE0D-45CB-9B60-359B280E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="24750" windowHeight="14385" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="4485" yWindow="810" windowWidth="27195" windowHeight="15225" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="smatb" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="135">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -410,15 +410,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Qab</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tersoff (Albe, m=n=1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>smatb (TB-SMA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rcs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soso</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Differences between groups in the periodic table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: Although the Tersoff mixing rule is used, the above results become unreliable when the groups are far apart in the periodic table.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g., Cu3Au, Fe-Mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g., Ni3Al, Co-Mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: If the periodic table groups are far apart, it is recommended to refit with the DFT results.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d(Group)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g., Ni-Sc, Cu-Re</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Classification results compared with literature values.</t>
+  </si>
+  <si>
+    <t>Lammps script</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair_coeff 1 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair_coeff 1 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair_coeff 2 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pair_style smatb # </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">q     </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A(eV)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xi(eV)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rcs(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rc(A)</t>
+  </si>
+  <si>
+    <t>compare with r0[A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Same as r0 above</t>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -450,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +636,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -564,13 +695,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +841,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,17 +1187,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.125" customWidth="1"/>
     <col min="17" max="17" width="9.125" customWidth="1"/>
@@ -993,25 +1205,25 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="N1" t="s">
         <v>98</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="s">
         <v>98</v>
@@ -1056,53 +1268,53 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.1069</v>
+      <c r="A3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <f>B15*(B13-1)*EXP(E12*B7)</f>
-        <v>644352818.40642285</v>
+        <f>B16*(B14-1)*EXP(E12*B8)</f>
+        <v>439655.60148220591</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.1069</v>
+        <v>129</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="1">
-        <f>H15*(H13-1)*EXP(K12*H7)</f>
-        <v>644352818.40642285</v>
+        <f>H16*(H14-1)*EXP(K12*H8)</f>
+        <v>1406695.3614983449</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="13">
-        <f>SQRT(B3*H3)</f>
-        <v>0.1069</v>
+        <f>SQRT(B4*H4)</f>
+        <v>0.13931439265201567</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="1">
-        <f>H9*SQRT(E3*K3)</f>
-        <v>644352818.40642285</v>
+        <f>H10*SQRT(E3*K3)</f>
+        <v>786423.22909600264</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="13">
-        <v>2.6918000000000002</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>18</v>
@@ -1111,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="13">
-        <v>2.6918000000000002</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>18</v>
@@ -1126,8 +1338,8 @@
         <v>89</v>
       </c>
       <c r="N4" s="13">
-        <f>N10*SQRT(B4*H4)</f>
-        <v>2.6918000000000002</v>
+        <f>N14*SQRT(B5*H5)</f>
+        <v>1.9506604306968167</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>18</v>
@@ -1138,52 +1350,52 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="13">
-        <v>16.707999999999998</v>
+        <v>2.5097</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="12">
-        <f>B13*B15/(B13-1)*EXP(E13*B7)</f>
-        <v>64.142403457887823</v>
+        <f>B14*B16/(B14-1)*EXP(E13*B8)</f>
+        <v>49.501798809849447</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="13">
-        <v>16.707999999999998</v>
+        <v>1.488</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="12">
-        <f>H13*H15/(H13-1)*EXP(K13*H7)</f>
-        <v>64.142403457887823</v>
+        <f>H14*H16/(H14-1)*EXP(K13*H8)</f>
+        <v>38.590695614115681</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N5" s="13">
-        <f>(B5+H5)/2</f>
-        <v>16.707999999999998</v>
+        <f>(B6+H6)/2</f>
+        <v>10.809699999999999</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
-        <f>H10*SQRT(E5*K5)</f>
-        <v>64.142403457887823</v>
+        <f>H11*SQRT(E5*K5)</f>
+        <v>43.707080092613076</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="13">
-        <v>2.2823000000000002</v>
+        <v>10.0154</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>2</v>
@@ -1192,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="13">
-        <v>2.2823000000000002</v>
+        <v>11.603999999999999</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>2</v>
@@ -1207,8 +1419,8 @@
         <v>91</v>
       </c>
       <c r="N6" s="13">
-        <f>(B6+H6)/2</f>
-        <v>2.2823000000000002</v>
+        <f>(B7+H7)/2</f>
+        <v>2.1685499999999998</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>2</v>
@@ -1220,73 +1432,79 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="13">
-        <v>2.7629899999999998</v>
+        <v>2.0510999999999999</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="11">
-        <f>(B18-B17)/2</f>
-        <v>0.15043713033199779</v>
+        <f>(B19-B18)/2</f>
+        <v>0.14838501452911257</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="13">
-        <v>2.7629899999999998</v>
+        <v>2.286</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="11">
-        <f>(H18-H17)/2</f>
-        <v>0.15043713033199779</v>
+        <f>(H19-H18)/2</f>
+        <v>0.13611805537841026</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N7" s="13">
-        <f>(B5+H5)/(B5/B7+H5/H7)</f>
-        <v>2.7629899999999998</v>
+        <f>(B6+H6)/(B6/B8+H6/H8)</f>
+        <v>2.5995567809213345</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="11">
-        <f>(N15-N14)/2</f>
-        <v>0.15043713033199779</v>
+        <f>(N20-N19)/2</f>
+        <v>0.14211924438653578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2.7252999999999998</v>
+      </c>
       <c r="D8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="11">
-        <f>(B18+B17)/2</f>
-        <v>4.1516740513700654</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
+        <f>(B19+B18)/2</f>
+        <v>4.0950409853813587</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2.5</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="11">
-        <f>(H18+H17)/2</f>
-        <v>4.1516740513700654</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>28</v>
+        <f>(H19+H18)/2</f>
+        <v>3.7565047750535339</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="11">
-        <f>(N14+N15)/2</f>
-        <v>4.1516740513700654</v>
+        <f>(N19+N20)/2</f>
+        <v>3.9221220041738887</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -1296,11 +1514,8 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>17</v>
@@ -1309,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1">
-        <f>H9</f>
-        <v>1</v>
+        <f>N19</f>
+        <v>3.7800027597873531</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>17</v>
@@ -1331,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1343,11 +1558,11 @@
         <v>1</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="N10" s="1">
-        <f>H10*EXP(2*N6*N12)/EXP(2*N6*N7)</f>
-        <v>1</v>
+        <f>N9+1</f>
+        <v>4.7800027597873527</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>6</v>
@@ -1364,6 +1579,12 @@
       <c r="E11" s="1">
         <v>-1</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="J11" s="26" t="s">
         <v>16</v>
       </c>
@@ -1379,135 +1600,124 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="11">
-        <f>B5/B7</f>
-        <v>6.0470721935294733</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>95</v>
+        <f>B6/B8</f>
+        <v>3.6749715627637327</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="11">
-        <f>H5/H7</f>
-        <v>6.0470721935294733</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="13">
-        <f>(B6+H6)/(B6/B7+H6/H7)</f>
-        <v>2.7629899999999998</v>
+        <f>H6/H8</f>
+        <v>4.6415999999999995</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="11">
         <f>(E12+K12)/2</f>
-        <v>6.0470721935294733</v>
+        <v>4.1582857813818661</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <f>B5/B6</f>
-        <v>7.3206852736274799</v>
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="11">
-        <f>B6/B7</f>
-        <v>0.82602542897368447</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>H5/H6</f>
-        <v>7.3206852736274799</v>
+        <f>B7/B8</f>
+        <v>0.75261439107621186</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="11">
-        <f>H6/H7</f>
-        <v>0.82602542897368447</v>
+        <f>H7/H8</f>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1">
+        <f>H10</f>
+        <v>1</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="11">
         <f>(E13+K13)/2</f>
-        <v>0.82602542897368447</v>
+        <v>0.83350719553810593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <f>(1/B7)*SQRT(B5*B6/2)</f>
-        <v>1.5803536633764961</v>
+        <f>B6/B7</f>
+        <v>4.8829408610014138</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="11">
-        <f>2*B6/B7</f>
-        <v>1.6520508579473689</v>
+        <f>2*B7/B8</f>
+        <v>1.5052287821524237</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>(1/H7)*SQRT(H5*H6/2)</f>
-        <v>1.5803536633764961</v>
+        <f>H6/H7</f>
+        <v>5.076115485564304</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="11">
-        <f>2*H6/B7</f>
-        <v>1.6520508579473689</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>100</v>
+        <f>2*H7/B8</f>
+        <v>1.6776134737460098</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="N14" s="1">
-        <f>SQRT(B17*H17)</f>
-        <v>4.0012369210380676</v>
+        <f>H11*EXP(2*N6*N16)/EXP(2*N6*N7)</f>
+        <v>1.009413952498504</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="11">
         <f>(E14+K14)/2</f>
-        <v>1.6520508579473689</v>
+        <v>1.5914211279492168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="24" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <f>2*B4*(1-B6/B5)*((B3*B5)/(B4*B6))^(B6/(B6-B5))</f>
-        <v>5.6515472491032073</v>
+        <f>(1/B8)*SQRT(B6*B7/2)</f>
+        <v>1.1759754429689044</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>20</v>
@@ -1516,11 +1726,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <f>2*H4*(1-H6/H5)*((H3*H5)/(H4*H6))^(H6/(H6-H5))</f>
-        <v>5.6515472491032073</v>
+        <f>(1/H8)*SQRT(H6*H7/2)</f>
+        <v>1.4567565067642567</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>20</v>
@@ -1528,13 +1738,6 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="1">
-        <f>SQRT(B18*H18)</f>
-        <v>4.3021111817020632</v>
-      </c>
       <c r="P15" s="28" t="s">
         <v>20</v>
       </c>
@@ -1544,50 +1747,330 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1">
+        <f>2*B5*(1-B7/B6)*((B4*B6)/(B5*B7))^(B7/(B7-B6))</f>
+        <v>5.0619619996052698</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1">
+        <f>2*H5*(1-H7/H6)*((H4*H6)/(H5*H7))^(H7/(H7-H6))</f>
+        <v>3.1506517880783695</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="13">
+        <f>(B7+H7)/(B7/B8+H7/H8)</f>
+        <v>2.6017171916554367</v>
+      </c>
+      <c r="O16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="1">
-        <f>(1+LN((B3*B5)/(B4*B6))*(1/(B5-B6)))*B7</f>
-        <v>2.5263769813333323</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="B17" s="1">
+        <f>(1+LN((B4*B6)/(B5*B7))*(1/(B6-B7)))*B8</f>
+        <v>2.409602337722291</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="1">
-        <f>(1+LN((H3*H5)/(H4*H6))*(1/(H5-H6)))*H7</f>
-        <v>2.5263769813333323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="H17" s="1">
+        <f>(1+LN((H4*H6)/(H5*H7))*(1/(H6-H7)))*H8</f>
+        <v>2.1976912902699191</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="13">
+        <f>(B6+H6)/(B6/B8+H6/H8)</f>
+        <v>2.5995567809213345</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="1">
-        <f>SQRT(2)*1.024*B7</f>
-        <v>4.0012369210380676</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="B18" s="1">
+        <f>SQRT(2)*1.024*B8</f>
+        <v>3.946655970852246</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="1">
-        <f>SQRT(2)*1.024*H7</f>
-        <v>4.0012369210380676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
+      <c r="H18" s="1">
+        <f>SQRT(2)*1.024*H8</f>
+        <v>3.6203867196751238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="1">
-        <f>SQRT(2)*1.101*B7</f>
-        <v>4.3021111817020632</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="B19" s="1">
+        <f>SQRT(2)*1.101*B8</f>
+        <v>4.2434259999104711</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="1">
-        <f>SQRT(2)*1.101*H7</f>
-        <v>4.3021111817020632</v>
+      <c r="H19" s="1">
+        <f>SQRT(2)*1.101*H8</f>
+        <v>3.8926228304319443</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="1">
+        <f>SQRT(B18*H18)</f>
+        <v>3.7800027597873531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="1">
+        <f>SQRT(B19*H19)</f>
+        <v>4.0642412485604247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="M22" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="37">
+        <f>B8</f>
+        <v>2.7252999999999998</v>
+      </c>
+      <c r="C24" s="37">
+        <f>B6</f>
+        <v>10.0154</v>
+      </c>
+      <c r="D24" s="37">
+        <f>B7</f>
+        <v>2.0510999999999999</v>
+      </c>
+      <c r="E24" s="37">
+        <f>B4</f>
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="F24" s="37">
+        <f>B5</f>
+        <v>2.5097</v>
+      </c>
+      <c r="G24" s="32">
+        <f>B18</f>
+        <v>3.946655970852246</v>
+      </c>
+      <c r="H24" s="32">
+        <f>B19</f>
+        <v>4.2434259999104711</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="32" t="str">
+        <f>B3</f>
+        <v>Mo</v>
+      </c>
+      <c r="K24" s="36" t="str">
+        <f>B3</f>
+        <v>Mo</v>
+      </c>
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="37">
+        <f>N7</f>
+        <v>2.5995567809213345</v>
+      </c>
+      <c r="C25" s="37">
+        <f>N5</f>
+        <v>10.809699999999999</v>
+      </c>
+      <c r="D25" s="37">
+        <f>H7</f>
+        <v>2.286</v>
+      </c>
+      <c r="E25" s="37">
+        <f>N3</f>
+        <v>0.13931439265201567</v>
+      </c>
+      <c r="F25" s="37">
+        <f>N4</f>
+        <v>1.9506604306968167</v>
+      </c>
+      <c r="G25" s="32">
+        <f>N9</f>
+        <v>3.7800027597873531</v>
+      </c>
+      <c r="H25" s="32">
+        <f>N10</f>
+        <v>4.7800027597873527</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="32" t="str">
+        <f>B3</f>
+        <v>Mo</v>
+      </c>
+      <c r="K25" s="36" t="str">
+        <f>H3</f>
+        <v>Fe</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="38">
+        <f>H8</f>
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="38">
+        <f>H6</f>
+        <v>11.603999999999999</v>
+      </c>
+      <c r="D26" s="38">
+        <f>N6</f>
+        <v>2.1685499999999998</v>
+      </c>
+      <c r="E26" s="38">
+        <f>H4</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F26" s="38">
+        <f>H5</f>
+        <v>1.488</v>
+      </c>
+      <c r="G26" s="6">
+        <f>H18</f>
+        <v>3.6203867196751238</v>
+      </c>
+      <c r="H26" s="6">
+        <f>H19</f>
+        <v>3.8926228304319443</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f>H3</f>
+        <v>Fe</v>
+      </c>
+      <c r="K26" s="39" t="str">
+        <f>H3</f>
+        <v>Fe</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M28" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425F2A9E-BE0D-45CB-9B60-359B280E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFED09-36BE-4137-BB56-C87BB6EB2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="810" windowWidth="27195" windowHeight="15225" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="405" yWindow="15" windowWidth="25710" windowHeight="15780" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="smatb" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="150">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -469,10 +469,6 @@
     <t>Classification results compared with literature values.</t>
   </si>
   <si>
-    <t>Lammps script</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pair_coeff 1 1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -544,6 +540,68 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair_coeff</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Lammps script (Ref)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error(%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Differences (output - Ref)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lammps script (output)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-input Reference data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: In Mo-Fe, the parameters only differ by 3% overall when the Tersoff mixing rule is applied to the TB-SMA.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- check differences</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: This result shows why Tersoff's mixing rule is used.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,12 +609,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000000"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -575,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +698,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,15 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,13 +938,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,6 +980,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1187,19 +1294,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1269,10 +1382,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>8</v>
@@ -1282,31 +1395,31 @@
         <v>439655.60148220591</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="1">
         <f>H16*(H14-1)*EXP(K12*H8)</f>
-        <v>1406695.3614983449</v>
+        <v>386021.57186034479</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="13">
         <f>SQRT(B4*H4)</f>
-        <v>0.13931439265201567</v>
+        <v>0.16493194050880502</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="1">
         <f>H10*SQRT(E3*K3)</f>
-        <v>786423.22909600264</v>
+        <v>411966.68113012059</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -1326,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="H4" s="13">
-        <v>9.5000000000000001E-2</v>
+        <v>0.13314999999999999</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>18</v>
@@ -1339,7 +1452,7 @@
       </c>
       <c r="N4" s="13">
         <f>N14*SQRT(B5*H5)</f>
-        <v>1.9506604306968167</v>
+        <v>1.9406782843285917</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>18</v>
@@ -1366,28 +1479,28 @@
         <v>89</v>
       </c>
       <c r="H5" s="13">
-        <v>1.488</v>
+        <v>1.6178999999999999</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="12">
         <f>H14*H16/(H14-1)*EXP(K13*H8)</f>
-        <v>38.590695614115681</v>
+        <v>62.602781860132446</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N5" s="13">
         <f>(B6+H6)/2</f>
-        <v>10.809699999999999</v>
+        <v>10.2577</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="12">
         <f>H11*SQRT(E5*K5)</f>
-        <v>43.707080092613076</v>
+        <v>55.668216358862878</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -1407,7 +1520,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="13">
-        <v>11.603999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>2</v>
@@ -1420,7 +1533,7 @@
       </c>
       <c r="N6" s="13">
         <f>(B7+H7)/2</f>
-        <v>2.1685499999999998</v>
+        <v>2.3255499999999998</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>2</v>
@@ -1448,28 +1561,28 @@
         <v>91</v>
       </c>
       <c r="H7" s="13">
-        <v>2.286</v>
+        <v>2.6</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="11">
         <f>(H19-H18)/2</f>
-        <v>0.13611805537841026</v>
+        <v>0.1390037581524326</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N7" s="13">
         <f>(B6+H6)/(B6/B8+H6/H8)</f>
-        <v>2.5995567809213345</v>
+        <v>2.6343065595537825</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="11">
         <f>(N20-N19)/2</f>
-        <v>0.14211924438653578</v>
+        <v>0.14361780764602261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -1490,21 +1603,21 @@
         <v>92</v>
       </c>
       <c r="H8" s="13">
-        <v>2.5</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="11">
         <f>(H19+H18)/2</f>
-        <v>3.7565047750535339</v>
+        <v>3.8361426762846689</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="11">
         <f>(N19+N20)/2</f>
-        <v>3.9221220041738887</v>
+        <v>3.9634784577636157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -1528,7 +1641,7 @@
       </c>
       <c r="N9" s="1">
         <f>N19</f>
-        <v>3.7800027597873531</v>
+        <v>3.8198606501175933</v>
       </c>
       <c r="P9" s="28" t="s">
         <v>17</v>
@@ -1562,7 +1675,7 @@
       </c>
       <c r="N10" s="1">
         <f>N9+1</f>
-        <v>4.7800027597873527</v>
+        <v>4.8198606501175938</v>
       </c>
       <c r="P10" s="28" t="s">
         <v>6</v>
@@ -1612,7 +1725,7 @@
       </c>
       <c r="K12" s="11">
         <f>H6/H8</f>
-        <v>4.6415999999999995</v>
+        <v>4.1128084606345476</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>28</v>
@@ -1622,7 +1735,7 @@
       </c>
       <c r="Q12" s="11">
         <f>(E12+K12)/2</f>
-        <v>4.1582857813818661</v>
+        <v>3.8938900116991402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -1650,7 +1763,7 @@
       </c>
       <c r="K13" s="11">
         <f>H7/H8</f>
-        <v>0.91439999999999999</v>
+        <v>1.018409714061888</v>
       </c>
       <c r="M13" s="28" t="s">
         <v>22</v>
@@ -1664,7 +1777,7 @@
       </c>
       <c r="Q13" s="11">
         <f>(E13+K13)/2</f>
-        <v>0.83350719553810593</v>
+        <v>0.88551205256904986</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -1687,28 +1800,28 @@
       </c>
       <c r="H14" s="1">
         <f>H6/H7</f>
-        <v>5.076115485564304</v>
+        <v>4.0384615384615383</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="11">
         <f>2*H7/B8</f>
-        <v>1.6776134737460098</v>
+        <v>1.9080468205335195</v>
       </c>
       <c r="M14" s="28" t="s">
         <v>80</v>
       </c>
       <c r="N14" s="1">
         <f>H11*EXP(2*N6*N16)/EXP(2*N6*N7)</f>
-        <v>1.009413952498504</v>
+        <v>0.96308984457091995</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="11">
         <f>(E14+K14)/2</f>
-        <v>1.5914211279492168</v>
+        <v>1.7066378013429717</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -1730,7 +1843,7 @@
       </c>
       <c r="H15" s="1">
         <f>(1/H8)*SQRT(H6*H7/2)</f>
-        <v>1.4567565067642567</v>
+        <v>1.4471565375566915</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>20</v>
@@ -1758,20 +1871,20 @@
       </c>
       <c r="H16" s="1">
         <f>2*H5*(1-H7/H6)*((H4*H6)/(H5*H7))^(H7/(H7-H6))</f>
-        <v>3.1506517880783695</v>
+        <v>3.4983702531328653</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="13">
         <f>(B7+H7)/(B7/B8+H7/H8)</f>
-        <v>2.6017171916554367</v>
+        <v>2.6262206067699565</v>
       </c>
       <c r="O16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="24" t="s">
         <v>94</v>
       </c>
@@ -1784,20 +1897,20 @@
       </c>
       <c r="H17" s="1">
         <f>(1+LN((H4*H6)/(H5*H7))*(1/(H6-H7)))*H8</f>
-        <v>2.1976912902699191</v>
+        <v>2.1970199674216602</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N17" s="13">
         <f>(B6+H6)/(B6/B8+H6/H8)</f>
-        <v>2.5995567809213345</v>
+        <v>2.6343065595537825</v>
       </c>
       <c r="O17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -1810,10 +1923,10 @@
       </c>
       <c r="H18" s="1">
         <f>SQRT(2)*1.024*H8</f>
-        <v>3.6203867196751238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+        <v>3.6971389181322363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
         <v>96</v>
       </c>
@@ -1826,251 +1939,615 @@
       </c>
       <c r="H19" s="1">
         <f>SQRT(2)*1.101*H8</f>
-        <v>3.8926228304319443</v>
+        <v>3.9751464344371015</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>97</v>
       </c>
       <c r="N19" s="1">
         <f>SQRT(B18*H18)</f>
-        <v>3.7800027597873531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+        <v>3.8198606501175933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M20" s="29" t="s">
         <v>96</v>
       </c>
       <c r="N20" s="1">
         <f>SQRT(B19*H19)</f>
-        <v>4.0642412485604247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="33" t="s">
+        <v>4.1070962654096386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C22" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C24" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="M22" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="37">
+      <c r="D24" s="17">
         <f>B8</f>
         <v>2.7252999999999998</v>
       </c>
-      <c r="C24" s="37">
+      <c r="E24" s="17">
         <f>B6</f>
         <v>10.0154</v>
       </c>
-      <c r="D24" s="37">
+      <c r="F24" s="17">
         <f>B7</f>
         <v>2.0510999999999999</v>
       </c>
-      <c r="E24" s="37">
+      <c r="G24" s="17">
         <f>B4</f>
         <v>0.20430000000000001</v>
       </c>
-      <c r="F24" s="37">
+      <c r="H24" s="17">
         <f>B5</f>
         <v>2.5097</v>
       </c>
-      <c r="G24" s="32">
+      <c r="I24" s="17">
         <f>B18</f>
         <v>3.946655970852246</v>
       </c>
-      <c r="H24" s="32">
+      <c r="J24" s="17">
         <f>B19</f>
         <v>4.2434259999104711</v>
       </c>
-      <c r="I24" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="32" t="str">
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" t="str">
         <f>B3</f>
         <v>Mo</v>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="M24" s="33" t="str">
         <f>B3</f>
         <v>Mo</v>
       </c>
-      <c r="N24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="37">
+      <c r="O24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="17">
         <f>N7</f>
-        <v>2.5995567809213345</v>
-      </c>
-      <c r="C25" s="37">
+        <v>2.6343065595537825</v>
+      </c>
+      <c r="E25" s="17">
         <f>N5</f>
-        <v>10.809699999999999</v>
-      </c>
-      <c r="D25" s="37">
-        <f>H7</f>
-        <v>2.286</v>
-      </c>
-      <c r="E25" s="37">
+        <v>10.2577</v>
+      </c>
+      <c r="F25" s="17">
+        <v>2.0510999999999999</v>
+      </c>
+      <c r="G25" s="17">
         <f>N3</f>
-        <v>0.13931439265201567</v>
-      </c>
-      <c r="F25" s="37">
+        <v>0.16493194050880502</v>
+      </c>
+      <c r="H25" s="17">
         <f>N4</f>
-        <v>1.9506604306968167</v>
-      </c>
-      <c r="G25" s="32">
+        <v>1.9406782843285917</v>
+      </c>
+      <c r="I25" s="17">
         <f>N9</f>
-        <v>3.7800027597873531</v>
-      </c>
-      <c r="H25" s="32">
+        <v>3.8198606501175933</v>
+      </c>
+      <c r="J25" s="17">
         <f>N10</f>
-        <v>4.7800027597873527</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="32" t="str">
+        <v>4.8198606501175938</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" t="str">
         <f>B3</f>
         <v>Mo</v>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="M25" s="33" t="str">
         <f>H3</f>
         <v>Fe</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="38">
+      <c r="O25" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="34">
         <f>H8</f>
-        <v>2.5</v>
-      </c>
-      <c r="C26" s="38">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="E26" s="34">
         <f>H6</f>
-        <v>11.603999999999999</v>
-      </c>
-      <c r="D26" s="38">
-        <f>N6</f>
-        <v>2.1685499999999998</v>
-      </c>
-      <c r="E26" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="F26" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="G26" s="34">
         <f>H4</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F26" s="38">
+        <v>0.13314999999999999</v>
+      </c>
+      <c r="H26" s="34">
         <f>H5</f>
-        <v>1.488</v>
-      </c>
-      <c r="G26" s="6">
+        <v>1.6178999999999999</v>
+      </c>
+      <c r="I26" s="34">
         <f>H18</f>
-        <v>3.6203867196751238</v>
-      </c>
-      <c r="H26" s="6">
+        <v>3.6971389181322363</v>
+      </c>
+      <c r="J26" s="34">
         <f>H19</f>
-        <v>3.8926228304319443</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="6" t="str">
+        <v>3.9751464344371015</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="6" t="str">
         <f>H3</f>
         <v>Fe</v>
       </c>
-      <c r="K26" s="39" t="str">
+      <c r="M26" s="35" t="str">
         <f>H3</f>
         <v>Fe</v>
       </c>
-      <c r="M26" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="1">
-        <v>4</v>
-      </c>
-      <c r="O26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M27" s="27" t="s">
+      <c r="O26" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P26" s="1">
         <v>8</v>
       </c>
+      <c r="Q26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M28" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <f>D24</f>
+        <v>2.7252999999999998</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" ref="E29:J29" si="0">E24</f>
+        <v>10.0154</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0510999999999999</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5097</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="0"/>
+        <v>3.946655970852246</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>4.2434259999104711</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f>L24</f>
+        <v>Mo</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f>M24</f>
+        <v>Mo</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="40">
+        <v>2.6391</v>
+      </c>
+      <c r="E30" s="40">
+        <v>10.257</v>
+      </c>
+      <c r="F30" s="40">
+        <v>2.3254999999999999</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0.16492999999999999</v>
+      </c>
+      <c r="H30" s="40">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="I30" s="40">
+        <f t="shared" ref="I30:I31" si="1">SQRT(2)*1.024*D30</f>
+        <v>3.8218250367578479</v>
+      </c>
+      <c r="J30" s="40">
+        <f>SQRT(2)*1.101*D30</f>
+        <v>4.109208364717178</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" ref="L30:M30" si="2">L25</f>
+        <v>Mo</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f>M25</f>
+        <v>Fe</v>
+      </c>
+      <c r="N30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="13">
+        <f>D26</f>
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" ref="E31:J31" si="3">E26</f>
+        <v>10.5</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13314999999999999</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6178999999999999</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="3"/>
+        <v>3.6971389181322363</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="3"/>
+        <v>3.9751464344371015</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" ref="L31:M31" si="4">L26</f>
+        <v>Fe</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Fe</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C33" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="36">
+        <f>D24-D29</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="36">
+        <f>E24-E29</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="36">
+        <f>F24-F29</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="36">
+        <f>G24-G29</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="36">
+        <f>H24-H29</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <f>(D35/D29+E35/E29+F35/F29+G35/G29+H35/H29)/5*100</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="1" t="str">
+        <f>L24</f>
+        <v>Mo</v>
+      </c>
+      <c r="M35" s="39" t="str">
+        <f>M24</f>
+        <v>Mo</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="41">
+        <f>D25-D30</f>
+        <v>-4.7934404462175451E-3</v>
+      </c>
+      <c r="E36" s="41">
+        <f>E25-E30</f>
+        <v>7.0000000000014495E-4</v>
+      </c>
+      <c r="F36" s="41">
+        <f>F25-F30</f>
+        <v>-0.27439999999999998</v>
+      </c>
+      <c r="G36" s="41">
+        <f>G25-G30</f>
+        <v>1.9405088050317154E-6</v>
+      </c>
+      <c r="H36" s="41">
+        <f>H25-H30</f>
+        <v>-7.4321715671408439E-2</v>
+      </c>
+      <c r="I36" s="45">
+        <f>(D36/D30+E36/E30+F36/F30+G36/G30+H36/H30)/5*100</f>
+        <v>-3.1323332122981773</v>
+      </c>
+      <c r="J36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="1" t="str">
+        <f>L25</f>
+        <v>Mo</v>
+      </c>
+      <c r="M36" s="39" t="str">
+        <f>M25</f>
+        <v>Fe</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="36">
+        <f>D26-D31</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="36">
+        <f>E26-E31</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="36">
+        <f>F26-F31</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="36">
+        <f>G26-G31</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="36">
+        <f>H26-H31</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="41">
+        <f>(D37/D31+E37/E31+F37/F31+G37/G31+H37/H31)/5*100</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="1" t="str">
+        <f>L26</f>
+        <v>Fe</v>
+      </c>
+      <c r="M37" s="39" t="str">
+        <f>M26</f>
+        <v>Fe</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C38" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C39" s="43" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFED09-36BE-4137-BB56-C87BB6EB2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF8838-4BA1-49CF-B5AE-A06BEBD60145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="15" windowWidth="25710" windowHeight="15780" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="405" yWindow="0" windowWidth="25710" windowHeight="15480" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="smatb" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="151">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -602,6 +602,10 @@
   </si>
   <si>
     <t>Note: This result shows why Tersoff's mixing rule is used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check -&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,7 +619,7 @@
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="188" formatCode="0.00000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -835,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -953,25 +957,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2283,26 +2281,26 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="39">
         <v>2.6391</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <v>10.257</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>2.3254999999999999</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <v>0.16492999999999999</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="39">
         <v>2.0150000000000001</v>
       </c>
-      <c r="I30" s="40">
-        <f t="shared" ref="I30:I31" si="1">SQRT(2)*1.024*D30</f>
+      <c r="I30" s="39">
+        <f t="shared" ref="I30" si="1">SQRT(2)*1.024*D30</f>
         <v>3.8218250367578479</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="39">
         <f>SQRT(2)*1.101*D30</f>
         <v>4.109208364717178</v>
       </c>
@@ -2310,7 +2308,7 @@
         <v>135</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f t="shared" ref="L30:M30" si="2">L25</f>
+        <f t="shared" ref="L30" si="2">L25</f>
         <v>Mo</v>
       </c>
       <c r="M30" s="1" t="str">
@@ -2371,7 +2369,7 @@
         <v>Fe</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="28" t="s">
         <v>138</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="9" t="s">
         <v>118</v>
       </c>
@@ -2409,82 +2407,82 @@
       <c r="H34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="41" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="36">
-        <f>D24-D29</f>
+        <f t="shared" ref="D35:H37" si="5">D24-D29</f>
         <v>0</v>
       </c>
       <c r="E35" s="36">
-        <f>E24-E29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F35" s="36">
-        <f>F24-F29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G35" s="36">
-        <f>G24-G29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H35" s="36">
-        <f>H24-H29</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="40">
         <f>(D35/D29+E35/E29+F35/F29+G35/G29+H35/H29)/5*100</f>
         <v>0</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="1" t="str">
-        <f>L24</f>
+        <f t="shared" ref="L35:M37" si="6">L24</f>
         <v>Mo</v>
       </c>
-      <c r="M35" s="39" t="str">
-        <f>M24</f>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>Mo</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="41">
-        <f>D25-D30</f>
+      <c r="D36" s="40">
+        <f t="shared" si="5"/>
         <v>-4.7934404462175451E-3</v>
       </c>
-      <c r="E36" s="41">
-        <f>E25-E30</f>
+      <c r="E36" s="40">
+        <f t="shared" si="5"/>
         <v>7.0000000000014495E-4</v>
       </c>
-      <c r="F36" s="41">
-        <f>F25-F30</f>
+      <c r="F36" s="40">
+        <f t="shared" si="5"/>
         <v>-0.27439999999999998</v>
       </c>
-      <c r="G36" s="41">
-        <f>G25-G30</f>
+      <c r="G36" s="40">
+        <f t="shared" si="5"/>
         <v>1.9405088050317154E-6</v>
       </c>
-      <c r="H36" s="41">
-        <f>H25-H30</f>
+      <c r="H36" s="40">
+        <f t="shared" si="5"/>
         <v>-7.4321715671408439E-2</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="43">
         <f>(D36/D30+E36/E30+F36/F30+G36/G30+H36/H30)/5*100</f>
         <v>-3.1323332122981773</v>
       </c>
@@ -2493,60 +2491,70 @@
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="1" t="str">
-        <f>L25</f>
+        <f t="shared" si="6"/>
         <v>Mo</v>
       </c>
-      <c r="M36" s="39" t="str">
-        <f>M25</f>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>Fe</v>
       </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="N36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="1">
+        <f>N14</f>
+        <v>0.96308984457091995</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="36">
-        <f>D26-D31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E37" s="36">
-        <f>E26-E31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F37" s="36">
-        <f>F26-F31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G37" s="36">
-        <f>G26-G31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="36">
-        <f>H26-H31</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="40">
         <f>(D37/D31+E37/E31+F37/F31+G37/G31+H37/H31)/5*100</f>
         <v>0</v>
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="1" t="str">
-        <f>L26</f>
+        <f t="shared" si="6"/>
         <v>Fe</v>
       </c>
-      <c r="M37" s="39" t="str">
-        <f>M26</f>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>Fe</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C38" s="44" t="s">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C38" s="42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C39" s="43" t="s">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C39" s="9" t="s">
         <v>149</v>
       </c>
     </row>

--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF8838-4BA1-49CF-B5AE-A06BEBD60145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714C5A1E-77AC-4364-9992-4101483CFF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="0" windowWidth="25710" windowHeight="15480" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="152">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>check -&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xi = sqrt(chi*xi_AA*xi_BB)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1294,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1409,7 +1413,7 @@
         <v>88</v>
       </c>
       <c r="N3" s="13">
-        <f>SQRT(B4*H4)</f>
+        <f>N13*SQRT(B4*H4)</f>
         <v>0.16493194050880502</v>
       </c>
       <c r="P3" s="28" t="s">
@@ -1450,7 +1454,7 @@
       </c>
       <c r="N4" s="13">
         <f>N14*SQRT(B5*H5)</f>
-        <v>1.9406782843285917</v>
+        <v>1.9775166306521124</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>18</v>
@@ -1725,6 +1729,9 @@
         <f>H6/H8</f>
         <v>4.1128084606345476</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1767,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="1">
-        <f>H10</f>
+        <f>SQRT(H10)</f>
         <v>1</v>
       </c>
       <c r="P13" s="28" t="s">
@@ -1811,8 +1818,8 @@
         <v>80</v>
       </c>
       <c r="N14" s="1">
-        <f>H11*EXP(2*N6*N16)/EXP(2*N6*N7)</f>
-        <v>0.96308984457091995</v>
+        <f>SQRT(H11*EXP(2*N6*N16)/EXP(2*N6*N7))</f>
+        <v>0.98137141010471662</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>10</v>
@@ -1848,6 +1855,9 @@
       </c>
       <c r="K15" s="1">
         <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>20</v>
@@ -2092,7 +2102,7 @@
       </c>
       <c r="H25" s="17">
         <f>N4</f>
-        <v>1.9406782843285917</v>
+        <v>1.9775166306521124</v>
       </c>
       <c r="I25" s="17">
         <f>N9</f>
@@ -2480,11 +2490,11 @@
       </c>
       <c r="H36" s="40">
         <f t="shared" si="5"/>
-        <v>-7.4321715671408439E-2</v>
+        <v>-3.7483369347887763E-2</v>
       </c>
       <c r="I36" s="43">
         <f>(D36/D30+E36/E30+F36/F30+G36/G30+H36/H30)/5*100</f>
-        <v>-3.1323332122981773</v>
+        <v>-2.76669205772229</v>
       </c>
       <c r="J36" t="s">
         <v>148</v>
@@ -2506,7 +2516,7 @@
       </c>
       <c r="P36" s="1">
         <f>N14</f>
-        <v>0.96308984457091995</v>
+        <v>0.98137141010471662</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">

--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F940B-6A75-4F2A-A196-8553B3ACD329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3FD71-C350-4C66-A9F1-44D23D660513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2655" windowWidth="28515" windowHeight="12825" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="1260" yWindow="630" windowWidth="23850" windowHeight="13695" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="smatb" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="165">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -617,10 +617,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Note: Z(FCC)=12, Z(HCP)=12, Z(BCC)=8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>r</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -658,6 +654,14 @@
   </si>
   <si>
     <t>E(A-B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r0p[A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: Z(FCC)=12, Z(HCP)=12, Z(BCC)=8, Z(SC)=6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12264,712 +12268,712 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
-                  <c:v>-43.915810541041004</c:v>
+                  <c:v>-44.749429307661401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-43.147243100877056</c:v>
+                  <c:v>-43.966272765448764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-42.392126304178483</c:v>
+                  <c:v>-43.196822189526642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-41.650224752201865</c:v>
+                  <c:v>-42.440837712765244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-40.921307165900288</c:v>
+                  <c:v>-41.698083665932153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-40.205146313824784</c:v>
+                  <c:v>-40.968328504225241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39.5015189412876</c:v>
+                  <c:v>-40.251344735091294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-38.810205700765223</c:v>
+                  <c:v>-39.546908847307876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-38.130991083519397</c:v>
+                  <c:v>-38.85480124130644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-37.463663352414741</c:v>
+                  <c:v>-38.174806160714624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.808014475912266</c:v>
+                  <c:v>-37.506711625096848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.163840063217954</c:v>
+                  <c:v>-36.850309363871851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-35.530939300566409</c:v>
+                  <c:v>-36.205394751386841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-34.909114888619442</c:v>
+                  <c:v>-35.571766743127846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-34.298172980960437</c:v>
+                  <c:v>-34.949227813046505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-33.697923123664907</c:v>
+                  <c:v>-34.337583891983556</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-33.108178195928851</c:v>
+                  <c:v>-33.736644307170167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-32.528754351735955</c:v>
+                  <c:v>-33.146221722787899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-31.959470962545804</c:v>
+                  <c:v>-32.566132081568988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31.400150560985125</c:v>
+                  <c:v>-31.996194547418686</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-30.850618785524311</c:v>
+                  <c:v>-31.436231449041721</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-30.310704326122369</c:v>
+                  <c:v>-30.886068224555352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-29.780238870823005</c:v>
+                  <c:v>-30.34553336707182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-29.259057053285339</c:v>
+                  <c:v>-29.814458371233034</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-28.746996401232959</c:v>
+                  <c:v>-29.292677680681088</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-28.243897285805041</c:v>
+                  <c:v>-28.780028636447934</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-27.749602871793975</c:v>
+                  <c:v>-28.276351426248471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-27.263959068753852</c:v>
+                  <c:v>-27.781489034660861</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-26.786814482964534</c:v>
+                  <c:v>-27.295287194178869</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-26.3180203702365</c:v>
+                  <c:v>-26.817594337120799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-25.857430589541643</c:v>
+                  <c:v>-26.34826154838008</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-25.404901557455368</c:v>
+                  <c:v>-25.887142519002623</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-24.960292203396346</c:v>
+                  <c:v>-25.434093500576889</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-24.523463925649303</c:v>
+                  <c:v>-24.988973260421908</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-24.094280548157617</c:v>
+                  <c:v>-24.5516430375597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-23.672608278072037</c:v>
+                  <c:v>-24.121966499458207</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-23.258315664042321</c:v>
+                  <c:v>-23.699809699531141</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-22.851273555238873</c:v>
+                  <c:v>-23.285041035381845</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-22.451355061091462</c:v>
+                  <c:v>-22.8775312077777</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-22.058435511732597</c:v>
+                  <c:v>-22.477153180342661</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-21.672392419133171</c:v>
+                  <c:v>-22.083782139955179</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-21.293105438918253</c:v>
+                  <c:v>-21.697295457839132</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-20.920456332851174</c:v>
+                  <c:v>-21.317572651335816</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-20.554328931974105</c:v>
+                  <c:v>-20.944495346344834</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-20.194609100393819</c:v>
+                  <c:v>-20.577947240422425</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-19.84118469970112</c:v>
+                  <c:v>-20.217814066525516</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-19.493945554013067</c:v>
+                  <c:v>-19.863983557390341</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-19.152783415626903</c:v>
+                  <c:v>-19.516345410534445</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-18.817591931275125</c:v>
+                  <c:v>-19.17479125387116</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-18.488266608971127</c:v>
+                  <c:v>-18.839214611925922</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-18.164704785435013</c:v>
+                  <c:v>-18.509510872643784</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-17.846805594089588</c:v>
+                  <c:v>-18.18557725477784</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-17.534469933616364</c:v>
+                  <c:v>-17.867312775848401</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-17.227600437061884</c:v>
+                  <c:v>-17.554618220662885</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-16.926101441484743</c:v>
+                  <c:v>-17.247396110386639</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.629878958133787</c:v>
+                  <c:v>-16.945550672155107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.338840643148238</c:v>
+                  <c:v>-16.648987809217726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-16.052895768770576</c:v>
+                  <c:v>-16.3576150716044</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-15.771955195063239</c:v>
+                  <c:v>-16.071341627305305</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.495931342120299</c:v>
+                  <c:v>-15.790078233955088</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.224738162765458</c:v>
+                  <c:v>-15.513737211012609</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-14.95829111572786</c:v>
+                  <c:v>-15.242232412427569</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-14.696507139287343</c:v>
+                  <c:v>-14.975479199785495</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-14.439304625380929</c:v>
+                  <c:v>-14.713394415922705</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-14.186603394162498</c:v>
+                  <c:v>-14.455896359003088</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-13.938324669007626</c:v>
+                  <c:v>-14.202904757048451</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-13.694391051955929</c:v>
+                  <c:v>-13.954340742914731</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-13.454726499583161</c:v>
+                  <c:v>-13.710126829706077</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-13.219256299295575</c:v>
+                  <c:v>-13.470186886619226</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-12.987907046039142</c:v>
+                  <c:v>-13.234446115210625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-12.760606619416414</c:v>
+                  <c:v>-13.002831026078903</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-12.537284161203813</c:v>
+                  <c:v>-12.775269415955401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-12.317870053262444</c:v>
+                  <c:v>-12.551690345195684</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-12.102295895835461</c:v>
+                  <c:v>-12.332024115664927</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-11.890494486225217</c:v>
+                  <c:v>-12.116202249010341</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-11.682399797843653</c:v>
+                  <c:v>-11.904157465313862</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-11.477946959629278</c:v>
+                  <c:v>-11.695823662118434</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-11.277072235824381</c:v>
+                  <c:v>-11.491135893821347</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-11.079713006106152</c:v>
+                  <c:v>-11.290030351428211</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-10.885807746065556</c:v>
+                  <c:v>-11.092444342661247</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-10.6952960080278</c:v>
+                  <c:v>-10.898316272415725</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-10.50811840220851</c:v>
+                  <c:v>-10.70758562355841</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-10.324216578199646</c:v>
+                  <c:v>-10.520192938062062</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-10.143533206779464</c:v>
+                  <c:v>-10.336079798470088</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-9.9660119620408114</c:v>
+                  <c:v>-10.155188809685615</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-9.7915975038321701</c:v>
+                  <c:v>-9.9774635810792205</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-9.6202354605060414</c:v>
+                  <c:v>-9.8028487089098277</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-9.4518724119692088</c:v>
+                  <c:v>-9.6312897590532529</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-9.28645587302967</c:v>
+                  <c:v>-9.462733250032997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-9.1239342770349925</c:v>
+                  <c:v>-9.2971266363480343</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-8.9642569597970105</c:v>
+                  <c:v>-9.1344182920923753</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-8.8073741437978779</c:v>
+                  <c:v>-8.9745574948612887</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-8.653236922672491</c:v>
+                  <c:v>-8.8174944099392008</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-8.5017972459625426</c:v>
+                  <c:v>-8.663180074764318</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-8.3530079041373284</c:v>
+                  <c:v>-8.5115663836651052</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.206822513876741</c:v>
+                  <c:v>-8.3626060728639295</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-8.0631955036118281</c:v>
+                  <c:v>-8.2162527057431287</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-7.9220820993183771</c:v>
+                  <c:v>-8.0724606583689411</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-7.7834383105591662</c:v>
+                  <c:v>-7.9311851052687983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-7.6472209167704293</c:v>
+                  <c:v>-7.7923820054574824</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-7.5133874537883942</c:v>
+                  <c:v>-7.6560080887079067</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-7.3818962006115569</c:v>
+                  <c:v>-7.5220208420621057</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-7.2527061663946579</c:v>
+                  <c:v>-7.390378496578335</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-7.1257770776702678</c:v>
+                  <c:v>-7.261040014310093</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-7.0010693657940193</c:v>
+                  <c:v>-7.1339650755130259</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-6.8785441546095436</c:v>
+                  <c:v>-7.0091140660757301</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-6.7581632483292777</c:v>
+                  <c:v>-6.886448065170506</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-6.639889119627397</c:v>
+                  <c:v>-6.7659288331202676</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-6.5236848979410986</c:v>
+                  <c:v>-6.6475187994777558</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-6.4095143579766578</c:v>
+                  <c:v>-6.5311810513134194</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-6.2973419084165956</c:v>
+                  <c:v>-6.4168793217082207</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-6.1871325808245237</c:v>
+                  <c:v>-6.3045779784478633</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-6.078852018744147</c:v>
+                  <c:v>-6.1942420129148728</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-5.9724664669890331</c:v>
+                  <c:v>-6.0858370291750656</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-5.8679427611198447</c:v>
+                  <c:v>-5.9793292332550321</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-5.765248317105705</c:v>
+                  <c:v>-5.8746854226072562</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-5.664351121166523</c:v>
+                  <c:v>-5.7718729757596181</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-5.5652197197930624</c:v>
+                  <c:v>-5.6708598421460321</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-5.4678232099416952</c:v>
+                  <c:v>-5.5716145321150679</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-5.3721312294007317</c:v>
+                  <c:v>-5.4741061071134132</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-5.2781139473253678</c:v>
+                  <c:v>-5.3783041700411562</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-5.185742054938264</c:v>
+                  <c:v>-5.2841788557758393</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-5.0949867563928857</c:v>
+                  <c:v>-5.1917008218623648</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-5.0058197597967364</c:v>
+                  <c:v>-5.100841239365832</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-4.918213268391697</c:v>
+                  <c:v>-5.0115717838844542</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.8321399718887061</c:v>
+                  <c:v>-4.9238646267197614</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-4.7475730379541119</c:v>
+                  <c:v>-4.8376924262013343</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-4.6644861038449985</c:v>
+                  <c:v>-4.7530283191633611</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.5828532681909193</c:v>
+                  <c:v>-4.6698459125703575</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.5026490829194481</c:v>
+                  <c:v>-4.5881192752894604</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-4.4238485453230423</c:v>
+                  <c:v>-4.5078229300066912</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-4.3464270902647426</c:v>
+                  <c:v>-4.428931845284712</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-4.2703605825202891</c:v>
+                  <c:v>-4.3514214277595711</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-4.1956253092542424</c:v>
+                  <c:v>-4.275267514474006</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-4.1221979726277889</c:v>
+                  <c:v>-4.2004463653449324</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-4.0500556825359144</c:v>
+                  <c:v>-4.1269346557627511</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-3.9791759494716894</c:v>
+                  <c:v>-4.0547094693201764</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.909536677515423</c:v>
+                  <c:v>-3.983748290668319</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-3.8411161574465282</c:v>
+                  <c:v>-3.9140289984977898</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-3.7738930599759226</c:v>
+                  <c:v>-3.8455298586426432</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-3.7078464290968758</c:v>
+                  <c:v>-3.7782295173050056</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.6429556755522303</c:v>
+                  <c:v>-3.712106994398289</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.5792005704159302</c:v>
+                  <c:v>-3.6471416770068874</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-3.5165612387869007</c:v>
+                  <c:v>-3.5833133129603483</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-3.4550181535932802</c:v>
+                  <c:v>-3.5206020045199953</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-3.3945521295050853</c:v>
+                  <c:v>-3.4589882021760467</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-3.3351443169534156</c:v>
+                  <c:v>-3.3984526985532835</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.2767761962543172</c:v>
+                  <c:v>-3.338976622423381</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.2194295718354926</c:v>
+                  <c:v>-3.280541432822019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.1630865665640462</c:v>
+                  <c:v>-3.2231289132689636</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-3.1077296161734989</c:v>
+                  <c:v>-3.1667211660892893</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-3.053341463788334</c:v>
+                  <c:v>-3.1113006068339906</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.9999051545443738</c:v>
+                  <c:v>-3.0568499587982396</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.947404030303296</c:v>
+                  <c:v>-3.0033522476355765</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.8958217244596614</c:v>
+                  <c:v>-2.9507907960663577</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.8451421568388113</c:v>
+                  <c:v>-2.8991492186788097</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.7953495286840684</c:v>
+                  <c:v>-2.848411416821071</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2.7464283177316613</c:v>
+                  <c:v>-2.798561573582631</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.6983632733718363</c:v>
+                  <c:v>-2.7495841488635877</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.6511394118946652</c:v>
+                  <c:v>-2.7014638745302118</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.6047420118190492</c:v>
+                  <c:v>-2.6541857496552828</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.5591566093034706</c:v>
+                  <c:v>-2.6077350358417282</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.5143689936370608</c:v>
+                  <c:v>-2.5620972526281016</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.4703652028095799</c:v>
+                  <c:v>-2.5172581729744716</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.4271315191589253</c:v>
+                  <c:v>-2.473203818827308</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.3846544650948092</c:v>
+                  <c:v>-2.4299204567619879</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.3429207988972869</c:v>
+                  <c:v>-2.3873945937015701</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-2.3019175105887961</c:v>
+                  <c:v>-2.3456129727104758</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.2616318178784582</c:v>
+                  <c:v>-2.3045625688618054</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.2220511621773471</c:v>
+                  <c:v>-2.264230585176966</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.1831632046834968</c:v>
+                  <c:v>-2.224604448636367</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.1449558225354286</c:v>
+                  <c:v>-2.1856718062599283</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.1074171050329888</c:v>
+                  <c:v>-2.1474205212561857</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.07053534992433</c:v>
+                  <c:v>-2.1098386692387896</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.0342990597578736</c:v>
+                  <c:v>-2.0729145345092177</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1.9986969382981112</c:v>
+                  <c:v>-2.0366366064045431</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.9637178870041423</c:v>
+                  <c:v>-2.0009935757091237</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.9293510015698299</c:v>
+                  <c:v>-1.9659743311290876</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.8955855685245144</c:v>
+                  <c:v>-1.9315679558285146</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.8624110618932161</c:v>
+                  <c:v>-1.8977637240262468</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-1.8298171399152852</c:v>
+                  <c:v>-1.864551097652249</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-1.7977936418204798</c:v>
+                  <c:v>-1.831919723062492</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.7663305846614707</c:v>
+                  <c:v>-1.7998594278113274</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.7354181602017678</c:v>
+                  <c:v>-1.768360217480343</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.7050467318581231</c:v>
+                  <c:v>-1.7374122725627263</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.675206831696439</c:v>
+                  <c:v>-1.707005945402146</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.6458891574802517</c:v>
+                  <c:v>-1.6771317571852111</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.6170845697708649</c:v>
+                  <c:v>-1.6477803949865575</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.5887840890782465</c:v>
+                  <c:v>-1.618942708865664</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.5609788930617701</c:v>
+                  <c:v>-1.5906097090144564</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.5336603137799589</c:v>
+                  <c:v>-1.5627725629548452</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.5068198349883546</c:v>
+                  <c:v>-1.5354225927853045</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1.4804490894846831</c:v>
+                  <c:v>-1.5085512724756398</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.4545398565004719</c:v>
+                  <c:v>-1.4821502252090939</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.4290840591383296</c:v>
+                  <c:v>-1.4562112207709821</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.40407376185406</c:v>
+                  <c:v>-1.4307261729830085</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.3795011679828615</c:v>
+                  <c:v>-1.4056871371825093</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.3553586173087946</c:v>
+                  <c:v>-1.3810863077457818</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.3316385836768143</c:v>
+                  <c:v>-1.3569160156547893</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.3083336726465693</c:v>
+                  <c:v>-1.3331687261064231</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1.2854366191872799</c:v>
+                  <c:v>-1.3098370361636253</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.2629402854129432</c:v>
+                  <c:v>-1.2869136724476025</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.2408376583571901</c:v>
+                  <c:v>-1.2643914888704444</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.2191218477870678</c:v>
+                  <c:v>-1.2422634644074073</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.1977860840550973</c:v>
+                  <c:v>-1.2205227009081998</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.1768237159889101</c:v>
+                  <c:v>-1.1991624209465586</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.1562282088178295</c:v>
+                  <c:v>-1.1781759657074735</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.135993142135729</c:v>
+                  <c:v>-1.1575567929113744</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.1161122078995471</c:v>
+                  <c:v>-1.1372984747746555</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.0965792084628303</c:v>
+                  <c:v>-1.1173946960058887</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1.0773880546436916</c:v>
+                  <c:v>-1.0978392518371101</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.058532763826576</c:v>
+                  <c:v>-1.0786260460895492</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.0400074580972509</c:v>
+                  <c:v>-1.059749089273222</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.0218063624104432</c:v>
+                  <c:v>-1.041202496719781</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.003923802789527</c:v>
+                  <c:v>-1.0229804867480332</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.98635420455773448</c:v>
+                  <c:v>-1.0050773788615732</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.96909209060031476</c:v>
+                  <c:v>-0.98748759197795299</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.95213207965710922</c:v>
+                  <c:v>-0.97020564268884968</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.93546888464500344</c:v>
+                  <c:v>-0.95322614355067137</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.91909731100974712</c:v>
+                  <c:v>-0.9365438014050923</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.90301225510660721</c:v>
+                  <c:v>-0.92015341572896625</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.8872087026093729</c:v>
+                  <c:v>-0.90404987701313178</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.87168172694719215</c:v>
+                  <c:v>-0.88822816516957626</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.85642648776877806</c:v>
+                  <c:v>-0.87268334796648861</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.84143822943348134</c:v>
+                  <c:v>-0.85741057949069077</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.82671227952877935</c:v>
+                  <c:v>-0.84240509863698354</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.81224404741370171</c:v>
+                  <c:v>-0.8276622276239245</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.79802902278775889</c:v>
+                  <c:v>-0.81317737053559136</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.78406277428490245</c:v>
+                  <c:v>-0.79894601188885206</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.77034094809210529</c:v>
+                  <c:v>-0.78496371522572328</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.75685926659210578</c:v>
+                  <c:v>-0.77122612173035032</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.74361352702991701</c:v>
+                  <c:v>-0.75772894887020414</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.73059960020266279</c:v>
+                  <c:v>-0.74446798906104739</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.71781342917235003</c:v>
+                  <c:v>-0.73143910835527204</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.7052510280011649</c:v>
+                  <c:v>-0.71863824515318986</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.69290848050890619</c:v>
+                  <c:v>-0.70606140893687719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13743,712 +13747,712 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
-                  <c:v>11649.16037064744</c:v>
+                  <c:v>11648.326751880819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10773.854015624191</c:v>
+                  <c:v>10773.034985959619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9964.1719649739007</c:v>
+                  <c:v>9963.3672690885542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9215.1967070246901</c:v>
+                  <c:v>9214.4060940641266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8522.3791760674849</c:v>
+                  <c:v>8521.6023995674532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7881.5111472134522</c:v>
+                  <c:v>7880.7479650230516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7288.6996995030104</c:v>
+                  <c:v>7287.9498737092072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6740.3435923073866</c:v>
+                  <c:v>6739.6068891608438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6233.1114116741564</c:v>
+                  <c:v>6232.3876015163696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5763.9213540079145</c:v>
+                  <c:v>5763.2102111996146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5329.9225244127147</c:v>
+                  <c:v>5329.2238272635304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4928.4776362139219</c:v>
+                  <c:v>4927.7911669132682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4557.1470066794445</c:v>
+                  <c:v>4556.4725512286241</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4213.6737518258669</c:v>
+                  <c:v>4213.0110999713579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3895.9700904707656</c:v>
+                  <c:v>3895.3190356386795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3602.1046744237137</c:v>
+                  <c:v>3601.4650136553951</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3330.2908679350244</c:v>
+                  <c:v>3329.6624018237831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3078.8759052812402</c:v>
+                  <c:v>3078.2584379101886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2846.3308606952542</c:v>
+                  <c:v>2845.7241995762311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2631.2413697779461</c:v>
+                  <c:v>2630.6453257915123</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2432.2990460884148</c:v>
+                  <c:v>2431.7134334248972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2248.2935408282583</c:v>
+                  <c:v>2247.7181769298254</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2078.1051974375241</c:v>
+                  <c:v>2077.5399029412752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1920.6982565300561</c:v>
+                  <c:v>1920.1428552121083</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1775.1145699353083</c:v>
+                  <c:v>1774.5688886558603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1640.4677857030697</c:v>
+                  <c:v>1639.9316543524269</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1515.9379687852686</c:v>
+                  <c:v>1515.411220230814</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400.766624752818</c:v>
+                  <c:v>1400.249094786911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1294.2520963510015</c:v>
+                  <c:v>1293.7436236397871</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1195.7453049593819</c:v>
+                  <c:v>1195.2457309924976</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1104.6458111150425</c:v>
+                  <c:v>1104.1549801562039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1020.3981701940472</c:v>
+                  <c:v>1019.9159292324999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>942.48856113715897</c:v>
+                  <c:v>942.01475983997841</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>870.44166776250006</c:v>
+                  <c:v>869.97615842772746</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>803.8177937407321</c:v>
+                  <c:v>803.36043125133006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>742.21019372607907</c:v>
+                  <c:v>741.76083550469298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>685.24260444821721</c:v>
+                  <c:v>684.80111041272846</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>632.56696078343737</c:v>
+                  <c:v>632.13319330329443</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>583.8612829458757</c:v>
+                  <c:v>583.4351067991895</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>538.8277219780648</c:v>
+                  <c:v>538.40900430945476</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>497.19075168055281</c:v>
+                  <c:v>496.77936195973081</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>458.69549600897608</c:v>
+                  <c:v>458.29130599005521</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>423.10618178897874</c:v>
+                  <c:v>422.70906547049412</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390.20470735980166</c:v>
+                  <c:v>389.81454094543096</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>359.78931846085038</c:v>
+                  <c:v>359.40598032082181</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>331.67338332627253</c:v>
+                  <c:v>331.2967539594481</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>305.68425955460106</c:v>
+                  <c:v>305.3142215512238</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>281.66224587740248</c:v>
+                  <c:v>281.29868388249497</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>259.45961246605339</c:v>
+                  <c:v>259.10241314345734</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>238.93970389232481</c:v>
+                  <c:v>238.58875588937002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>219.9761092993437</c:v>
+                  <c:v>219.63130321213495</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>202.45189474731541</c:v>
+                  <c:v>202.11312308662718</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>186.2588930756948</c:v>
+                  <c:v>185.92605023346275</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>171.29704697248553</c:v>
+                  <c:v>170.97002918888452</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>157.47380126422931</c:v>
+                  <c:v>157.15250659532742</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>144.70354073891451</c:v>
+                  <c:v>144.38786902489318</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>132.90707009032781</c:v>
+                  <c:v>132.59692292425834</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>122.01113282797925</c:v>
+                  <c:v>121.70641352514544</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>111.94796623316633</c:v>
+                  <c:v>111.64857980092427</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>102.65488966048483</c:v>
+                  <c:v>102.36074276865004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>94.073923686428245</c:v>
+                  <c:v>93.784924638181096</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>86.151437793908542</c:v>
+                  <c:v>85.867496497208833</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>78.837824454687137</c:v>
+                  <c:v>78.558852394188989</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>72.087197631888529</c:v>
+                  <c:v>71.813107841346749</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65.857113872958863</c:v>
+                  <c:v>65.587820908118275</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60.108314300506223</c:v>
+                  <c:v>59.843734212465399</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54.804485935278635</c:v>
+                  <c:v>54.544536244319836</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.91204090283874</c:v>
+                  <c:v>49.656640572715823</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45.399912184020401</c:v>
+                  <c:v>45.14898159669675</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41.23936466964021</c:v>
+                  <c:v>40.992825600468727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.403820372806479</c:v>
+                  <c:v>37.161595966143992</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>33.868696738079407</c:v>
+                  <c:v>33.630711483327822</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30.611257066210214</c:v>
+                  <c:v>30.377436774276976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27.61047214670598</c:v>
+                  <c:v>27.380743926876512</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.84689225848048</c:v>
+                  <c:v>24.621184495695353</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22.302528761764904</c:v>
+                  <c:v>22.080771094294693</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.960744562656096</c:v>
+                  <c:v>19.742867860166939</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.806152785520286</c:v>
+                  <c:v>17.59208912752332</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.824523038278757</c:v>
+                  <c:v>15.614205692956698</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.002694701676859</c:v>
+                  <c:v>13.796058105081167</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.328496716261828</c:v>
+                  <c:v>12.125476451873903</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.790673380224987</c:v>
+                  <c:v>10.591206158875087</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.3788157077398076</c:v>
+                  <c:v>9.1828393478773922</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.0832979311705291</c:v>
+                  <c:v>7.8907513394799054</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.8952187617408232</c:v>
+                  <c:v>6.7060419140960192</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.8063470521282898</c:v>
+                  <c:v>5.6204809748812394</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.8090715311635535</c:v>
+                  <c:v>4.6264582827597671</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.8963543055237402</c:v>
+                  <c:v>3.7169369584396961</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.0616878461702441</c:v>
+                  <c:v>2.8854104691669171</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.2990551984280465</c:v>
+                  <c:v>2.1258628391150047</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6028931741661196</c:v>
+                  <c:v>1.4327318418707549</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.96805830263625658</c:v>
+                  <c:v>0.80087495157284572</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.38979533326824978</c:v>
+                  <c:v>0.22553784600154003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.13629190079338294</c:v>
+                  <c:v>-0.29767472959515828</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.61426743529957495</c:v>
+                  <c:v>-0.77282591482735175</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.0478881072887578</c:v>
+                  <c:v>-1.2036716662759464</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.4406266186358607</c:v>
+                  <c:v>-1.5936838207671613</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.7956928707914024</c:v>
+                  <c:v>-1.9460714298419663</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.1160537002520616</c:v>
+                  <c:v>-2.2638004949616937</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.4044511345983581</c:v>
+                  <c:v>-2.5496122232854113</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.6634192799560594</c:v>
+                  <c:v>-2.8060399148755719</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-2.8952999424326702</c:v>
+                  <c:v>-3.035424583883219</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-3.102257078396029</c:v>
+                  <c:v>-3.2399294085797061</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-3.2862901613546049</c:v>
+                  <c:v>-3.4215530979944302</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-3.4492465466234652</c:v>
+                  <c:v>-3.5821422563424719</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-3.5928329088771727</c:v>
+                  <c:v>-3.7234028203433591</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-3.7186258220639381</c:v>
+                  <c:v>-3.8469106389051664</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-3.8280815459498636</c:v>
+                  <c:v>-3.9541212594427342</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-3.9225450787467344</c:v>
+                  <c:v>-4.0463789802833912</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-4.0032585308222366</c:v>
+                  <c:v>-4.1249252241589982</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-4.0713688703705557</c:v>
+                  <c:v>-4.1909062836621809</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-4.1279350881092434</c:v>
+                  <c:v>-4.2453804857325821</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-4.1739348245417283</c:v>
+                  <c:v>-4.2893248187124531</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-4.2102705000625402</c:v>
+                  <c:v>-4.3236410622485728</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-4.2377749851645277</c:v>
+                  <c:v>-4.349161457299715</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-4.2572168452155212</c:v>
+                  <c:v>-4.3666539507170725</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-4.2693051916893783</c:v>
+                  <c:v>-4.3768270462824734</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-4.2746941693472111</c:v>
+                  <c:v>-4.3803342917001808</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-4.2739871066545625</c:v>
+                  <c:v>-4.3777784288279351</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-4.2677403546757713</c:v>
+                  <c:v>-4.3697152323884527</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-4.256466837795446</c:v>
+                  <c:v>-4.3566570605112345</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-4.2406393378673872</c:v>
+                  <c:v>-4.3390761387049626</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-4.220693531772751</c:v>
+                  <c:v>-4.3174075972422301</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-4.1970308008720227</c:v>
+                  <c:v>-4.2920522804411183</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-4.170020829450249</c:v>
+                  <c:v>-4.2633793449430062</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.1400040079737224</c:v>
+                  <c:v>-4.2317286628047777</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-4.1072936557910245</c:v>
+                  <c:v>-4.1974130440382469</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-4.0721780768147768</c:v>
+                  <c:v>-4.1607202921331394</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.0349224607062064</c:v>
+                  <c:v>-4.1219151050856446</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-3.995770641146227</c:v>
+                  <c:v>-4.0812408335162393</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-3.9549467219087475</c:v>
+                  <c:v>-4.0389211065923964</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-3.9126565806489086</c:v>
+                  <c:v>-3.995161335668878</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-3.8690892595761337</c:v>
+                  <c:v>-3.9501501048154157</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-3.8244182514946967</c:v>
+                  <c:v>-3.9040604567144603</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-3.7788026890588315</c:v>
+                  <c:v>-3.8570510817759751</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-3.7323884445013702</c:v>
+                  <c:v>-3.8092674177282069</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-3.6853091465508752</c:v>
+                  <c:v>-3.7608426663993622</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.6376871207490122</c:v>
+                  <c:v>-3.7118987339019087</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-3.5896342589143977</c:v>
+                  <c:v>-3.6625470999656593</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-3.5412528230684659</c:v>
+                  <c:v>-3.6128896217351865</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-3.4926361887405797</c:v>
+                  <c:v>-3.5630192769487095</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.4438695322010315</c:v>
+                  <c:v>-3.5130208510470902</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.3950304658296657</c:v>
+                  <c:v>-3.4629715724206229</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-3.3461896255125345</c:v>
+                  <c:v>-3.412941699685982</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-3.2974112136671838</c:v>
+                  <c:v>-3.3629950645938989</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-3.2487535012273456</c:v>
+                  <c:v>-3.313189573898307</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-3.2002692916681186</c:v>
+                  <c:v>-3.2635776732679864</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.1520063499217716</c:v>
+                  <c:v>-3.2142067760908355</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.1040077988206773</c:v>
+                  <c:v>-3.1651196598072038</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.056312485506222</c:v>
+                  <c:v>-3.1163548322111394</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-3.008955320059719</c:v>
+                  <c:v>-3.0679468699755095</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2.9619675884422279</c:v>
+                  <c:v>-3.0199267314878844</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.9153772416737196</c:v>
+                  <c:v>-2.9723220459275854</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.8692091630372953</c:v>
+                  <c:v>-2.9251573803695758</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.8234854149602908</c:v>
+                  <c:v>-2.8784544865669872</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.7782254671002269</c:v>
+                  <c:v>-2.8322325289402253</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.7334464070490214</c:v>
+                  <c:v>-2.7865082951860241</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2.6891631349628566</c:v>
+                  <c:v>-2.7412963908138264</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.6453885433270758</c:v>
+                  <c:v>-2.6966094188188272</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.6021336829747881</c:v>
+                  <c:v>-2.6524581456103347</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.5594079163939414</c:v>
+                  <c:v>-2.608851654230175</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.5172190592800252</c:v>
+                  <c:v>-2.5657974858182828</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.4755735112197601</c:v>
+                  <c:v>-2.5233017702108009</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.4344763763247315</c:v>
+                  <c:v>-2.4813693464896232</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.3939315745724601</c:v>
+                  <c:v>-2.4400038742408428</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.3539419445555909</c:v>
+                  <c:v>-2.3992079362227696</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.3145093382873059</c:v>
+                  <c:v>-2.3589831330915891</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-2.2756347086624049</c:v>
+                  <c:v>-2.3193301707840845</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.2373181901285619</c:v>
+                  <c:v>-2.2802489411119091</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.1995591730805932</c:v>
+                  <c:v>-2.2417385960802121</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.1623563724521095</c:v>
+                  <c:v>-2.2037976164049797</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.125707890943306</c:v>
+                  <c:v>-2.1664238746678057</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.0896112772906879</c:v>
+                  <c:v>-2.1296146935138847</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.0540635799540827</c:v>
+                  <c:v>-2.0933668992685424</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.0190613965680764</c:v>
+                  <c:v>-2.0576768713194205</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1.9846009194789374</c:v>
+                  <c:v>-2.022540587585369</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.9506779776640051</c:v>
+                  <c:v>-1.9879536663689865</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.9172880753081463</c:v>
+                  <c:v>-1.953911404867404</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.8844264272913067</c:v>
+                  <c:v>-1.9204088145953069</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.8520879918220494</c:v>
+                  <c:v>-1.8874406539550801</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-1.8202675004343281</c:v>
+                  <c:v>-1.8550014581712919</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-1.7889594855484059</c:v>
+                  <c:v>-1.823085566790418</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.7581583057817238</c:v>
+                  <c:v>-1.7916871489315804</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.7278581691815187</c:v>
+                  <c:v>-1.7608002264600939</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.6980531545381066</c:v>
+                  <c:v>-1.7304186952427099</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.6687372309257442</c:v>
+                  <c:v>-1.7005363446314512</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.6399042756069395</c:v>
+                  <c:v>-1.671146875311899</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.6115480904258412</c:v>
+                  <c:v>-1.6422439156415338</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.5836624168068922</c:v>
+                  <c:v>-1.6138210365943098</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.556240949466128</c:v>
+                  <c:v>-1.5858717654188144</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.5292773489344651</c:v>
+                  <c:v>-1.5583895981093514</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.5027652529847817</c:v>
+                  <c:v>-1.5313680107817316</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1.4766982870476981</c:v>
+                  <c:v>-1.5048004700386548</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.4510700736945268</c:v>
+                  <c:v>-1.4786804424031488</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.425874241259969</c:v>
+                  <c:v>-1.4530014028926215</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.4011044316716088</c:v>
+                  <c:v>-1.4277568428005574</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.376754307548238</c:v>
+                  <c:v>-1.4029402767478858</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.352817558624283</c:v>
+                  <c:v>-1.3785452490612702</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.3292879075533597</c:v>
+                  <c:v>-1.3545653395313346</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.3061591151398653</c:v>
+                  <c:v>-1.3309941685997191</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1.283424985043903</c:v>
+                  <c:v>-1.3078254020202484</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.2610793680013206</c:v>
+                  <c:v>-1.2850527550359798</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.239116165597544</c:v>
+                  <c:v>-1.2626699961107983</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.2175293336308757</c:v>
+                  <c:v>-1.2406709502512152</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.1963128850982838</c:v>
+                  <c:v>-1.2190495019513863</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.1754608928341408</c:v>
+                  <c:v>-1.1977995977917892</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.1549674918300898</c:v>
+                  <c:v>-1.1769152487197339</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.1348268812620321</c:v>
+                  <c:v>-1.1563905320376775</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.1150333262482777</c:v>
+                  <c:v>-1.1362195931233861</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.0955811593610403</c:v>
+                  <c:v>-1.1163966469040987</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1.0764647819117734</c:v>
+                  <c:v>-1.0969159791051919</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.0576786650292578</c:v>
+                  <c:v>-1.0777719472922309</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.0392173505479192</c:v>
+                  <c:v>-1.0589589817238902</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.0210754517225098</c:v>
+                  <c:v>-1.0404715860318476</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.003247653784006</c:v>
+                  <c:v>-1.0223043377425123</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.98572871435049791</c:v>
+                  <c:v>-1.0044518886543365</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.96851346370571856</c:v>
+                  <c:v>-0.98690896508335679</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.95159680495691967</c:v>
+                  <c:v>-0.96967036798866013</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.93497371408286944</c:v>
+                  <c:v>-0.95273097298853737</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.91863923988193696</c:v>
+                  <c:v>-0.93608573027728215</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.90258850382941302</c:v>
+                  <c:v>-0.91972966445177207</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.88681669985254741</c:v>
+                  <c:v>-0.90365787425630628</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.87131909403107155</c:v>
+                  <c:v>-0.88786553225345566</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.85609102423041139</c:v>
+                  <c:v>-0.87234788442812194</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.84112789967418278</c:v>
+                  <c:v>-0.85710024973139221</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.8264252004620789</c:v>
+                  <c:v>-0.84211801957028309</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.8119784770387436</c:v>
+                  <c:v>-0.82739665724896638</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.79778334961880926</c:v>
+                  <c:v>-0.81293169736664173</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.78383550757282561</c:v>
+                  <c:v>-0.79871874517677521</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.77013070877847145</c:v>
+                  <c:v>-0.78475347591208944</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.75666477894104012</c:v>
+                  <c:v>-0.77103163407928466</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.74343361088691196</c:v>
+                  <c:v>-0.75754903272719909</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.73043316383337942</c:v>
+                  <c:v>-0.74430155269176401</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.71765946263795488</c:v>
+                  <c:v>-0.73128514182087689</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.70510859703000328</c:v>
+                  <c:v>-0.71849581418202824</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.69277672082732511</c:v>
+                  <c:v>-0.70592964925529611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15731,8 +15735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
   <dimension ref="A1:Q278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15887,7 +15891,7 @@
       </c>
       <c r="N4" s="13">
         <f>N14*SQRT(B5*H5)</f>
-        <v>1.9775166306521124</v>
+        <v>2.0150542498900621</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>18</v>
@@ -16009,7 +16013,7 @@
         <v>92</v>
       </c>
       <c r="N7" s="13">
-        <f>(B6+H6)/(B6/B8+H6/H8)</f>
+        <f>N5/((B6/B8+H6/H8)/2)</f>
         <v>2.6343065595537825</v>
       </c>
       <c r="P7" s="28" t="s">
@@ -16251,8 +16255,8 @@
         <v>80</v>
       </c>
       <c r="N14" s="1">
-        <f>SQRT(H11*EXP(2*N6*N16)/EXP(2*N6*N7))</f>
-        <v>0.98137141010471662</v>
+        <f>H11</f>
+        <v>1</v>
       </c>
       <c r="P14" s="28" t="s">
         <v>10</v>
@@ -16318,7 +16322,7 @@
         <v>99</v>
       </c>
       <c r="N16" s="13">
-        <f>(B7+H7)/(B7/B8+H7/H8)</f>
+        <f>N6/((B7/B8+H7/H8)/2)</f>
         <v>2.6262206067699565</v>
       </c>
       <c r="O16" t="s">
@@ -16341,10 +16345,10 @@
         <v>2.1970199674216602</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="N17" s="13">
-        <f>(B6+H6)/(B6/B8+H6/H8)</f>
+        <f>N7</f>
         <v>2.6343065595537825</v>
       </c>
       <c r="O17" t="s">
@@ -16535,7 +16539,7 @@
       </c>
       <c r="H25" s="17">
         <f>N4</f>
-        <v>1.9775166306521124</v>
+        <v>2.0150542498900621</v>
       </c>
       <c r="I25" s="17">
         <f>N9</f>
@@ -16923,11 +16927,11 @@
       </c>
       <c r="H36" s="40">
         <f t="shared" si="5"/>
-        <v>-3.7483369347887763E-2</v>
+        <v>5.4249890061974781E-5</v>
       </c>
       <c r="I36" s="43">
         <f>(D36/D30+E36/E30+F36/F30+G36/G30+H36/H30)/5*100</f>
-        <v>-2.76669205772229</v>
+        <v>-2.3941102290577767</v>
       </c>
       <c r="J36" t="s">
         <v>148</v>
@@ -16949,7 +16953,7 @@
       </c>
       <c r="P36" s="1">
         <f>N14</f>
-        <v>0.98137141010471662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
@@ -17009,45 +17013,45 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" t="s">
         <v>154</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" t="s">
         <v>157</v>
       </c>
-      <c r="G42" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>158</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>159</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N42" t="s">
         <v>160</v>
       </c>
-      <c r="M42" t="s">
-        <v>154</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>161</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>162</v>
-      </c>
-      <c r="P42" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
@@ -17090,11 +17094,11 @@
       </c>
       <c r="O43">
         <f t="shared" ref="O43:O106" si="9">-SQRT(($N$4*EXP(-$N$6*(M43/$N$7-1)))^2*$C$41)</f>
-        <v>-43.915810541041004</v>
+        <v>-44.749429307661401</v>
       </c>
       <c r="P43">
         <f>N43+O43</f>
-        <v>11649.16037064744</v>
+        <v>11648.326751880819</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
@@ -17137,11 +17141,11 @@
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
-        <v>-43.147243100877056</v>
+        <v>-43.966272765448764</v>
       </c>
       <c r="P44">
         <f t="shared" ref="P44:P107" si="15">N44+O44</f>
-        <v>10773.854015624191</v>
+        <v>10773.034985959619</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
@@ -17184,11 +17188,11 @@
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
-        <v>-42.392126304178483</v>
+        <v>-43.196822189526642</v>
       </c>
       <c r="P45">
         <f t="shared" si="15"/>
-        <v>9964.1719649739007</v>
+        <v>9963.3672690885542</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
@@ -17231,11 +17235,11 @@
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
-        <v>-41.650224752201865</v>
+        <v>-42.440837712765244</v>
       </c>
       <c r="P46">
         <f t="shared" si="15"/>
-        <v>9215.1967070246901</v>
+        <v>9214.4060940641266</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
@@ -17278,11 +17282,11 @@
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
-        <v>-40.921307165900288</v>
+        <v>-41.698083665932153</v>
       </c>
       <c r="P47">
         <f t="shared" si="15"/>
-        <v>8522.3791760674849</v>
+        <v>8521.6023995674532</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
@@ -17325,11 +17329,11 @@
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
-        <v>-40.205146313824784</v>
+        <v>-40.968328504225241</v>
       </c>
       <c r="P48">
         <f t="shared" si="15"/>
-        <v>7881.5111472134522</v>
+        <v>7880.7479650230516</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
@@ -17372,11 +17376,11 @@
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
-        <v>-39.5015189412876</v>
+        <v>-40.251344735091294</v>
       </c>
       <c r="P49">
         <f t="shared" si="15"/>
-        <v>7288.6996995030104</v>
+        <v>7287.9498737092072</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
@@ -17419,11 +17423,11 @@
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
-        <v>-38.810205700765223</v>
+        <v>-39.546908847307876</v>
       </c>
       <c r="P50">
         <f t="shared" si="15"/>
-        <v>6740.3435923073866</v>
+        <v>6739.6068891608438</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
@@ -17466,11 +17470,11 @@
       </c>
       <c r="O51">
         <f t="shared" si="9"/>
-        <v>-38.130991083519397</v>
+        <v>-38.85480124130644</v>
       </c>
       <c r="P51">
         <f t="shared" si="15"/>
-        <v>6233.1114116741564</v>
+        <v>6232.3876015163696</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
@@ -17513,11 +17517,11 @@
       </c>
       <c r="O52">
         <f t="shared" si="9"/>
-        <v>-37.463663352414741</v>
+        <v>-38.174806160714624</v>
       </c>
       <c r="P52">
         <f t="shared" si="15"/>
-        <v>5763.9213540079145</v>
+        <v>5763.2102111996146</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
@@ -17560,11 +17564,11 @@
       </c>
       <c r="O53">
         <f t="shared" si="9"/>
-        <v>-36.808014475912266</v>
+        <v>-37.506711625096848</v>
       </c>
       <c r="P53">
         <f t="shared" si="15"/>
-        <v>5329.9225244127147</v>
+        <v>5329.2238272635304</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
@@ -17607,11 +17611,11 @@
       </c>
       <c r="O54">
         <f t="shared" si="9"/>
-        <v>-36.163840063217954</v>
+        <v>-36.850309363871851</v>
       </c>
       <c r="P54">
         <f t="shared" si="15"/>
-        <v>4928.4776362139219</v>
+        <v>4927.7911669132682</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
@@ -17654,11 +17658,11 @@
       </c>
       <c r="O55">
         <f t="shared" si="9"/>
-        <v>-35.530939300566409</v>
+        <v>-36.205394751386841</v>
       </c>
       <c r="P55">
         <f t="shared" si="15"/>
-        <v>4557.1470066794445</v>
+        <v>4556.4725512286241</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
@@ -17701,11 +17705,11 @@
       </c>
       <c r="O56">
         <f t="shared" si="9"/>
-        <v>-34.909114888619442</v>
+        <v>-35.571766743127846</v>
       </c>
       <c r="P56">
         <f t="shared" si="15"/>
-        <v>4213.6737518258669</v>
+        <v>4213.0110999713579</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
@@ -17748,11 +17752,11 @@
       </c>
       <c r="O57">
         <f t="shared" si="9"/>
-        <v>-34.298172980960437</v>
+        <v>-34.949227813046505</v>
       </c>
       <c r="P57">
         <f t="shared" si="15"/>
-        <v>3895.9700904707656</v>
+        <v>3895.3190356386795</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
@@ -17795,11 +17799,11 @@
       </c>
       <c r="O58">
         <f t="shared" si="9"/>
-        <v>-33.697923123664907</v>
+        <v>-34.337583891983556</v>
       </c>
       <c r="P58">
         <f t="shared" si="15"/>
-        <v>3602.1046744237137</v>
+        <v>3601.4650136553951</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
@@ -17842,11 +17846,11 @@
       </c>
       <c r="O59">
         <f t="shared" si="9"/>
-        <v>-33.108178195928851</v>
+        <v>-33.736644307170167</v>
       </c>
       <c r="P59">
         <f t="shared" si="15"/>
-        <v>3330.2908679350244</v>
+        <v>3329.6624018237831</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
@@ -17889,11 +17893,11 @@
       </c>
       <c r="O60">
         <f t="shared" si="9"/>
-        <v>-32.528754351735955</v>
+        <v>-33.146221722787899</v>
       </c>
       <c r="P60">
         <f t="shared" si="15"/>
-        <v>3078.8759052812402</v>
+        <v>3078.2584379101886</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
@@ -17936,11 +17940,11 @@
       </c>
       <c r="O61">
         <f t="shared" si="9"/>
-        <v>-31.959470962545804</v>
+        <v>-32.566132081568988</v>
       </c>
       <c r="P61">
         <f t="shared" si="15"/>
-        <v>2846.3308606952542</v>
+        <v>2845.7241995762311</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
@@ -17983,11 +17987,11 @@
       </c>
       <c r="O62">
         <f t="shared" si="9"/>
-        <v>-31.400150560985125</v>
+        <v>-31.996194547418686</v>
       </c>
       <c r="P62">
         <f t="shared" si="15"/>
-        <v>2631.2413697779461</v>
+        <v>2630.6453257915123</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
@@ -18030,11 +18034,11 @@
       </c>
       <c r="O63">
         <f t="shared" si="9"/>
-        <v>-30.850618785524311</v>
+        <v>-31.436231449041721</v>
       </c>
       <c r="P63">
         <f t="shared" si="15"/>
-        <v>2432.2990460884148</v>
+        <v>2431.7134334248972</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
@@ -18077,11 +18081,11 @@
       </c>
       <c r="O64">
         <f t="shared" si="9"/>
-        <v>-30.310704326122369</v>
+        <v>-30.886068224555352</v>
       </c>
       <c r="P64">
         <f t="shared" si="15"/>
-        <v>2248.2935408282583</v>
+        <v>2247.7181769298254</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
@@ -18124,11 +18128,11 @@
       </c>
       <c r="O65">
         <f t="shared" si="9"/>
-        <v>-29.780238870823005</v>
+        <v>-30.34553336707182</v>
       </c>
       <c r="P65">
         <f t="shared" si="15"/>
-        <v>2078.1051974375241</v>
+        <v>2077.5399029412752</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
@@ -18171,11 +18175,11 @@
       </c>
       <c r="O66">
         <f t="shared" si="9"/>
-        <v>-29.259057053285339</v>
+        <v>-29.814458371233034</v>
       </c>
       <c r="P66">
         <f t="shared" si="15"/>
-        <v>1920.6982565300561</v>
+        <v>1920.1428552121083</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
@@ -18218,11 +18222,11 @@
       </c>
       <c r="O67">
         <f t="shared" si="9"/>
-        <v>-28.746996401232959</v>
+        <v>-29.292677680681088</v>
       </c>
       <c r="P67">
         <f t="shared" si="15"/>
-        <v>1775.1145699353083</v>
+        <v>1774.5688886558603</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
@@ -18265,11 +18269,11 @@
       </c>
       <c r="O68">
         <f t="shared" si="9"/>
-        <v>-28.243897285805041</v>
+        <v>-28.780028636447934</v>
       </c>
       <c r="P68">
         <f t="shared" si="15"/>
-        <v>1640.4677857030697</v>
+        <v>1639.9316543524269</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.4">
@@ -18312,11 +18316,11 @@
       </c>
       <c r="O69">
         <f t="shared" si="9"/>
-        <v>-27.749602871793975</v>
+        <v>-28.276351426248471</v>
       </c>
       <c r="P69">
         <f t="shared" si="15"/>
-        <v>1515.9379687852686</v>
+        <v>1515.411220230814</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.4">
@@ -18359,11 +18363,11 @@
       </c>
       <c r="O70">
         <f t="shared" si="9"/>
-        <v>-27.263959068753852</v>
+        <v>-27.781489034660861</v>
       </c>
       <c r="P70">
         <f t="shared" si="15"/>
-        <v>1400.766624752818</v>
+        <v>1400.249094786911</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
@@ -18406,11 +18410,11 @@
       </c>
       <c r="O71">
         <f t="shared" si="9"/>
-        <v>-26.786814482964534</v>
+        <v>-27.295287194178869</v>
       </c>
       <c r="P71">
         <f t="shared" si="15"/>
-        <v>1294.2520963510015</v>
+        <v>1293.7436236397871</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
@@ -18453,11 +18457,11 @@
       </c>
       <c r="O72">
         <f t="shared" si="9"/>
-        <v>-26.3180203702365</v>
+        <v>-26.817594337120799</v>
       </c>
       <c r="P72">
         <f t="shared" si="15"/>
-        <v>1195.7453049593819</v>
+        <v>1195.2457309924976</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
@@ -18500,11 +18504,11 @@
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
-        <v>-25.857430589541643</v>
+        <v>-26.34826154838008</v>
       </c>
       <c r="P73">
         <f t="shared" si="15"/>
-        <v>1104.6458111150425</v>
+        <v>1104.1549801562039</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
@@ -18547,11 +18551,11 @@
       </c>
       <c r="O74">
         <f t="shared" si="9"/>
-        <v>-25.404901557455368</v>
+        <v>-25.887142519002623</v>
       </c>
       <c r="P74">
         <f t="shared" si="15"/>
-        <v>1020.3981701940472</v>
+        <v>1019.9159292324999</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
@@ -18594,11 +18598,11 @@
       </c>
       <c r="O75">
         <f t="shared" si="9"/>
-        <v>-24.960292203396346</v>
+        <v>-25.434093500576889</v>
       </c>
       <c r="P75">
         <f t="shared" si="15"/>
-        <v>942.48856113715897</v>
+        <v>942.01475983997841</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
@@ -18641,11 +18645,11 @@
       </c>
       <c r="O76">
         <f t="shared" si="9"/>
-        <v>-24.523463925649303</v>
+        <v>-24.988973260421908</v>
       </c>
       <c r="P76">
         <f t="shared" si="15"/>
-        <v>870.44166776250006</v>
+        <v>869.97615842772746</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.4">
@@ -18688,11 +18692,11 @@
       </c>
       <c r="O77">
         <f t="shared" si="9"/>
-        <v>-24.094280548157617</v>
+        <v>-24.5516430375597</v>
       </c>
       <c r="P77">
         <f t="shared" si="15"/>
-        <v>803.8177937407321</v>
+        <v>803.36043125133006</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.4">
@@ -18735,11 +18739,11 @@
       </c>
       <c r="O78">
         <f t="shared" si="9"/>
-        <v>-23.672608278072037</v>
+        <v>-24.121966499458207</v>
       </c>
       <c r="P78">
         <f t="shared" si="15"/>
-        <v>742.21019372607907</v>
+        <v>741.76083550469298</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.4">
@@ -18782,11 +18786,11 @@
       </c>
       <c r="O79">
         <f t="shared" si="9"/>
-        <v>-23.258315664042321</v>
+        <v>-23.699809699531141</v>
       </c>
       <c r="P79">
         <f t="shared" si="15"/>
-        <v>685.24260444821721</v>
+        <v>684.80111041272846</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.4">
@@ -18829,11 +18833,11 @@
       </c>
       <c r="O80">
         <f t="shared" si="9"/>
-        <v>-22.851273555238873</v>
+        <v>-23.285041035381845</v>
       </c>
       <c r="P80">
         <f t="shared" si="15"/>
-        <v>632.56696078343737</v>
+        <v>632.13319330329443</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.4">
@@ -18876,11 +18880,11 @@
       </c>
       <c r="O81">
         <f t="shared" si="9"/>
-        <v>-22.451355061091462</v>
+        <v>-22.8775312077777</v>
       </c>
       <c r="P81">
         <f t="shared" si="15"/>
-        <v>583.8612829458757</v>
+        <v>583.4351067991895</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.4">
@@ -18923,11 +18927,11 @@
       </c>
       <c r="O82">
         <f t="shared" si="9"/>
-        <v>-22.058435511732597</v>
+        <v>-22.477153180342661</v>
       </c>
       <c r="P82">
         <f t="shared" si="15"/>
-        <v>538.8277219780648</v>
+        <v>538.40900430945476</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.4">
@@ -18970,11 +18974,11 @@
       </c>
       <c r="O83">
         <f t="shared" si="9"/>
-        <v>-21.672392419133171</v>
+        <v>-22.083782139955179</v>
       </c>
       <c r="P83">
         <f t="shared" si="15"/>
-        <v>497.19075168055281</v>
+        <v>496.77936195973081</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.4">
@@ -19017,11 +19021,11 @@
       </c>
       <c r="O84">
         <f t="shared" si="9"/>
-        <v>-21.293105438918253</v>
+        <v>-21.697295457839132</v>
       </c>
       <c r="P84">
         <f t="shared" si="15"/>
-        <v>458.69549600897608</v>
+        <v>458.29130599005521</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.4">
@@ -19064,11 +19068,11 @@
       </c>
       <c r="O85">
         <f t="shared" si="9"/>
-        <v>-20.920456332851174</v>
+        <v>-21.317572651335816</v>
       </c>
       <c r="P85">
         <f t="shared" si="15"/>
-        <v>423.10618178897874</v>
+        <v>422.70906547049412</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.4">
@@ -19111,11 +19115,11 @@
       </c>
       <c r="O86">
         <f t="shared" si="9"/>
-        <v>-20.554328931974105</v>
+        <v>-20.944495346344834</v>
       </c>
       <c r="P86">
         <f t="shared" si="15"/>
-        <v>390.20470735980166</v>
+        <v>389.81454094543096</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.4">
@@ -19158,11 +19162,11 @@
       </c>
       <c r="O87">
         <f t="shared" si="9"/>
-        <v>-20.194609100393819</v>
+        <v>-20.577947240422425</v>
       </c>
       <c r="P87">
         <f t="shared" si="15"/>
-        <v>359.78931846085038</v>
+        <v>359.40598032082181</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.4">
@@ -19205,11 +19209,11 @@
       </c>
       <c r="O88">
         <f t="shared" si="9"/>
-        <v>-19.84118469970112</v>
+        <v>-20.217814066525516</v>
       </c>
       <c r="P88">
         <f t="shared" si="15"/>
-        <v>331.67338332627253</v>
+        <v>331.2967539594481</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.4">
@@ -19252,11 +19256,11 @@
       </c>
       <c r="O89">
         <f t="shared" si="9"/>
-        <v>-19.493945554013067</v>
+        <v>-19.863983557390341</v>
       </c>
       <c r="P89">
         <f t="shared" si="15"/>
-        <v>305.68425955460106</v>
+        <v>305.3142215512238</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.4">
@@ -19299,11 +19303,11 @@
       </c>
       <c r="O90">
         <f t="shared" si="9"/>
-        <v>-19.152783415626903</v>
+        <v>-19.516345410534445</v>
       </c>
       <c r="P90">
         <f t="shared" si="15"/>
-        <v>281.66224587740248</v>
+        <v>281.29868388249497</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.4">
@@ -19346,11 +19350,11 @@
       </c>
       <c r="O91">
         <f t="shared" si="9"/>
-        <v>-18.817591931275125</v>
+        <v>-19.17479125387116</v>
       </c>
       <c r="P91">
         <f t="shared" si="15"/>
-        <v>259.45961246605339</v>
+        <v>259.10241314345734</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.4">
@@ -19393,11 +19397,11 @@
       </c>
       <c r="O92">
         <f t="shared" si="9"/>
-        <v>-18.488266608971127</v>
+        <v>-18.839214611925922</v>
       </c>
       <c r="P92">
         <f t="shared" si="15"/>
-        <v>238.93970389232481</v>
+        <v>238.58875588937002</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.4">
@@ -19440,11 +19444,11 @@
       </c>
       <c r="O93">
         <f t="shared" si="9"/>
-        <v>-18.164704785435013</v>
+        <v>-18.509510872643784</v>
       </c>
       <c r="P93">
         <f t="shared" si="15"/>
-        <v>219.9761092993437</v>
+        <v>219.63130321213495</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.4">
@@ -19487,11 +19491,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="9"/>
-        <v>-17.846805594089588</v>
+        <v>-18.18557725477784</v>
       </c>
       <c r="P94">
         <f t="shared" si="15"/>
-        <v>202.45189474731541</v>
+        <v>202.11312308662718</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.4">
@@ -19534,11 +19538,11 @@
       </c>
       <c r="O95">
         <f t="shared" si="9"/>
-        <v>-17.534469933616364</v>
+        <v>-17.867312775848401</v>
       </c>
       <c r="P95">
         <f t="shared" si="15"/>
-        <v>186.2588930756948</v>
+        <v>185.92605023346275</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.4">
@@ -19581,11 +19585,11 @@
       </c>
       <c r="O96">
         <f t="shared" si="9"/>
-        <v>-17.227600437061884</v>
+        <v>-17.554618220662885</v>
       </c>
       <c r="P96">
         <f t="shared" si="15"/>
-        <v>171.29704697248553</v>
+        <v>170.97002918888452</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.4">
@@ -19628,11 +19632,11 @@
       </c>
       <c r="O97">
         <f t="shared" si="9"/>
-        <v>-16.926101441484743</v>
+        <v>-17.247396110386639</v>
       </c>
       <c r="P97">
         <f t="shared" si="15"/>
-        <v>157.47380126422931</v>
+        <v>157.15250659532742</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.4">
@@ -19675,11 +19679,11 @@
       </c>
       <c r="O98">
         <f t="shared" si="9"/>
-        <v>-16.629878958133787</v>
+        <v>-16.945550672155107</v>
       </c>
       <c r="P98">
         <f t="shared" si="15"/>
-        <v>144.70354073891451</v>
+        <v>144.38786902489318</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.4">
@@ -19722,11 +19726,11 @@
       </c>
       <c r="O99">
         <f t="shared" si="9"/>
-        <v>-16.338840643148238</v>
+        <v>-16.648987809217726</v>
       </c>
       <c r="P99">
         <f t="shared" si="15"/>
-        <v>132.90707009032781</v>
+        <v>132.59692292425834</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.4">
@@ -19769,11 +19773,11 @@
       </c>
       <c r="O100">
         <f t="shared" si="9"/>
-        <v>-16.052895768770576</v>
+        <v>-16.3576150716044</v>
       </c>
       <c r="P100">
         <f t="shared" si="15"/>
-        <v>122.01113282797925</v>
+        <v>121.70641352514544</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.4">
@@ -19816,11 +19820,11 @@
       </c>
       <c r="O101">
         <f t="shared" si="9"/>
-        <v>-15.771955195063239</v>
+        <v>-16.071341627305305</v>
       </c>
       <c r="P101">
         <f t="shared" si="15"/>
-        <v>111.94796623316633</v>
+        <v>111.64857980092427</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.4">
@@ -19863,11 +19867,11 @@
       </c>
       <c r="O102">
         <f t="shared" si="9"/>
-        <v>-15.495931342120299</v>
+        <v>-15.790078233955088</v>
       </c>
       <c r="P102">
         <f t="shared" si="15"/>
-        <v>102.65488966048483</v>
+        <v>102.36074276865004</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.4">
@@ -19910,11 +19914,11 @@
       </c>
       <c r="O103">
         <f t="shared" si="9"/>
-        <v>-15.224738162765458</v>
+        <v>-15.513737211012609</v>
       </c>
       <c r="P103">
         <f t="shared" si="15"/>
-        <v>94.073923686428245</v>
+        <v>93.784924638181096</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.4">
@@ -19957,11 +19961,11 @@
       </c>
       <c r="O104">
         <f t="shared" si="9"/>
-        <v>-14.95829111572786</v>
+        <v>-15.242232412427569</v>
       </c>
       <c r="P104">
         <f t="shared" si="15"/>
-        <v>86.151437793908542</v>
+        <v>85.867496497208833</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.4">
@@ -20004,11 +20008,11 @@
       </c>
       <c r="O105">
         <f t="shared" si="9"/>
-        <v>-14.696507139287343</v>
+        <v>-14.975479199785495</v>
       </c>
       <c r="P105">
         <f t="shared" si="15"/>
-        <v>78.837824454687137</v>
+        <v>78.558852394188989</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.4">
@@ -20051,11 +20055,11 @@
       </c>
       <c r="O106">
         <f t="shared" si="9"/>
-        <v>-14.439304625380929</v>
+        <v>-14.713394415922705</v>
       </c>
       <c r="P106">
         <f t="shared" si="15"/>
-        <v>72.087197631888529</v>
+        <v>71.813107841346749</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.4">
@@ -20098,11 +20102,11 @@
       </c>
       <c r="O107">
         <f t="shared" ref="O107:O170" si="18">-SQRT(($N$4*EXP(-$N$6*(M107/$N$7-1)))^2*$C$41)</f>
-        <v>-14.186603394162498</v>
+        <v>-14.455896359003088</v>
       </c>
       <c r="P107">
         <f t="shared" si="15"/>
-        <v>65.857113872958863</v>
+        <v>65.587820908118275</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.4">
@@ -20145,11 +20149,11 @@
       </c>
       <c r="O108">
         <f t="shared" si="18"/>
-        <v>-13.938324669007626</v>
+        <v>-14.202904757048451</v>
       </c>
       <c r="P108">
         <f t="shared" ref="P108:P171" si="24">N108+O108</f>
-        <v>60.108314300506223</v>
+        <v>59.843734212465399</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.4">
@@ -20192,11 +20196,11 @@
       </c>
       <c r="O109">
         <f t="shared" si="18"/>
-        <v>-13.694391051955929</v>
+        <v>-13.954340742914731</v>
       </c>
       <c r="P109">
         <f t="shared" si="24"/>
-        <v>54.804485935278635</v>
+        <v>54.544536244319836</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.4">
@@ -20239,11 +20243,11 @@
       </c>
       <c r="O110">
         <f t="shared" si="18"/>
-        <v>-13.454726499583161</v>
+        <v>-13.710126829706077</v>
       </c>
       <c r="P110">
         <f t="shared" si="24"/>
-        <v>49.91204090283874</v>
+        <v>49.656640572715823</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.4">
@@ -20286,11 +20290,11 @@
       </c>
       <c r="O111">
         <f t="shared" si="18"/>
-        <v>-13.219256299295575</v>
+        <v>-13.470186886619226</v>
       </c>
       <c r="P111">
         <f t="shared" si="24"/>
-        <v>45.399912184020401</v>
+        <v>45.14898159669675</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.4">
@@ -20333,11 +20337,11 @@
       </c>
       <c r="O112">
         <f t="shared" si="18"/>
-        <v>-12.987907046039142</v>
+        <v>-13.234446115210625</v>
       </c>
       <c r="P112">
         <f t="shared" si="24"/>
-        <v>41.23936466964021</v>
+        <v>40.992825600468727</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.4">
@@ -20380,11 +20384,11 @@
       </c>
       <c r="O113">
         <f t="shared" si="18"/>
-        <v>-12.760606619416414</v>
+        <v>-13.002831026078903</v>
       </c>
       <c r="P113">
         <f t="shared" si="24"/>
-        <v>37.403820372806479</v>
+        <v>37.161595966143992</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.4">
@@ -20427,11 +20431,11 @@
       </c>
       <c r="O114">
         <f t="shared" si="18"/>
-        <v>-12.537284161203813</v>
+        <v>-12.775269415955401</v>
       </c>
       <c r="P114">
         <f t="shared" si="24"/>
-        <v>33.868696738079407</v>
+        <v>33.630711483327822</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.4">
@@ -20474,11 +20478,11 @@
       </c>
       <c r="O115">
         <f t="shared" si="18"/>
-        <v>-12.317870053262444</v>
+        <v>-12.551690345195684</v>
       </c>
       <c r="P115">
         <f t="shared" si="24"/>
-        <v>30.611257066210214</v>
+        <v>30.377436774276976</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.4">
@@ -20521,11 +20525,11 @@
       </c>
       <c r="O116">
         <f t="shared" si="18"/>
-        <v>-12.102295895835461</v>
+        <v>-12.332024115664927</v>
       </c>
       <c r="P116">
         <f t="shared" si="24"/>
-        <v>27.61047214670598</v>
+        <v>27.380743926876512</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.4">
@@ -20568,11 +20572,11 @@
       </c>
       <c r="O117">
         <f t="shared" si="18"/>
-        <v>-11.890494486225217</v>
+        <v>-12.116202249010341</v>
       </c>
       <c r="P117">
         <f t="shared" si="24"/>
-        <v>24.84689225848048</v>
+        <v>24.621184495695353</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.4">
@@ -20615,11 +20619,11 @@
       </c>
       <c r="O118">
         <f t="shared" si="18"/>
-        <v>-11.682399797843653</v>
+        <v>-11.904157465313862</v>
       </c>
       <c r="P118">
         <f t="shared" si="24"/>
-        <v>22.302528761764904</v>
+        <v>22.080771094294693</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.4">
@@ -20662,11 +20666,11 @@
       </c>
       <c r="O119">
         <f t="shared" si="18"/>
-        <v>-11.477946959629278</v>
+        <v>-11.695823662118434</v>
       </c>
       <c r="P119">
         <f t="shared" si="24"/>
-        <v>19.960744562656096</v>
+        <v>19.742867860166939</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.4">
@@ -20709,11 +20713,11 @@
       </c>
       <c r="O120">
         <f t="shared" si="18"/>
-        <v>-11.277072235824381</v>
+        <v>-11.491135893821347</v>
       </c>
       <c r="P120">
         <f t="shared" si="24"/>
-        <v>17.806152785520286</v>
+        <v>17.59208912752332</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.4">
@@ -20756,11 +20760,11 @@
       </c>
       <c r="O121">
         <f t="shared" si="18"/>
-        <v>-11.079713006106152</v>
+        <v>-11.290030351428211</v>
       </c>
       <c r="P121">
         <f t="shared" si="24"/>
-        <v>15.824523038278757</v>
+        <v>15.614205692956698</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.4">
@@ -20803,11 +20807,11 @@
       </c>
       <c r="O122">
         <f t="shared" si="18"/>
-        <v>-10.885807746065556</v>
+        <v>-11.092444342661247</v>
       </c>
       <c r="P122">
         <f t="shared" si="24"/>
-        <v>14.002694701676859</v>
+        <v>13.796058105081167</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.4">
@@ -20850,11 +20854,11 @@
       </c>
       <c r="O123">
         <f t="shared" si="18"/>
-        <v>-10.6952960080278</v>
+        <v>-10.898316272415725</v>
       </c>
       <c r="P123">
         <f t="shared" si="24"/>
-        <v>12.328496716261828</v>
+        <v>12.125476451873903</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.4">
@@ -20897,11 +20901,11 @@
       </c>
       <c r="O124">
         <f t="shared" si="18"/>
-        <v>-10.50811840220851</v>
+        <v>-10.70758562355841</v>
       </c>
       <c r="P124">
         <f t="shared" si="24"/>
-        <v>10.790673380224987</v>
+        <v>10.591206158875087</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.4">
@@ -20944,11 +20948,11 @@
       </c>
       <c r="O125">
         <f t="shared" si="18"/>
-        <v>-10.324216578199646</v>
+        <v>-10.520192938062062</v>
       </c>
       <c r="P125">
         <f t="shared" si="24"/>
-        <v>9.3788157077398076</v>
+        <v>9.1828393478773922</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.4">
@@ -20991,11 +20995,11 @@
       </c>
       <c r="O126">
         <f t="shared" si="18"/>
-        <v>-10.143533206779464</v>
+        <v>-10.336079798470088</v>
       </c>
       <c r="P126">
         <f t="shared" si="24"/>
-        <v>8.0832979311705291</v>
+        <v>7.8907513394799054</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.4">
@@ -21038,11 +21042,11 @@
       </c>
       <c r="O127">
         <f t="shared" si="18"/>
-        <v>-9.9660119620408114</v>
+        <v>-10.155188809685615</v>
       </c>
       <c r="P127">
         <f t="shared" si="24"/>
-        <v>6.8952187617408232</v>
+        <v>6.7060419140960192</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.4">
@@ -21085,11 +21089,11 @@
       </c>
       <c r="O128">
         <f t="shared" si="18"/>
-        <v>-9.7915975038321701</v>
+        <v>-9.9774635810792205</v>
       </c>
       <c r="P128">
         <f t="shared" si="24"/>
-        <v>5.8063470521282898</v>
+        <v>5.6204809748812394</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.4">
@@ -21132,11 +21136,11 @@
       </c>
       <c r="O129">
         <f t="shared" si="18"/>
-        <v>-9.6202354605060414</v>
+        <v>-9.8028487089098277</v>
       </c>
       <c r="P129">
         <f t="shared" si="24"/>
-        <v>4.8090715311635535</v>
+        <v>4.6264582827597671</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.4">
@@ -21179,11 +21183,11 @@
       </c>
       <c r="O130">
         <f t="shared" si="18"/>
-        <v>-9.4518724119692088</v>
+        <v>-9.6312897590532529</v>
       </c>
       <c r="P130">
         <f t="shared" si="24"/>
-        <v>3.8963543055237402</v>
+        <v>3.7169369584396961</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.4">
@@ -21226,11 +21230,11 @@
       </c>
       <c r="O131">
         <f t="shared" si="18"/>
-        <v>-9.28645587302967</v>
+        <v>-9.462733250032997</v>
       </c>
       <c r="P131">
         <f t="shared" si="24"/>
-        <v>3.0616878461702441</v>
+        <v>2.8854104691669171</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.4">
@@ -21273,11 +21277,11 @@
       </c>
       <c r="O132">
         <f t="shared" si="18"/>
-        <v>-9.1239342770349925</v>
+        <v>-9.2971266363480343</v>
       </c>
       <c r="P132">
         <f t="shared" si="24"/>
-        <v>2.2990551984280465</v>
+        <v>2.1258628391150047</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.4">
@@ -21320,11 +21324,11 @@
       </c>
       <c r="O133">
         <f t="shared" si="18"/>
-        <v>-8.9642569597970105</v>
+        <v>-9.1344182920923753</v>
       </c>
       <c r="P133">
         <f t="shared" si="24"/>
-        <v>1.6028931741661196</v>
+        <v>1.4327318418707549</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.4">
@@ -21367,11 +21371,11 @@
       </c>
       <c r="O134">
         <f t="shared" si="18"/>
-        <v>-8.8073741437978779</v>
+        <v>-8.9745574948612887</v>
       </c>
       <c r="P134">
         <f t="shared" si="24"/>
-        <v>0.96805830263625658</v>
+        <v>0.80087495157284572</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.4">
@@ -21414,11 +21418,11 @@
       </c>
       <c r="O135">
         <f t="shared" si="18"/>
-        <v>-8.653236922672491</v>
+        <v>-8.8174944099392008</v>
       </c>
       <c r="P135">
         <f t="shared" si="24"/>
-        <v>0.38979533326824978</v>
+        <v>0.22553784600154003</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.4">
@@ -21461,11 +21465,11 @@
       </c>
       <c r="O136">
         <f t="shared" si="18"/>
-        <v>-8.5017972459625426</v>
+        <v>-8.663180074764318</v>
       </c>
       <c r="P136">
         <f t="shared" si="24"/>
-        <v>-0.13629190079338294</v>
+        <v>-0.29767472959515828</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.4">
@@ -21508,11 +21512,11 @@
       </c>
       <c r="O137">
         <f t="shared" si="18"/>
-        <v>-8.3530079041373284</v>
+        <v>-8.5115663836651052</v>
       </c>
       <c r="P137">
         <f t="shared" si="24"/>
-        <v>-0.61426743529957495</v>
+        <v>-0.77282591482735175</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.4">
@@ -21555,11 +21559,11 @@
       </c>
       <c r="O138">
         <f t="shared" si="18"/>
-        <v>-8.206822513876741</v>
+        <v>-8.3626060728639295</v>
       </c>
       <c r="P138">
         <f t="shared" si="24"/>
-        <v>-1.0478881072887578</v>
+        <v>-1.2036716662759464</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.4">
@@ -21602,11 +21606,11 @@
       </c>
       <c r="O139">
         <f t="shared" si="18"/>
-        <v>-8.0631955036118281</v>
+        <v>-8.2162527057431287</v>
       </c>
       <c r="P139">
         <f t="shared" si="24"/>
-        <v>-1.4406266186358607</v>
+        <v>-1.5936838207671613</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.4">
@@ -21649,11 +21653,11 @@
       </c>
       <c r="O140">
         <f t="shared" si="18"/>
-        <v>-7.9220820993183771</v>
+        <v>-8.0724606583689411</v>
       </c>
       <c r="P140">
         <f t="shared" si="24"/>
-        <v>-1.7956928707914024</v>
+        <v>-1.9460714298419663</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.4">
@@ -21696,11 +21700,11 @@
       </c>
       <c r="O141">
         <f t="shared" si="18"/>
-        <v>-7.7834383105591662</v>
+        <v>-7.9311851052687983</v>
       </c>
       <c r="P141">
         <f t="shared" si="24"/>
-        <v>-2.1160537002520616</v>
+        <v>-2.2638004949616937</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.4">
@@ -21743,11 +21747,11 @@
       </c>
       <c r="O142">
         <f t="shared" si="18"/>
-        <v>-7.6472209167704293</v>
+        <v>-7.7923820054574824</v>
       </c>
       <c r="P142">
         <f t="shared" si="24"/>
-        <v>-2.4044511345983581</v>
+        <v>-2.5496122232854113</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.4">
@@ -21790,11 +21794,11 @@
       </c>
       <c r="O143">
         <f t="shared" si="18"/>
-        <v>-7.5133874537883942</v>
+        <v>-7.6560080887079067</v>
       </c>
       <c r="P143">
         <f t="shared" si="24"/>
-        <v>-2.6634192799560594</v>
+        <v>-2.8060399148755719</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.4">
@@ -21837,11 +21841,11 @@
       </c>
       <c r="O144">
         <f t="shared" si="18"/>
-        <v>-7.3818962006115569</v>
+        <v>-7.5220208420621057</v>
       </c>
       <c r="P144">
         <f t="shared" si="24"/>
-        <v>-2.8952999424326702</v>
+        <v>-3.035424583883219</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.4">
@@ -21884,11 +21888,11 @@
       </c>
       <c r="O145">
         <f t="shared" si="18"/>
-        <v>-7.2527061663946579</v>
+        <v>-7.390378496578335</v>
       </c>
       <c r="P145">
         <f t="shared" si="24"/>
-        <v>-3.102257078396029</v>
+        <v>-3.2399294085797061</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.4">
@@ -21931,11 +21935,11 @@
       </c>
       <c r="O146">
         <f t="shared" si="18"/>
-        <v>-7.1257770776702678</v>
+        <v>-7.261040014310093</v>
       </c>
       <c r="P146">
         <f t="shared" si="24"/>
-        <v>-3.2862901613546049</v>
+        <v>-3.4215530979944302</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.4">
@@ -21978,11 +21982,11 @@
       </c>
       <c r="O147">
         <f t="shared" si="18"/>
-        <v>-7.0010693657940193</v>
+        <v>-7.1339650755130259</v>
       </c>
       <c r="P147">
         <f t="shared" si="24"/>
-        <v>-3.4492465466234652</v>
+        <v>-3.5821422563424719</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.4">
@@ -22025,11 +22029,11 @@
       </c>
       <c r="O148">
         <f t="shared" si="18"/>
-        <v>-6.8785441546095436</v>
+        <v>-7.0091140660757301</v>
       </c>
       <c r="P148">
         <f t="shared" si="24"/>
-        <v>-3.5928329088771727</v>
+        <v>-3.7234028203433591</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.4">
@@ -22072,11 +22076,11 @@
       </c>
       <c r="O149">
         <f t="shared" si="18"/>
-        <v>-6.7581632483292777</v>
+        <v>-6.886448065170506</v>
       </c>
       <c r="P149">
         <f t="shared" si="24"/>
-        <v>-3.7186258220639381</v>
+        <v>-3.8469106389051664</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.4">
@@ -22119,11 +22123,11 @@
       </c>
       <c r="O150">
         <f t="shared" si="18"/>
-        <v>-6.639889119627397</v>
+        <v>-6.7659288331202676</v>
       </c>
       <c r="P150">
         <f t="shared" si="24"/>
-        <v>-3.8280815459498636</v>
+        <v>-3.9541212594427342</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.4">
@@ -22166,11 +22170,11 @@
       </c>
       <c r="O151">
         <f t="shared" si="18"/>
-        <v>-6.5236848979410986</v>
+        <v>-6.6475187994777558</v>
       </c>
       <c r="P151">
         <f t="shared" si="24"/>
-        <v>-3.9225450787467344</v>
+        <v>-4.0463789802833912</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.4">
@@ -22213,11 +22217,11 @@
       </c>
       <c r="O152">
         <f t="shared" si="18"/>
-        <v>-6.4095143579766578</v>
+        <v>-6.5311810513134194</v>
       </c>
       <c r="P152">
         <f t="shared" si="24"/>
-        <v>-4.0032585308222366</v>
+        <v>-4.1249252241589982</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.4">
@@ -22260,11 +22264,11 @@
       </c>
       <c r="O153">
         <f t="shared" si="18"/>
-        <v>-6.2973419084165956</v>
+        <v>-6.4168793217082207</v>
       </c>
       <c r="P153">
         <f t="shared" si="24"/>
-        <v>-4.0713688703705557</v>
+        <v>-4.1909062836621809</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.4">
@@ -22307,11 +22311,11 @@
       </c>
       <c r="O154">
         <f t="shared" si="18"/>
-        <v>-6.1871325808245237</v>
+        <v>-6.3045779784478633</v>
       </c>
       <c r="P154">
         <f t="shared" si="24"/>
-        <v>-4.1279350881092434</v>
+        <v>-4.2453804857325821</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.4">
@@ -22354,11 +22358,11 @@
       </c>
       <c r="O155">
         <f t="shared" si="18"/>
-        <v>-6.078852018744147</v>
+        <v>-6.1942420129148728</v>
       </c>
       <c r="P155">
         <f t="shared" si="24"/>
-        <v>-4.1739348245417283</v>
+        <v>-4.2893248187124531</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.4">
@@ -22401,11 +22405,11 @@
       </c>
       <c r="O156">
         <f t="shared" si="18"/>
-        <v>-5.9724664669890331</v>
+        <v>-6.0858370291750656</v>
       </c>
       <c r="P156">
         <f t="shared" si="24"/>
-        <v>-4.2102705000625402</v>
+        <v>-4.3236410622485728</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.4">
@@ -22448,11 +22452,11 @@
       </c>
       <c r="O157">
         <f t="shared" si="18"/>
-        <v>-5.8679427611198447</v>
+        <v>-5.9793292332550321</v>
       </c>
       <c r="P157">
         <f t="shared" si="24"/>
-        <v>-4.2377749851645277</v>
+        <v>-4.349161457299715</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.4">
@@ -22495,11 +22499,11 @@
       </c>
       <c r="O158">
         <f t="shared" si="18"/>
-        <v>-5.765248317105705</v>
+        <v>-5.8746854226072562</v>
       </c>
       <c r="P158">
         <f t="shared" si="24"/>
-        <v>-4.2572168452155212</v>
+        <v>-4.3666539507170725</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.4">
@@ -22542,11 +22546,11 @@
       </c>
       <c r="O159">
         <f t="shared" si="18"/>
-        <v>-5.664351121166523</v>
+        <v>-5.7718729757596181</v>
       </c>
       <c r="P159">
         <f t="shared" si="24"/>
-        <v>-4.2693051916893783</v>
+        <v>-4.3768270462824734</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.4">
@@ -22589,11 +22593,11 @@
       </c>
       <c r="O160">
         <f t="shared" si="18"/>
-        <v>-5.5652197197930624</v>
+        <v>-5.6708598421460321</v>
       </c>
       <c r="P160">
         <f t="shared" si="24"/>
-        <v>-4.2746941693472111</v>
+        <v>-4.3803342917001808</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.4">
@@ -22636,11 +22640,11 @@
       </c>
       <c r="O161">
         <f t="shared" si="18"/>
-        <v>-5.4678232099416952</v>
+        <v>-5.5716145321150679</v>
       </c>
       <c r="P161">
         <f t="shared" si="24"/>
-        <v>-4.2739871066545625</v>
+        <v>-4.3777784288279351</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.4">
@@ -22683,11 +22687,11 @@
       </c>
       <c r="O162">
         <f t="shared" si="18"/>
-        <v>-5.3721312294007317</v>
+        <v>-5.4741061071134132</v>
       </c>
       <c r="P162">
         <f t="shared" si="24"/>
-        <v>-4.2677403546757713</v>
+        <v>-4.3697152323884527</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.4">
@@ -22730,11 +22734,11 @@
       </c>
       <c r="O163">
         <f t="shared" si="18"/>
-        <v>-5.2781139473253678</v>
+        <v>-5.3783041700411562</v>
       </c>
       <c r="P163">
         <f t="shared" si="24"/>
-        <v>-4.256466837795446</v>
+        <v>-4.3566570605112345</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.4">
@@ -22777,11 +22781,11 @@
       </c>
       <c r="O164">
         <f t="shared" si="18"/>
-        <v>-5.185742054938264</v>
+        <v>-5.2841788557758393</v>
       </c>
       <c r="P164">
         <f t="shared" si="24"/>
-        <v>-4.2406393378673872</v>
+        <v>-4.3390761387049626</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.4">
@@ -22824,11 +22828,11 @@
       </c>
       <c r="O165">
         <f t="shared" si="18"/>
-        <v>-5.0949867563928857</v>
+        <v>-5.1917008218623648</v>
       </c>
       <c r="P165">
         <f t="shared" si="24"/>
-        <v>-4.220693531772751</v>
+        <v>-4.3174075972422301</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.4">
@@ -22871,11 +22875,11 @@
       </c>
       <c r="O166">
         <f t="shared" si="18"/>
-        <v>-5.0058197597967364</v>
+        <v>-5.100841239365832</v>
       </c>
       <c r="P166">
         <f t="shared" si="24"/>
-        <v>-4.1970308008720227</v>
+        <v>-4.2920522804411183</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.4">
@@ -22918,11 +22922,11 @@
       </c>
       <c r="O167">
         <f t="shared" si="18"/>
-        <v>-4.918213268391697</v>
+        <v>-5.0115717838844542</v>
       </c>
       <c r="P167">
         <f t="shared" si="24"/>
-        <v>-4.170020829450249</v>
+        <v>-4.2633793449430062</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.4">
@@ -22965,11 +22969,11 @@
       </c>
       <c r="O168">
         <f t="shared" si="18"/>
-        <v>-4.8321399718887061</v>
+        <v>-4.9238646267197614</v>
       </c>
       <c r="P168">
         <f t="shared" si="24"/>
-        <v>-4.1400040079737224</v>
+        <v>-4.2317286628047777</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.4">
@@ -23012,11 +23016,11 @@
       </c>
       <c r="O169">
         <f t="shared" si="18"/>
-        <v>-4.7475730379541119</v>
+        <v>-4.8376924262013343</v>
       </c>
       <c r="P169">
         <f t="shared" si="24"/>
-        <v>-4.1072936557910245</v>
+        <v>-4.1974130440382469</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.4">
@@ -23059,11 +23063,11 @@
       </c>
       <c r="O170">
         <f t="shared" si="18"/>
-        <v>-4.6644861038449985</v>
+        <v>-4.7530283191633611</v>
       </c>
       <c r="P170">
         <f t="shared" si="24"/>
-        <v>-4.0721780768147768</v>
+        <v>-4.1607202921331394</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.4">
@@ -23106,11 +23110,11 @@
       </c>
       <c r="O171">
         <f t="shared" ref="O171:O234" si="27">-SQRT(($N$4*EXP(-$N$6*(M171/$N$7-1)))^2*$C$41)</f>
-        <v>-4.5828532681909193</v>
+        <v>-4.6698459125703575</v>
       </c>
       <c r="P171">
         <f t="shared" si="24"/>
-        <v>-4.0349224607062064</v>
+        <v>-4.1219151050856446</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.4">
@@ -23153,11 +23157,11 @@
       </c>
       <c r="O172">
         <f t="shared" si="27"/>
-        <v>-4.5026490829194481</v>
+        <v>-4.5881192752894604</v>
       </c>
       <c r="P172">
         <f t="shared" ref="P172:P235" si="33">N172+O172</f>
-        <v>-3.995770641146227</v>
+        <v>-4.0812408335162393</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.4">
@@ -23200,11 +23204,11 @@
       </c>
       <c r="O173">
         <f t="shared" si="27"/>
-        <v>-4.4238485453230423</v>
+        <v>-4.5078229300066912</v>
       </c>
       <c r="P173">
         <f t="shared" si="33"/>
-        <v>-3.9549467219087475</v>
+        <v>-4.0389211065923964</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.4">
@@ -23247,11 +23251,11 @@
       </c>
       <c r="O174">
         <f t="shared" si="27"/>
-        <v>-4.3464270902647426</v>
+        <v>-4.428931845284712</v>
       </c>
       <c r="P174">
         <f t="shared" si="33"/>
-        <v>-3.9126565806489086</v>
+        <v>-3.995161335668878</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.4">
@@ -23294,11 +23298,11 @@
       </c>
       <c r="O175">
         <f t="shared" si="27"/>
-        <v>-4.2703605825202891</v>
+        <v>-4.3514214277595711</v>
       </c>
       <c r="P175">
         <f t="shared" si="33"/>
-        <v>-3.8690892595761337</v>
+        <v>-3.9501501048154157</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.4">
@@ -23341,11 +23345,11 @@
       </c>
       <c r="O176">
         <f t="shared" si="27"/>
-        <v>-4.1956253092542424</v>
+        <v>-4.275267514474006</v>
       </c>
       <c r="P176">
         <f t="shared" si="33"/>
-        <v>-3.8244182514946967</v>
+        <v>-3.9040604567144603</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.4">
@@ -23388,11 +23392,11 @@
       </c>
       <c r="O177">
         <f t="shared" si="27"/>
-        <v>-4.1221979726277889</v>
+        <v>-4.2004463653449324</v>
       </c>
       <c r="P177">
         <f t="shared" si="33"/>
-        <v>-3.7788026890588315</v>
+        <v>-3.8570510817759751</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.4">
@@ -23435,11 +23439,11 @@
       </c>
       <c r="O178">
         <f t="shared" si="27"/>
-        <v>-4.0500556825359144</v>
+        <v>-4.1269346557627511</v>
       </c>
       <c r="P178">
         <f t="shared" si="33"/>
-        <v>-3.7323884445013702</v>
+        <v>-3.8092674177282069</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
@@ -23482,11 +23486,11 @@
       </c>
       <c r="O179">
         <f t="shared" si="27"/>
-        <v>-3.9791759494716894</v>
+        <v>-4.0547094693201764</v>
       </c>
       <c r="P179">
         <f t="shared" si="33"/>
-        <v>-3.6853091465508752</v>
+        <v>-3.7608426663993622</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
@@ -23529,11 +23533,11 @@
       </c>
       <c r="O180">
         <f t="shared" si="27"/>
-        <v>-3.909536677515423</v>
+        <v>-3.983748290668319</v>
       </c>
       <c r="P180">
         <f t="shared" si="33"/>
-        <v>-3.6376871207490122</v>
+        <v>-3.7118987339019087</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
@@ -23576,11 +23580,11 @@
       </c>
       <c r="O181">
         <f t="shared" si="27"/>
-        <v>-3.8411161574465282</v>
+        <v>-3.9140289984977898</v>
       </c>
       <c r="P181">
         <f t="shared" si="33"/>
-        <v>-3.5896342589143977</v>
+        <v>-3.6625470999656593</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.4">
@@ -23623,11 +23627,11 @@
       </c>
       <c r="O182">
         <f t="shared" si="27"/>
-        <v>-3.7738930599759226</v>
+        <v>-3.8455298586426432</v>
       </c>
       <c r="P182">
         <f t="shared" si="33"/>
-        <v>-3.5412528230684659</v>
+        <v>-3.6128896217351865</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
@@ -23670,11 +23674,11 @@
       </c>
       <c r="O183">
         <f t="shared" si="27"/>
-        <v>-3.7078464290968758</v>
+        <v>-3.7782295173050056</v>
       </c>
       <c r="P183">
         <f t="shared" si="33"/>
-        <v>-3.4926361887405797</v>
+        <v>-3.5630192769487095</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
@@ -23717,11 +23721,11 @@
       </c>
       <c r="O184">
         <f t="shared" si="27"/>
-        <v>-3.6429556755522303</v>
+        <v>-3.712106994398289</v>
       </c>
       <c r="P184">
         <f t="shared" si="33"/>
-        <v>-3.4438695322010315</v>
+        <v>-3.5130208510470902</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
@@ -23764,11 +23768,11 @@
       </c>
       <c r="O185">
         <f t="shared" si="27"/>
-        <v>-3.5792005704159302</v>
+        <v>-3.6471416770068874</v>
       </c>
       <c r="P185">
         <f t="shared" si="33"/>
-        <v>-3.3950304658296657</v>
+        <v>-3.4629715724206229</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
@@ -23811,11 +23815,11 @@
       </c>
       <c r="O186">
         <f t="shared" si="27"/>
-        <v>-3.5165612387869007</v>
+        <v>-3.5833133129603483</v>
       </c>
       <c r="P186">
         <f t="shared" si="33"/>
-        <v>-3.3461896255125345</v>
+        <v>-3.412941699685982</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
@@ -23858,11 +23862,11 @@
       </c>
       <c r="O187">
         <f t="shared" si="27"/>
-        <v>-3.4550181535932802</v>
+        <v>-3.5206020045199953</v>
       </c>
       <c r="P187">
         <f t="shared" si="33"/>
-        <v>-3.2974112136671838</v>
+        <v>-3.3629950645938989</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
@@ -23905,11 +23909,11 @@
       </c>
       <c r="O188">
         <f t="shared" si="27"/>
-        <v>-3.3945521295050853</v>
+        <v>-3.4589882021760467</v>
       </c>
       <c r="P188">
         <f t="shared" si="33"/>
-        <v>-3.2487535012273456</v>
+        <v>-3.313189573898307</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.4">
@@ -23952,11 +23956,11 @@
       </c>
       <c r="O189">
         <f t="shared" si="27"/>
-        <v>-3.3351443169534156</v>
+        <v>-3.3984526985532835</v>
       </c>
       <c r="P189">
         <f t="shared" si="33"/>
-        <v>-3.2002692916681186</v>
+        <v>-3.2635776732679864</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.4">
@@ -23999,11 +24003,11 @@
       </c>
       <c r="O190">
         <f t="shared" si="27"/>
-        <v>-3.2767761962543172</v>
+        <v>-3.338976622423381</v>
       </c>
       <c r="P190">
         <f t="shared" si="33"/>
-        <v>-3.1520063499217716</v>
+        <v>-3.2142067760908355</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.4">
@@ -24046,11 +24050,11 @@
       </c>
       <c r="O191">
         <f t="shared" si="27"/>
-        <v>-3.2194295718354926</v>
+        <v>-3.280541432822019</v>
       </c>
       <c r="P191">
         <f t="shared" si="33"/>
-        <v>-3.1040077988206773</v>
+        <v>-3.1651196598072038</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
@@ -24093,11 +24097,11 @@
       </c>
       <c r="O192">
         <f t="shared" si="27"/>
-        <v>-3.1630865665640462</v>
+        <v>-3.2231289132689636</v>
       </c>
       <c r="P192">
         <f t="shared" si="33"/>
-        <v>-3.056312485506222</v>
+        <v>-3.1163548322111394</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.4">
@@ -24140,11 +24144,11 @@
       </c>
       <c r="O193">
         <f t="shared" si="27"/>
-        <v>-3.1077296161734989</v>
+        <v>-3.1667211660892893</v>
       </c>
       <c r="P193">
         <f t="shared" si="33"/>
-        <v>-3.008955320059719</v>
+        <v>-3.0679468699755095</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.4">
@@ -24187,11 +24191,11 @@
       </c>
       <c r="O194">
         <f t="shared" si="27"/>
-        <v>-3.053341463788334</v>
+        <v>-3.1113006068339906</v>
       </c>
       <c r="P194">
         <f t="shared" si="33"/>
-        <v>-2.9619675884422279</v>
+        <v>-3.0199267314878844</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.4">
@@ -24234,11 +24238,11 @@
       </c>
       <c r="O195">
         <f t="shared" si="27"/>
-        <v>-2.9999051545443738</v>
+        <v>-3.0568499587982396</v>
       </c>
       <c r="P195">
         <f t="shared" si="33"/>
-        <v>-2.9153772416737196</v>
+        <v>-2.9723220459275854</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.4">
@@ -24281,11 +24285,11 @@
       </c>
       <c r="O196">
         <f t="shared" si="27"/>
-        <v>-2.947404030303296</v>
+        <v>-3.0033522476355765</v>
       </c>
       <c r="P196">
         <f t="shared" si="33"/>
-        <v>-2.8692091630372953</v>
+        <v>-2.9251573803695758</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.4">
@@ -24328,11 +24332,11 @@
       </c>
       <c r="O197">
         <f t="shared" si="27"/>
-        <v>-2.8958217244596614</v>
+        <v>-2.9507907960663577</v>
       </c>
       <c r="P197">
         <f t="shared" si="33"/>
-        <v>-2.8234854149602908</v>
+        <v>-2.8784544865669872</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.4">
@@ -24375,11 +24379,11 @@
       </c>
       <c r="O198">
         <f t="shared" si="27"/>
-        <v>-2.8451421568388113</v>
+        <v>-2.8991492186788097</v>
       </c>
       <c r="P198">
         <f t="shared" si="33"/>
-        <v>-2.7782254671002269</v>
+        <v>-2.8322325289402253</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.4">
@@ -24422,11 +24426,11 @@
       </c>
       <c r="O199">
         <f t="shared" si="27"/>
-        <v>-2.7953495286840684</v>
+        <v>-2.848411416821071</v>
       </c>
       <c r="P199">
         <f t="shared" si="33"/>
-        <v>-2.7334464070490214</v>
+        <v>-2.7865082951860241</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.4">
@@ -24469,11 +24473,11 @@
       </c>
       <c r="O200">
         <f t="shared" si="27"/>
-        <v>-2.7464283177316613</v>
+        <v>-2.798561573582631</v>
       </c>
       <c r="P200">
         <f t="shared" si="33"/>
-        <v>-2.6891631349628566</v>
+        <v>-2.7412963908138264</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.4">
@@ -24516,11 +24520,11 @@
       </c>
       <c r="O201">
         <f t="shared" si="27"/>
-        <v>-2.6983632733718363</v>
+        <v>-2.7495841488635877</v>
       </c>
       <c r="P201">
         <f t="shared" si="33"/>
-        <v>-2.6453885433270758</v>
+        <v>-2.6966094188188272</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.4">
@@ -24563,11 +24567,11 @@
       </c>
       <c r="O202">
         <f t="shared" si="27"/>
-        <v>-2.6511394118946652</v>
+        <v>-2.7014638745302118</v>
       </c>
       <c r="P202">
         <f t="shared" si="33"/>
-        <v>-2.6021336829747881</v>
+        <v>-2.6524581456103347</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.4">
@@ -24610,11 +24614,11 @@
       </c>
       <c r="O203">
         <f t="shared" si="27"/>
-        <v>-2.6047420118190492</v>
+        <v>-2.6541857496552828</v>
       </c>
       <c r="P203">
         <f t="shared" si="33"/>
-        <v>-2.5594079163939414</v>
+        <v>-2.608851654230175</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.4">
@@ -24657,11 +24661,11 @@
       </c>
       <c r="O204">
         <f t="shared" si="27"/>
-        <v>-2.5591566093034706</v>
+        <v>-2.6077350358417282</v>
       </c>
       <c r="P204">
         <f t="shared" si="33"/>
-        <v>-2.5172190592800252</v>
+        <v>-2.5657974858182828</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.4">
@@ -24704,11 +24708,11 @@
       </c>
       <c r="O205">
         <f t="shared" si="27"/>
-        <v>-2.5143689936370608</v>
+        <v>-2.5620972526281016</v>
       </c>
       <c r="P205">
         <f t="shared" si="33"/>
-        <v>-2.4755735112197601</v>
+        <v>-2.5233017702108009</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.4">
@@ -24751,11 +24755,11 @@
       </c>
       <c r="O206">
         <f t="shared" si="27"/>
-        <v>-2.4703652028095799</v>
+        <v>-2.5172581729744716</v>
       </c>
       <c r="P206">
         <f t="shared" si="33"/>
-        <v>-2.4344763763247315</v>
+        <v>-2.4813693464896232</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.4">
@@ -24798,11 +24802,11 @@
       </c>
       <c r="O207">
         <f t="shared" si="27"/>
-        <v>-2.4271315191589253</v>
+        <v>-2.473203818827308</v>
       </c>
       <c r="P207">
         <f t="shared" si="33"/>
-        <v>-2.3939315745724601</v>
+        <v>-2.4400038742408428</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.4">
@@ -24845,11 +24849,11 @@
       </c>
       <c r="O208">
         <f t="shared" si="27"/>
-        <v>-2.3846544650948092</v>
+        <v>-2.4299204567619879</v>
       </c>
       <c r="P208">
         <f t="shared" si="33"/>
-        <v>-2.3539419445555909</v>
+        <v>-2.3992079362227696</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.4">
@@ -24892,11 +24896,11 @@
       </c>
       <c r="O209">
         <f t="shared" si="27"/>
-        <v>-2.3429207988972869</v>
+        <v>-2.3873945937015701</v>
       </c>
       <c r="P209">
         <f t="shared" si="33"/>
-        <v>-2.3145093382873059</v>
+        <v>-2.3589831330915891</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.4">
@@ -24939,11 +24943,11 @@
       </c>
       <c r="O210">
         <f t="shared" si="27"/>
-        <v>-2.3019175105887961</v>
+        <v>-2.3456129727104758</v>
       </c>
       <c r="P210">
         <f t="shared" si="33"/>
-        <v>-2.2756347086624049</v>
+        <v>-2.3193301707840845</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.4">
@@ -24986,11 +24990,11 @@
       </c>
       <c r="O211">
         <f t="shared" si="27"/>
-        <v>-2.2616318178784582</v>
+        <v>-2.3045625688618054</v>
       </c>
       <c r="P211">
         <f t="shared" si="33"/>
-        <v>-2.2373181901285619</v>
+        <v>-2.2802489411119091</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.4">
@@ -25033,11 +25037,11 @@
       </c>
       <c r="O212">
         <f t="shared" si="27"/>
-        <v>-2.2220511621773471</v>
+        <v>-2.264230585176966</v>
       </c>
       <c r="P212">
         <f t="shared" si="33"/>
-        <v>-2.1995591730805932</v>
+        <v>-2.2417385960802121</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.4">
@@ -25080,11 +25084,11 @@
       </c>
       <c r="O213">
         <f t="shared" si="27"/>
-        <v>-2.1831632046834968</v>
+        <v>-2.224604448636367</v>
       </c>
       <c r="P213">
         <f t="shared" si="33"/>
-        <v>-2.1623563724521095</v>
+        <v>-2.2037976164049797</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.4">
@@ -25127,11 +25131,11 @@
       </c>
       <c r="O214">
         <f t="shared" si="27"/>
-        <v>-2.1449558225354286</v>
+        <v>-2.1856718062599283</v>
       </c>
       <c r="P214">
         <f t="shared" si="33"/>
-        <v>-2.125707890943306</v>
+        <v>-2.1664238746678057</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.4">
@@ -25174,11 +25178,11 @@
       </c>
       <c r="O215">
         <f t="shared" si="27"/>
-        <v>-2.1074171050329888</v>
+        <v>-2.1474205212561857</v>
       </c>
       <c r="P215">
         <f t="shared" si="33"/>
-        <v>-2.0896112772906879</v>
+        <v>-2.1296146935138847</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.4">
@@ -25221,11 +25225,11 @@
       </c>
       <c r="O216">
         <f t="shared" si="27"/>
-        <v>-2.07053534992433</v>
+        <v>-2.1098386692387896</v>
       </c>
       <c r="P216">
         <f t="shared" si="33"/>
-        <v>-2.0540635799540827</v>
+        <v>-2.0933668992685424</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.4">
@@ -25268,11 +25272,11 @@
       </c>
       <c r="O217">
         <f t="shared" si="27"/>
-        <v>-2.0342990597578736</v>
+        <v>-2.0729145345092177</v>
       </c>
       <c r="P217">
         <f t="shared" si="33"/>
-        <v>-2.0190613965680764</v>
+        <v>-2.0576768713194205</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.4">
@@ -25315,11 +25319,11 @@
       </c>
       <c r="O218">
         <f t="shared" si="27"/>
-        <v>-1.9986969382981112</v>
+        <v>-2.0366366064045431</v>
       </c>
       <c r="P218">
         <f t="shared" si="33"/>
-        <v>-1.9846009194789374</v>
+        <v>-2.022540587585369</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.4">
@@ -25362,11 +25366,11 @@
       </c>
       <c r="O219">
         <f t="shared" si="27"/>
-        <v>-1.9637178870041423</v>
+        <v>-2.0009935757091237</v>
       </c>
       <c r="P219">
         <f t="shared" si="33"/>
-        <v>-1.9506779776640051</v>
+        <v>-1.9879536663689865</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.4">
@@ -25409,11 +25413,11 @@
       </c>
       <c r="O220">
         <f t="shared" si="27"/>
-        <v>-1.9293510015698299</v>
+        <v>-1.9659743311290876</v>
       </c>
       <c r="P220">
         <f t="shared" si="33"/>
-        <v>-1.9172880753081463</v>
+        <v>-1.953911404867404</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.4">
@@ -25456,11 +25460,11 @@
       </c>
       <c r="O221">
         <f t="shared" si="27"/>
-        <v>-1.8955855685245144</v>
+        <v>-1.9315679558285146</v>
       </c>
       <c r="P221">
         <f t="shared" si="33"/>
-        <v>-1.8844264272913067</v>
+        <v>-1.9204088145953069</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.4">
@@ -25503,11 +25507,11 @@
       </c>
       <c r="O222">
         <f t="shared" si="27"/>
-        <v>-1.8624110618932161</v>
+        <v>-1.8977637240262468</v>
       </c>
       <c r="P222">
         <f t="shared" si="33"/>
-        <v>-1.8520879918220494</v>
+        <v>-1.8874406539550801</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.4">
@@ -25550,11 +25554,11 @@
       </c>
       <c r="O223">
         <f t="shared" si="27"/>
-        <v>-1.8298171399152852</v>
+        <v>-1.864551097652249</v>
       </c>
       <c r="P223">
         <f t="shared" si="33"/>
-        <v>-1.8202675004343281</v>
+        <v>-1.8550014581712919</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.4">
@@ -25597,11 +25601,11 @@
       </c>
       <c r="O224">
         <f t="shared" si="27"/>
-        <v>-1.7977936418204798</v>
+        <v>-1.831919723062492</v>
       </c>
       <c r="P224">
         <f t="shared" si="33"/>
-        <v>-1.7889594855484059</v>
+        <v>-1.823085566790418</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.4">
@@ -25644,11 +25648,11 @@
       </c>
       <c r="O225">
         <f t="shared" si="27"/>
-        <v>-1.7663305846614707</v>
+        <v>-1.7998594278113274</v>
       </c>
       <c r="P225">
         <f t="shared" si="33"/>
-        <v>-1.7581583057817238</v>
+        <v>-1.7916871489315804</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.4">
@@ -25691,11 +25695,11 @@
       </c>
       <c r="O226">
         <f t="shared" si="27"/>
-        <v>-1.7354181602017678</v>
+        <v>-1.768360217480343</v>
       </c>
       <c r="P226">
         <f t="shared" si="33"/>
-        <v>-1.7278581691815187</v>
+        <v>-1.7608002264600939</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.4">
@@ -25738,11 +25742,11 @@
       </c>
       <c r="O227">
         <f t="shared" si="27"/>
-        <v>-1.7050467318581231</v>
+        <v>-1.7374122725627263</v>
       </c>
       <c r="P227">
         <f t="shared" si="33"/>
-        <v>-1.6980531545381066</v>
+        <v>-1.7304186952427099</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.4">
@@ -25785,11 +25789,11 @@
       </c>
       <c r="O228">
         <f t="shared" si="27"/>
-        <v>-1.675206831696439</v>
+        <v>-1.707005945402146</v>
       </c>
       <c r="P228">
         <f t="shared" si="33"/>
-        <v>-1.6687372309257442</v>
+        <v>-1.7005363446314512</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.4">
@@ -25832,11 +25836,11 @@
       </c>
       <c r="O229">
         <f t="shared" si="27"/>
-        <v>-1.6458891574802517</v>
+        <v>-1.6771317571852111</v>
       </c>
       <c r="P229">
         <f t="shared" si="33"/>
-        <v>-1.6399042756069395</v>
+        <v>-1.671146875311899</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.4">
@@ -25879,11 +25883,11 @@
       </c>
       <c r="O230">
         <f t="shared" si="27"/>
-        <v>-1.6170845697708649</v>
+        <v>-1.6477803949865575</v>
       </c>
       <c r="P230">
         <f t="shared" si="33"/>
-        <v>-1.6115480904258412</v>
+        <v>-1.6422439156415338</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.4">
@@ -25926,11 +25930,11 @@
       </c>
       <c r="O231">
         <f t="shared" si="27"/>
-        <v>-1.5887840890782465</v>
+        <v>-1.618942708865664</v>
       </c>
       <c r="P231">
         <f t="shared" si="33"/>
-        <v>-1.5836624168068922</v>
+        <v>-1.6138210365943098</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.4">
@@ -25973,11 +25977,11 @@
       </c>
       <c r="O232">
         <f t="shared" si="27"/>
-        <v>-1.5609788930617701</v>
+        <v>-1.5906097090144564</v>
       </c>
       <c r="P232">
         <f t="shared" si="33"/>
-        <v>-1.556240949466128</v>
+        <v>-1.5858717654188144</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.4">
@@ -26020,11 +26024,11 @@
       </c>
       <c r="O233">
         <f t="shared" si="27"/>
-        <v>-1.5336603137799589</v>
+        <v>-1.5627725629548452</v>
       </c>
       <c r="P233">
         <f t="shared" si="33"/>
-        <v>-1.5292773489344651</v>
+        <v>-1.5583895981093514</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.4">
@@ -26067,11 +26071,11 @@
       </c>
       <c r="O234">
         <f t="shared" si="27"/>
-        <v>-1.5068198349883546</v>
+        <v>-1.5354225927853045</v>
       </c>
       <c r="P234">
         <f t="shared" si="33"/>
-        <v>-1.5027652529847817</v>
+        <v>-1.5313680107817316</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.4">
@@ -26114,11 +26118,11 @@
       </c>
       <c r="O235">
         <f t="shared" ref="O235:O278" si="36">-SQRT(($N$4*EXP(-$N$6*(M235/$N$7-1)))^2*$C$41)</f>
-        <v>-1.4804490894846831</v>
+        <v>-1.5085512724756398</v>
       </c>
       <c r="P235">
         <f t="shared" si="33"/>
-        <v>-1.4766982870476981</v>
+        <v>-1.5048004700386548</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.4">
@@ -26161,11 +26165,11 @@
       </c>
       <c r="O236">
         <f t="shared" si="36"/>
-        <v>-1.4545398565004719</v>
+        <v>-1.4821502252090939</v>
       </c>
       <c r="P236">
         <f t="shared" ref="P236:P278" si="42">N236+O236</f>
-        <v>-1.4510700736945268</v>
+        <v>-1.4786804424031488</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.4">
@@ -26208,11 +26212,11 @@
       </c>
       <c r="O237">
         <f t="shared" si="36"/>
-        <v>-1.4290840591383296</v>
+        <v>-1.4562112207709821</v>
       </c>
       <c r="P237">
         <f t="shared" si="42"/>
-        <v>-1.425874241259969</v>
+        <v>-1.4530014028926215</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.4">
@@ -26255,11 +26259,11 @@
       </c>
       <c r="O238">
         <f t="shared" si="36"/>
-        <v>-1.40407376185406</v>
+        <v>-1.4307261729830085</v>
       </c>
       <c r="P238">
         <f t="shared" si="42"/>
-        <v>-1.4011044316716088</v>
+        <v>-1.4277568428005574</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.4">
@@ -26302,11 +26306,11 @@
       </c>
       <c r="O239">
         <f t="shared" si="36"/>
-        <v>-1.3795011679828615</v>
+        <v>-1.4056871371825093</v>
       </c>
       <c r="P239">
         <f t="shared" si="42"/>
-        <v>-1.376754307548238</v>
+        <v>-1.4029402767478858</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.4">
@@ -26349,11 +26353,11 @@
       </c>
       <c r="O240">
         <f t="shared" si="36"/>
-        <v>-1.3553586173087946</v>
+        <v>-1.3810863077457818</v>
       </c>
       <c r="P240">
         <f t="shared" si="42"/>
-        <v>-1.352817558624283</v>
+        <v>-1.3785452490612702</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.4">
@@ -26396,11 +26400,11 @@
       </c>
       <c r="O241">
         <f t="shared" si="36"/>
-        <v>-1.3316385836768143</v>
+        <v>-1.3569160156547893</v>
       </c>
       <c r="P241">
         <f t="shared" si="42"/>
-        <v>-1.3292879075533597</v>
+        <v>-1.3545653395313346</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.4">
@@ -26443,11 +26447,11 @@
       </c>
       <c r="O242">
         <f t="shared" si="36"/>
-        <v>-1.3083336726465693</v>
+        <v>-1.3331687261064231</v>
       </c>
       <c r="P242">
         <f t="shared" si="42"/>
-        <v>-1.3061591151398653</v>
+        <v>-1.3309941685997191</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.4">
@@ -26490,11 +26494,11 @@
       </c>
       <c r="O243">
         <f t="shared" si="36"/>
-        <v>-1.2854366191872799</v>
+        <v>-1.3098370361636253</v>
       </c>
       <c r="P243">
         <f t="shared" si="42"/>
-        <v>-1.283424985043903</v>
+        <v>-1.3078254020202484</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.4">
@@ -26537,11 +26541,11 @@
       </c>
       <c r="O244">
         <f t="shared" si="36"/>
-        <v>-1.2629402854129432</v>
+        <v>-1.2869136724476025</v>
       </c>
       <c r="P244">
         <f t="shared" si="42"/>
-        <v>-1.2610793680013206</v>
+        <v>-1.2850527550359798</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.4">
@@ -26584,11 +26588,11 @@
       </c>
       <c r="O245">
         <f t="shared" si="36"/>
-        <v>-1.2408376583571901</v>
+        <v>-1.2643914888704444</v>
       </c>
       <c r="P245">
         <f t="shared" si="42"/>
-        <v>-1.239116165597544</v>
+        <v>-1.2626699961107983</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.4">
@@ -26631,11 +26635,11 @@
       </c>
       <c r="O246">
         <f t="shared" si="36"/>
-        <v>-1.2191218477870678</v>
+        <v>-1.2422634644074073</v>
       </c>
       <c r="P246">
         <f t="shared" si="42"/>
-        <v>-1.2175293336308757</v>
+        <v>-1.2406709502512152</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.4">
@@ -26678,11 +26682,11 @@
       </c>
       <c r="O247">
         <f t="shared" si="36"/>
-        <v>-1.1977860840550973</v>
+        <v>-1.2205227009081998</v>
       </c>
       <c r="P247">
         <f t="shared" si="42"/>
-        <v>-1.1963128850982838</v>
+        <v>-1.2190495019513863</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.4">
@@ -26725,11 +26729,11 @@
       </c>
       <c r="O248">
         <f t="shared" si="36"/>
-        <v>-1.1768237159889101</v>
+        <v>-1.1991624209465586</v>
       </c>
       <c r="P248">
         <f t="shared" si="42"/>
-        <v>-1.1754608928341408</v>
+        <v>-1.1977995977917892</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.4">
@@ -26772,11 +26776,11 @@
       </c>
       <c r="O249">
         <f t="shared" si="36"/>
-        <v>-1.1562282088178295</v>
+        <v>-1.1781759657074735</v>
       </c>
       <c r="P249">
         <f t="shared" si="42"/>
-        <v>-1.1549674918300898</v>
+        <v>-1.1769152487197339</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.4">
@@ -26819,11 +26823,11 @@
       </c>
       <c r="O250">
         <f t="shared" si="36"/>
-        <v>-1.135993142135729</v>
+        <v>-1.1575567929113744</v>
       </c>
       <c r="P250">
         <f t="shared" si="42"/>
-        <v>-1.1348268812620321</v>
+        <v>-1.1563905320376775</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.4">
@@ -26866,11 +26870,11 @@
       </c>
       <c r="O251">
         <f t="shared" si="36"/>
-        <v>-1.1161122078995471</v>
+        <v>-1.1372984747746555</v>
       </c>
       <c r="P251">
         <f t="shared" si="42"/>
-        <v>-1.1150333262482777</v>
+        <v>-1.1362195931233861</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.4">
@@ -26913,11 +26917,11 @@
       </c>
       <c r="O252">
         <f t="shared" si="36"/>
-        <v>-1.0965792084628303</v>
+        <v>-1.1173946960058887</v>
       </c>
       <c r="P252">
         <f t="shared" si="42"/>
-        <v>-1.0955811593610403</v>
+        <v>-1.1163966469040987</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.4">
@@ -26960,11 +26964,11 @@
       </c>
       <c r="O253">
         <f t="shared" si="36"/>
-        <v>-1.0773880546436916</v>
+        <v>-1.0978392518371101</v>
       </c>
       <c r="P253">
         <f t="shared" si="42"/>
-        <v>-1.0764647819117734</v>
+        <v>-1.0969159791051919</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.4">
@@ -27007,11 +27011,11 @@
       </c>
       <c r="O254">
         <f t="shared" si="36"/>
-        <v>-1.058532763826576</v>
+        <v>-1.0786260460895492</v>
       </c>
       <c r="P254">
         <f t="shared" si="42"/>
-        <v>-1.0576786650292578</v>
+        <v>-1.0777719472922309</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.4">
@@ -27054,11 +27058,11 @@
       </c>
       <c r="O255">
         <f t="shared" si="36"/>
-        <v>-1.0400074580972509</v>
+        <v>-1.059749089273222</v>
       </c>
       <c r="P255">
         <f t="shared" si="42"/>
-        <v>-1.0392173505479192</v>
+        <v>-1.0589589817238902</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.4">
@@ -27101,11 +27105,11 @@
       </c>
       <c r="O256">
         <f t="shared" si="36"/>
-        <v>-1.0218063624104432</v>
+        <v>-1.041202496719781</v>
       </c>
       <c r="P256">
         <f t="shared" si="42"/>
-        <v>-1.0210754517225098</v>
+        <v>-1.0404715860318476</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.4">
@@ -27148,11 +27152,11 @@
       </c>
       <c r="O257">
         <f t="shared" si="36"/>
-        <v>-1.003923802789527</v>
+        <v>-1.0229804867480332</v>
       </c>
       <c r="P257">
         <f t="shared" si="42"/>
-        <v>-1.003247653784006</v>
+        <v>-1.0223043377425123</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.4">
@@ -27195,11 +27199,11 @@
       </c>
       <c r="O258">
         <f t="shared" si="36"/>
-        <v>-0.98635420455773448</v>
+        <v>-1.0050773788615732</v>
       </c>
       <c r="P258">
         <f t="shared" si="42"/>
-        <v>-0.98572871435049791</v>
+        <v>-1.0044518886543365</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.4">
@@ -27242,11 +27246,11 @@
       </c>
       <c r="O259">
         <f t="shared" si="36"/>
-        <v>-0.96909209060031476</v>
+        <v>-0.98748759197795299</v>
       </c>
       <c r="P259">
         <f t="shared" si="42"/>
-        <v>-0.96851346370571856</v>
+        <v>-0.98690896508335679</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.4">
@@ -27289,11 +27293,11 @@
       </c>
       <c r="O260">
         <f t="shared" si="36"/>
-        <v>-0.95213207965710922</v>
+        <v>-0.97020564268884968</v>
       </c>
       <c r="P260">
         <f t="shared" si="42"/>
-        <v>-0.95159680495691967</v>
+        <v>-0.96967036798866013</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.4">
@@ -27336,11 +27340,11 @@
       </c>
       <c r="O261">
         <f t="shared" si="36"/>
-        <v>-0.93546888464500344</v>
+        <v>-0.95322614355067137</v>
       </c>
       <c r="P261">
         <f t="shared" si="42"/>
-        <v>-0.93497371408286944</v>
+        <v>-0.95273097298853737</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.4">
@@ -27383,11 +27387,11 @@
       </c>
       <c r="O262">
         <f t="shared" si="36"/>
-        <v>-0.91909731100974712</v>
+        <v>-0.9365438014050923</v>
       </c>
       <c r="P262">
         <f t="shared" si="42"/>
-        <v>-0.91863923988193696</v>
+        <v>-0.93608573027728215</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.4">
@@ -27430,11 +27434,11 @@
       </c>
       <c r="O263">
         <f t="shared" si="36"/>
-        <v>-0.90301225510660721</v>
+        <v>-0.92015341572896625</v>
       </c>
       <c r="P263">
         <f t="shared" si="42"/>
-        <v>-0.90258850382941302</v>
+        <v>-0.91972966445177207</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.4">
@@ -27477,11 +27481,11 @@
       </c>
       <c r="O264">
         <f t="shared" si="36"/>
-        <v>-0.8872087026093729</v>
+        <v>-0.90404987701313178</v>
       </c>
       <c r="P264">
         <f t="shared" si="42"/>
-        <v>-0.88681669985254741</v>
+        <v>-0.90365787425630628</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.4">
@@ -27524,11 +27528,11 @@
       </c>
       <c r="O265">
         <f t="shared" si="36"/>
-        <v>-0.87168172694719215</v>
+        <v>-0.88822816516957626</v>
       </c>
       <c r="P265">
         <f t="shared" si="42"/>
-        <v>-0.87131909403107155</v>
+        <v>-0.88786553225345566</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.4">
@@ -27571,11 +27575,11 @@
       </c>
       <c r="O266">
         <f t="shared" si="36"/>
-        <v>-0.85642648776877806</v>
+        <v>-0.87268334796648861</v>
       </c>
       <c r="P266">
         <f t="shared" si="42"/>
-        <v>-0.85609102423041139</v>
+        <v>-0.87234788442812194</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.4">
@@ -27618,11 +27622,11 @@
       </c>
       <c r="O267">
         <f t="shared" si="36"/>
-        <v>-0.84143822943348134</v>
+        <v>-0.85741057949069077</v>
       </c>
       <c r="P267">
         <f t="shared" si="42"/>
-        <v>-0.84112789967418278</v>
+        <v>-0.85710024973139221</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.4">
@@ -27665,11 +27669,11 @@
       </c>
       <c r="O268">
         <f t="shared" si="36"/>
-        <v>-0.82671227952877935</v>
+        <v>-0.84240509863698354</v>
       </c>
       <c r="P268">
         <f t="shared" si="42"/>
-        <v>-0.8264252004620789</v>
+        <v>-0.84211801957028309</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.4">
@@ -27712,11 +27716,11 @@
       </c>
       <c r="O269">
         <f t="shared" si="36"/>
-        <v>-0.81224404741370171</v>
+        <v>-0.8276622276239245</v>
       </c>
       <c r="P269">
         <f t="shared" si="42"/>
-        <v>-0.8119784770387436</v>
+        <v>-0.82739665724896638</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.4">
@@ -27759,11 +27763,11 @@
       </c>
       <c r="O270">
         <f t="shared" si="36"/>
-        <v>-0.79802902278775889</v>
+        <v>-0.81317737053559136</v>
       </c>
       <c r="P270">
         <f t="shared" si="42"/>
-        <v>-0.79778334961880926</v>
+        <v>-0.81293169736664173</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.4">
@@ -27806,11 +27810,11 @@
       </c>
       <c r="O271">
         <f t="shared" si="36"/>
-        <v>-0.78406277428490245</v>
+        <v>-0.79894601188885206</v>
       </c>
       <c r="P271">
         <f t="shared" si="42"/>
-        <v>-0.78383550757282561</v>
+        <v>-0.79871874517677521</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.4">
@@ -27853,11 +27857,11 @@
       </c>
       <c r="O272">
         <f t="shared" si="36"/>
-        <v>-0.77034094809210529</v>
+        <v>-0.78496371522572328</v>
       </c>
       <c r="P272">
         <f t="shared" si="42"/>
-        <v>-0.77013070877847145</v>
+        <v>-0.78475347591208944</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.4">
@@ -27900,11 +27904,11 @@
       </c>
       <c r="O273">
         <f t="shared" si="36"/>
-        <v>-0.75685926659210578</v>
+        <v>-0.77122612173035032</v>
       </c>
       <c r="P273">
         <f t="shared" si="42"/>
-        <v>-0.75666477894104012</v>
+        <v>-0.77103163407928466</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.4">
@@ -27947,11 +27951,11 @@
       </c>
       <c r="O274">
         <f t="shared" si="36"/>
-        <v>-0.74361352702991701</v>
+        <v>-0.75772894887020414</v>
       </c>
       <c r="P274">
         <f t="shared" si="42"/>
-        <v>-0.74343361088691196</v>
+        <v>-0.75754903272719909</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.4">
@@ -27994,11 +27998,11 @@
       </c>
       <c r="O275">
         <f t="shared" si="36"/>
-        <v>-0.73059960020266279</v>
+        <v>-0.74446798906104739</v>
       </c>
       <c r="P275">
         <f t="shared" si="42"/>
-        <v>-0.73043316383337942</v>
+        <v>-0.74430155269176401</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.4">
@@ -28041,11 +28045,11 @@
       </c>
       <c r="O276">
         <f t="shared" si="36"/>
-        <v>-0.71781342917235003</v>
+        <v>-0.73143910835527204</v>
       </c>
       <c r="P276">
         <f t="shared" si="42"/>
-        <v>-0.71765946263795488</v>
+        <v>-0.73128514182087689</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.4">
@@ -28088,11 +28092,11 @@
       </c>
       <c r="O277">
         <f t="shared" si="36"/>
-        <v>-0.7052510280011649</v>
+        <v>-0.71863824515318986</v>
       </c>
       <c r="P277">
         <f t="shared" si="42"/>
-        <v>-0.70510859703000328</v>
+        <v>-0.71849581418202824</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.4">
@@ -28135,11 +28139,11 @@
       </c>
       <c r="O278">
         <f t="shared" si="36"/>
-        <v>-0.69290848050890619</v>
+        <v>-0.70606140893687719</v>
       </c>
       <c r="P278">
         <f t="shared" si="42"/>
-        <v>-0.69277672082732511</v>
+        <v>-0.70592964925529611</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/smatb/converter_smatb_to_tersoff.xlsx
+++ b/potentials/smatb/converter_smatb_to_tersoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3FD71-C350-4C66-A9F1-44D23D660513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BC436-3A25-4A22-BB4B-F07836A62710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="630" windowWidth="23850" windowHeight="13695" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
+    <workbookView xWindow="3510" yWindow="1245" windowWidth="21240" windowHeight="14955" xr2:uid="{FF9DD033-10A4-49A1-A50C-94589F38F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="smatb" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="165">
   <si>
     <t>S</t>
     <phoneticPr fontId="1"/>
@@ -10789,712 +10789,712 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
-                  <c:v>11693.07618118848</c:v>
+                  <c:v>11672.099064284546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10817.001258725068</c:v>
+                  <c:v>10796.303341898407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10006.56409127808</c:v>
+                  <c:v>9986.2214335508106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9256.8469317768922</c:v>
+                  <c:v>9236.9226171051796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8563.3004832333845</c:v>
+                  <c:v>8543.8461386141735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7921.7162935272772</c:v>
+                  <c:v>7902.7734523978743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7328.2012184442983</c:v>
+                  <c:v>7309.8025440395804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6779.1537980081521</c:v>
+                  <c:v>6761.3241800110964</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6271.2424027576762</c:v>
+                  <c:v>6253.9999393662411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5801.3850173603296</c:v>
+                  <c:v>5784.7418937881412</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5366.7305388886271</c:v>
+                  <c:v>5350.6938123089685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4964.6414762771401</c:v>
+                  <c:v>4949.2137763009359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4592.6779459800109</c:v>
+                  <c:v>4577.8580989213588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4248.582866714486</c:v>
+                  <c:v>4234.3664511341985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3930.2682634517259</c:v>
+                  <c:v>3916.6481037748858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3635.8025975473788</c:v>
+                  <c:v>3622.7692019179058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3363.3990461309531</c:v>
+                  <c:v>3350.940994090196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3111.4046596329763</c:v>
+                  <c:v>3099.5089446850848</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2878.2903316577999</c:v>
+                  <c:v>2866.9426633073831</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2662.6415203389311</c:v>
+                  <c:v>2651.8265897526358</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2463.1496648739389</c:v>
+                  <c:v>2452.851377922771</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2278.6042451543808</c:v>
+                  <c:v>2268.8059262347383</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2107.8854363083469</c:v>
+                  <c:v>2098.5700060136051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1949.9573135833414</c:v>
+                  <c:v>1941.107443001403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1803.8615663365413</c:v>
+                  <c:v>1795.4598104796405</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1668.7116829888748</c:v>
+                  <c:v>1660.7405956174334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1543.6875716570626</c:v>
+                  <c:v>1536.129803537603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1428.0305838215718</c:v>
+                  <c:v>1420.8689662572976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1321.0389108339659</c:v>
+                  <c:v>1314.2565261241368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1222.0633253296185</c:v>
+                  <c:v>1215.6435656481881</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1130.5032417045841</c:v>
+                  <c:v>1124.4298577386446</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1045.8030717515026</c:v>
+                  <c:v>1040.0602123040826</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>967.44885334055527</c:v>
+                  <c:v>962.02109697930541</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>894.96513168814931</c:v>
+                  <c:v>889.83751141004177</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>827.9120742888897</c:v>
+                  <c:v>823.07009607030466</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>765.88280200415113</c:v>
+                  <c:v>761.31245801461068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>708.50092011225956</c:v>
+                  <c:v>704.18869728774405</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>655.41823433867626</c:v>
+                  <c:v>651.35111893610099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>606.31263800696718</c:v>
+                  <c:v>602.47811669426915</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>560.88615748979737</c:v>
+                  <c:v>557.27221546553005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>518.863144099686</c:v>
+                  <c:v>515.4582606814447</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>479.98860144789433</c:v>
+                  <c:v>476.78174351969807</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>444.02663812182993</c:v>
+                  <c:v>441.00725178632558</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>410.75903629177577</c:v>
+                  <c:v>407.91703703330245</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>379.98392756124423</c:v>
+                  <c:v>377.30968918998695</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>351.51456802597363</c:v>
+                  <c:v>348.99891064128815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>325.17820510861412</c:v>
+                  <c:v>322.81238229075979</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>300.8150292930294</c:v>
+                  <c:v>298.59071470668187</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>278.27720439732849</c:v>
+                  <c:v>276.18647796707842</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>257.42797050129593</c:v>
+                  <c:v>255.4633042986336</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>238.14081408477873</c:v>
+                  <c:v>236.29505804753944</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>220.29870034140501</c:v>
+                  <c:v>218.56506793014449</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>203.79336300931115</c:v>
+                  <c:v>202.16541689034329</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>188.52464740954741</c:v>
+                  <c:v>186.99628524128562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>174.39990270571406</c:v>
+                  <c:v>172.96534309331037</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>161.3334196970483</c:v>
+                  <c:v>159.98718836999302</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>149.24591073347605</c:v>
+                  <c:v>147.9828269916899</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>138.06402859674984</c:v>
+                  <c:v>136.87919206260466</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>127.71992142822957</c:v>
+                  <c:v>126.60869913482324</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>118.15082100260513</c:v>
+                  <c:v>117.1088348423376</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>109.29866184919371</c:v>
+                  <c:v>108.32177640120612</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>101.1097289096364</c:v>
+                  <c:v>100.19403965985768</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>93.534331593974485</c:v>
+                  <c:v>92.676153557331602</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86.526502257269456</c:v>
+                  <c:v>85.722359007980231</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>80.043717267121366</c:v>
+                  <c:v>79.290330379833918</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74.04663896951385</c:v>
+                  <c:v>73.340917871356467</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68.498876987234567</c:v>
+                  <c:v>67.837909218512706</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>63.3667674024219</c:v>
+                  <c:v>62.747809281733758</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>58.619168483315974</c:v>
+                  <c:v>58.039636171192029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>54.22727171567935</c:v>
+                  <c:v>53.684732669463259</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>50.164426992222893</c:v>
+                  <c:v>49.656591803761891</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.405980899283222</c:v>
+                  <c:v>45.930695506061511</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42.92912711947266</c:v>
+                  <c:v>42.4843653790738</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39.712768042541441</c:v>
+                  <c:v>39.29662465974301</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>36.737386744705695</c:v>
+                  <c:v>36.34807054007095</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.984928559608555</c:v>
+                  <c:v>33.620756068127243</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>31.438691522285374</c:v>
+                  <c:v>31.098080910412683</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29.083225021344667</c:v>
+                  <c:v>28.764690310679377</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>26.904236044384909</c:v>
+                  <c:v>26.60638163020047</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>24.888502447742415</c:v>
+                  <c:v>24.610017900629028</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23.023792724289628</c:v>
+                  <c:v>22.763447863268002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.298791782433497</c:v>
+                  <c:v>21.055432008055416</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19.703032285939454</c:v>
+                  <c:v>19.475574162085579</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>18.226831137949993</c:v>
+                  <c:v>18.014258211267432</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.861230723781635</c:v>
+                  <c:v>16.662589569963412</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>15.59794455596046</c:v>
+                  <c:v>15.412341042352535</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14.429306991669595</c:v>
+                  <c:v>14.255902745992339</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.348226717492949</c:v>
+                  <c:v>13.186235792779392</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.348143719199914</c:v>
+                  <c:v>12.196829445378839</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.422989475463039</c:v>
+                  <c:v>11.28166148834687</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.56715013396313</c:v>
+                  <c:v>10.435161572737353</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.7754324464341344</c:v>
+                  <c:v>9.6521773110824611</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.0430322559407408</c:v>
+                  <c:v>8.9279429163774928</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.3655053451691597</c:v>
+                  <c:v>8.2580501941852553</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.7387404688377535</c:v>
+                  <c:v>7.6384217112975632</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.1589344065879832</c:v>
+                  <c:v>7.0652859776397063</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6225688849759674</c:v>
+                  <c:v>6.5351544903577379</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.1263892285269748</c:v>
+                  <c:v>6.0448005003628218</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.6673846103071046</c:v>
+                  <c:v>5.591239372091179</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.2427697821720711</c:v>
+                  <c:v>5.1717104169353671</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.8499681738323348</c:v>
+                  <c:v>4.783660089772602</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.4865962581788867</c:v>
+                  <c:v>4.4247264463123939</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.1504490879986289</c:v>
+                  <c:v>4.0927247666602042</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.8394869163156629</c:v>
+                  <c:v>3.7856342575920672</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.5518228191705541</c:v>
+                  <c:v>3.5015857526010086</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.2857112457323709</c:v>
+                  <c:v>3.2388503348491211</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.0395374262653396</c:v>
+                  <c:v>2.9958288137767553</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.8118075736775334</c:v>
+                  <c:v>2.7710419913160731</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.6011398191943642</c:v>
+                  <c:v>2.5631216584624057</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.4062558271544208</c:v>
+                  <c:v>2.3708022674022824</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2259730380460399</c:v>
+                  <c:v>2.1929132285088695</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.0591974927152807</c:v>
+                  <c:v>2.0283717853190395</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.9049171942024192</c:v>
+                  <c:v>1.8761764241241643</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.7621959669264928</c:v>
+                  <c:v>1.7354007780608478</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.630167775955317</c:v>
+                  <c:v>1.6051879885976506</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.5080314718901839</c:v>
+                  <c:v>1.4847454900978656</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3950459294771445</c:v>
+                  <c:v>1.3733401857136085</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.2905255504458515</c:v>
+                  <c:v>1.2702939852483206</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.1938361032871327</c:v>
+                  <c:v>1.1749796778280273</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.1043908747249607</c:v>
+                  <c:v>1.0868171142595615</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.0216471095299215</c:v>
+                  <c:v>1.0052696758389015</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.94510271707087723</c:v>
+                  <c:v>0.92984100811638448</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.87429322462013448</c:v>
+                  <c:v>0.86007199973816006</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.80878895892471347</c:v>
+                  <c:v>0.79553798797504682</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.74819243894144838</c:v>
+                  <c:v>0.7358461739296922</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.69213596391498389</c:v>
+                  <c:v>0.68063323168918477</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.64027938216308722</c:v>
+                  <c:v>0.62956309687074041</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.59230802703022145</c:v>
+                  <c:v>0.5823249211000523</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.54793080748471312</c:v>
+                  <c:v>0.53863117997179022</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.50687844177322128</c:v>
+                  <c:v>0.49821592297602429</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.46890182341429482</c:v>
+                  <c:v>0.46083315473837283</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.43377050961583402</c:v>
+                  <c:v>0.42625533772099117</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.40127132294415524</c:v>
+                  <c:v>0.39427200727080702</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.37120705775954582</c:v>
+                  <c:v>0.36468849058519542</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.34339528356895721</c:v>
+                  <c:v>0.33732472179785822</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.31766723803454433</c:v>
+                  <c:v>0.31201414597267241</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.29386680292081435</c:v>
+                  <c:v>0.28860270533445975</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.27184955676641054</c:v>
+                  <c:v>0.26694790156618176</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.25148189853213065</c:v>
+                  <c:v>0.246917928465028</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.23264023690745683</c:v>
+                  <c:v>0.22839086967816219</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.2152102403562961</c:v>
+                  <c:v>0.2112539566349689</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.19908614335119898</c:v>
+                  <c:v>0.19540288215906904</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.18417010458626437</c:v>
+                  <c:v>0.18074116558227246</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.17037161327436642</c:v>
+                  <c:v>0.16717956549609767</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15760693992609651</c:v>
+                  <c:v>0.15463553656647069</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.14579862827773979</c:v>
+                  <c:v>0.14303272710538603</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.13487502528529699</c:v>
+                  <c:v>0.13230051434140863</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.1247698463325454</c:v>
+                  <c:v>0.12237357456035117</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.11542177301481506</c:v>
+                  <c:v>0.1131914854996956</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.10677408105782434</c:v>
+                  <c:v>0.10469835857666394</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>9.8774296113779983E-2</c:v>
+                  <c:v>9.6842498711417715E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>9.1373875346106331E-2</c:v>
+                  <c:v>8.9576089674831536E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>8.4527912870654046E-2</c:v>
+                  <c:v>8.2854903045654807E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>7.8194867266000723E-2</c:v>
+                  <c:v>7.6638029005565475E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7.2336309499370713E-2</c:v>
+                  <c:v>7.0887627333551015E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6.6916689738584278E-2</c:v>
+                  <c:v>6.5568697083996E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.1903121635046847E-2</c:v>
+                  <c:v>6.0648863546572451E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5.7265182768804504E-2</c:v>
+                  <c:v>5.6098181191228239E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.2974730044760561E-2</c:v>
+                  <c:v>5.1888951398854896E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9005728919877235E-2</c:v>
+                  <c:v>4.7995553868219243E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4.5334095425107628E-2</c:v>
+                  <c:v>4.4394290672984719E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>4.1937550023445562E-2</c:v>
+                  <c:v>4.1063242019642024E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.8795482417300783E-2</c:v>
+                  <c:v>3.7982132828395285E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5888826484848556E-2</c:v>
+                  <c:v>3.5132209324918812E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.3199944586465101E-2</c:v>
+                  <c:v>3.2496124891837896E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.0712520539218229E-2</c:v>
+                  <c:v>3.0057834485146474E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.8411460609980971E-2</c:v>
+                  <c:v>2.7802496972904774E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.6282801926391396E-2</c:v>
+                  <c:v>2.5716384801784634E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.4313627749896451E-2</c:v>
+                  <c:v>2.3786800441628328E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.24919890967538E-2</c:v>
+                  <c:v>2.2001999099445068E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.0806832231387021E-2</c:v>
+                  <c:v>2.0351117232429432E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.9247931592122673E-2</c:v>
+                  <c:v>1.8824106424880804E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.7805827742301005E-2</c:v>
+                  <c:v>1.7411672226554133E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.6471769970247081E-2</c:v>
+                  <c:v>1.6105217580168738E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.5237663189797397E-2</c:v>
+                  <c:v>1.4896790493735801E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.4096018819173925E-2</c:v>
+                  <c:v>1.3779035639202603E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.3039909340137294E-2</c:v>
+                  <c:v>1.2745149582808051E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.2062926261683642E-2</c:v>
+                  <c:v>1.1788839374651066E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.1159141233207735E-2</c:v>
+                  <c:v>1.0904284245419097E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.0323070071166687E-2</c:v>
+                  <c:v>1.0086100177135907E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>9.5496394809571547E-3</c:v>
+                  <c:v>9.3293071322822167E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8.8341562720738835E-3</c:v>
+                  <c:v>8.629298741822243E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8.1722788797468134E-3</c:v>
+                  <c:v>7.9818142676366787E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7.5599910202491065E-3</c:v>
+                  <c:v>7.3829126687060438E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>6.9935773200164907E-3</c:v>
+                  <c:v>6.828948613192813E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>6.4696007706947596E-3</c:v>
+                  <c:v>6.316550290415582E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5.9848818733122412E-3</c:v>
+                  <c:v>5.8425988876631809E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.5364793450237513E-3</c:v>
+                  <c:v>5.4042096069303828E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.1216722713543668E-3</c:v>
+                  <c:v>4.9987141060302874E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4.7379435956421316E-3</c:v>
+                  <c:v>4.6236442572069108E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4.3829648454937406E-3</c:v>
+                  <c:v>4.2767171243925893E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4.0545820035728731E-3</c:v>
+                  <c:v>3.9558210676704855E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.7508024369849037E-3</c:v>
+                  <c:v>3.6590028903649395E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.4697828059451598E-3</c:v>
+                  <c:v>3.3844559505273797E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.2098178783606184E-3</c:v>
+                  <c:v>3.1305091644564841E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.9693301824512681E-3</c:v>
+                  <c:v>2.8956168353199878E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.7468604346235601E-3</c:v>
+                  <c:v>2.6783492449683746E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.5410586845116302E-3</c:v>
+                  <c:v>2.4773839516753181E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.3506761234546973E-3</c:v>
+                  <c:v>2.2914977408373485E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.1745575067039316E-3</c:v>
+                  <c:v>2.1195591796385528E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.011634143376954E-3</c:v>
+                  <c:v>1.9605217303633169E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.8609174116225684E-3</c:v>
+                  <c:v>1.8134173804395574E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.7214927596459746E-3</c:v>
+                  <c:v>1.6773507504407345E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.5925141561922065E-3</c:v>
+                  <c:v>1.551493644183623E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.4731989568135837E-3</c:v>
+                  <c:v>1.4350800077501341E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.3628231547692931E-3</c:v>
+                  <c:v>1.3274012667501298E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.2607169877397295E-3</c:v>
+                  <c:v>1.2278020134447079E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.1662608736968522E-3</c:v>
+                  <c:v>1.1356760174786238E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.0788816512694974E-3</c:v>
+                  <c:v>1.0504625359406097E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>9.9804910179002605E-4</c:v>
+                  <c:v>9.7164290029180139E-4</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>9.232727319180838E-4</c:v>
+                  <c:v>8.9873735938817269E-4</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>8.5409879731831106E-4</c:v>
+                  <c:v>8.3130215938123934E-4</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>7.901075493317014E-4</c:v>
+                  <c:v>7.6892684272339656E-4</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>7.309106879333201E-4</c:v>
+                  <c:v>7.1123174983769367E-4</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>6.7614900552086753E-4</c:v>
+                  <c:v>6.5786570824547831E-4</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>6.2549020723659933E-4</c:v>
+                  <c:v>6.0850389508636184E-4</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5.7862689459625151E-4</c:v>
+                  <c:v>5.628458600202748E-4</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5.3527470018960245E-4</c:v>
+                  <c:v>5.2061369647765708E-4</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.9517056213398429E-4</c:v>
+                  <c:v>4.8155035012670402E-4</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4.5807112781014246E-4</c:v>
+                  <c:v>4.4541805426186008E-4</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4.2375127719421885E-4</c:v>
+                  <c:v>4.1199688259019708E-4</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.9200275682547893E-4</c:v>
+                  <c:v>3.8108341060699567E-4</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.6263291612061599E-4</c:v>
+                  <c:v>3.524894774126502E-4</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.3546353836661245E-4</c:v>
+                  <c:v>3.2604104043452888E-4</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.1032975929856508E-4</c:v>
+                  <c:v>3.0157711608277E-4</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.8707906670041465E-4</c:v>
+                  <c:v>2.7894879989215327E-4</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.6557037495811232E-4</c:v>
+                  <c:v>2.580183601859105E-4</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.4567316894962845E-4</c:v>
+                  <c:v>2.3865839974491736E-4</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.2726671207687286E-4</c:v>
+                  <c:v>2.2075108037956885E-4</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.1023931363388967E-4</c:v>
+                  <c:v>2.0418740568457623E-4</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.9448765106566931E-4</c:v>
+                  <c:v>1.8886655761099586E-4</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.7991614300506508E-4</c:v>
+                  <c:v>1.7469528281744692E-4</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.6643636928336008E-4</c:v>
+                  <c:v>1.6158732506538182E-4</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.5396653439512183E-4</c:v>
+                  <c:v>1.4946290020360984E-4</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.4243097116162719E-4</c:v>
+                  <c:v>1.3824821054643513E-4</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.3175968158108471E-4</c:v>
+                  <c:v>1.2787499568959863E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12268,712 +12268,712 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
-                  <c:v>-44.749429307661401</c:v>
+                  <c:v>-44.73121630028912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-43.966272765448764</c:v>
+                  <c:v>-43.947185810734396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-43.196822189526642</c:v>
+                  <c:v>-43.176897487375719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-42.440837712765244</c:v>
+                  <c:v>-42.420110463136837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-41.698083665932153</c:v>
+                  <c:v>-41.676588092761136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-40.968328504225241</c:v>
+                  <c:v>-40.94609787881344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-40.251344735091294</c:v>
+                  <c:v>-40.228411398978679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.546908847307876</c:v>
+                  <c:v>-39.523304234634772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-38.85480124130644</c:v>
+                  <c:v>-38.830555900677652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-38.174806160714624</c:v>
+                  <c:v>-38.149949776576022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-37.506711625096848</c:v>
+                  <c:v>-37.481273038634868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.850309363871851</c:v>
+                  <c:v>-36.824316593445921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-36.205394751386841</c:v>
+                  <c:v>-36.178875012504797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-35.571766743127846</c:v>
+                  <c:v>-35.544746467974022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-34.949227813046505</c:v>
+                  <c:v>-34.921732669572016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-34.337583891983556</c:v>
+                  <c:v>-34.309638802568287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-33.736644307170167</c:v>
+                  <c:v>-33.708273466865364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-33.146221722787899</c:v>
+                  <c:v>-33.117448617148483</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-32.566132081568988</c:v>
+                  <c:v>-32.536979504084378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31.996194547418686</c:v>
+                  <c:v>-31.966684616550669</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-31.436231449041721</c:v>
+                  <c:v>-31.406385624877732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-30.886068224555352</c:v>
+                  <c:v>-30.855907325085592</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-30.34553336707182</c:v>
+                  <c:v>-30.315077584098063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-29.814458371233034</c:v>
+                  <c:v>-29.783727285917227</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-29.292677680681088</c:v>
+                  <c:v>-29.261690278741291</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-28.780028636447934</c:v>
+                  <c:v>-28.748803323009376</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-28.276351426248471</c:v>
+                  <c:v>-28.244906040356998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-27.781489034660861</c:v>
+                  <c:v>-27.749840863466073</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-27.295287194178869</c:v>
+                  <c:v>-27.26345298679416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-26.817594337120799</c:v>
+                  <c:v>-26.785590318167117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-26.34826154838008</c:v>
+                  <c:v>-26.316103431220352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-25.887142519002623</c:v>
+                  <c:v>-25.854845518673507</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25.434093500576889</c:v>
+                  <c:v>-25.401672346424299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-24.988973260421908</c:v>
+                  <c:v>-24.956442208446866</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-24.5516430375597</c:v>
+                  <c:v>-24.519015882480705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-24.121966499458207</c:v>
+                  <c:v>-24.089256586496248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-23.699809699531141</c:v>
+                  <c:v>-23.667029935923402</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-23.285041035381845</c:v>
+                  <c:v>-23.252203901630015</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-22.8775312077777</c:v>
+                  <c:v>-22.844648768636599</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-22.477153180342661</c:v>
+                  <c:v>-22.44423709555485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-22.083782139955179</c:v>
+                  <c:v>-22.050843674737084</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-21.697295457839132</c:v>
+                  <c:v>-21.664345493124092</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-21.317572651335816</c:v>
+                  <c:v>-21.284621693779361</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-20.944495346344834</c:v>
+                  <c:v>-20.911553538097362</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-20.577947240422425</c:v>
+                  <c:v>-20.54502436867438</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-20.217814066525516</c:v>
+                  <c:v>-20.184919572830019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-19.863983557390341</c:v>
+                  <c:v>-19.831126546768111</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-19.516345410534445</c:v>
+                  <c:v>-19.483534660365862</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-19.17479125387116</c:v>
+                  <c:v>-19.14203522258007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-18.839214611925922</c:v>
+                  <c:v>-18.806521447459751</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-18.509510872643784</c:v>
+                  <c:v>-18.476888420754456</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-18.18557725477784</c:v>
+                  <c:v>-18.153033067107863</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-17.867312775848401</c:v>
+                  <c:v>-17.834854117826399</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-17.554618220662885</c:v>
+                  <c:v>-17.522252079212787</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-17.247396110386639</c:v>
+                  <c:v>-17.215129201454648</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.945550672155107</c:v>
+                  <c:v>-16.913389448058375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.648987809217726</c:v>
+                  <c:v>-16.616938465818812</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-16.3576150716044</c:v>
+                  <c:v>-16.32568355531523</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-16.071341627305305</c:v>
+                  <c:v>-16.03953364192451</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.790078233955088</c:v>
+                  <c:v>-15.758399247342295</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.513737211012609</c:v>
+                  <c:v>-15.482192461603432</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.242232412427569</c:v>
+                  <c:v>-15.21082691559271</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-14.975479199785495</c:v>
+                  <c:v>-14.944217754037505</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-14.713394415922705</c:v>
+                  <c:v>-14.682281608973753</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-14.455896359003088</c:v>
+                  <c:v>-14.424936573677007</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-14.202904757048451</c:v>
+                  <c:v>-14.172102177050443</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-13.954340742914731</c:v>
+                  <c:v>-13.923699358461745</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-13.710126829706077</c:v>
+                  <c:v>-13.679650443021071</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-13.470186886619226</c:v>
+                  <c:v>-13.439879117292328</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-13.234446115210625</c:v>
+                  <c:v>-13.204310405430158</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-13.002831026078903</c:v>
+                  <c:v>-12.972870645735203</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-12.775269415955401</c:v>
+                  <c:v>-12.74548746762027</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-12.551690345195684</c:v>
+                  <c:v>-12.522089768980281</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-12.332024115664927</c:v>
+                  <c:v>-12.302607693958807</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-12.116202249010341</c:v>
+                  <c:v>-12.086972611104329</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-11.904157465313862</c:v>
+                  <c:v>-11.875117091909392</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-11.695823662118434</c:v>
+                  <c:v>-11.66697488972587</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-11.491135893821347</c:v>
+                  <c:v>-11.462480919049835</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-11.290030351428211</c:v>
+                  <c:v>-11.261571235169491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-11.092444342661247</c:v>
+                  <c:v>-11.064183014169824</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-10.898316272415725</c:v>
+                  <c:v>-10.870254533287742</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-10.70758562355841</c:v>
+                  <c:v>-10.679725151611548</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-10.520192938062062</c:v>
+                  <c:v>-10.492535291118667</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-10.336079798470088</c:v>
+                  <c:v>-10.308626418045771</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-10.155188809685615</c:v>
+                  <c:v>-10.127941024585432</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-9.9774635810792205</c:v>
+                  <c:v>-9.9504226109035745</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-9.8028487089098277</c:v>
+                  <c:v>-9.7760156674721532</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-9.6312897590532529</c:v>
+                  <c:v>-9.6046656577114433</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-9.462733250032997</c:v>
+                  <c:v>-9.4363190009366207</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-9.2971266363480343</c:v>
+                  <c:v>-9.2709230556032232</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-9.1344182920923753</c:v>
+                  <c:v>-9.1084261028462734</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-8.9745574948612887</c:v>
+                  <c:v>-8.9487773303079443</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-8.8174944099392008</c:v>
+                  <c:v>-8.7919268162486546</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-8.663180074764318</c:v>
+                  <c:v>-8.6378255139366864</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-8.5115663836651052</c:v>
+                  <c:v>-8.4864252363114066</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.3626060728639295</c:v>
+                  <c:v>-8.3376786409152981</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-8.2162527057431287</c:v>
+                  <c:v>-8.191539215090101</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-8.0724606583689411</c:v>
+                  <c:v>-8.0479612614324374</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-7.9311851052687983</c:v>
+                  <c:v>-7.9068998835043445</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-7.7923820054574824</c:v>
+                  <c:v>-7.7683109717942882</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-7.6560080887079067</c:v>
+                  <c:v>-7.6321511899242411</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-7.5220208420621057</c:v>
+                  <c:v>-7.4983779610985035</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-7.390378496578335</c:v>
+                  <c:v>-7.3669494547900696</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-7.261040014310093</c:v>
+                  <c:v>-7.2378245736603164</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-7.1339650755130259</c:v>
+                  <c:v>-7.1109629407079948</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-7.0091140660757301</c:v>
+                  <c:v>-6.9863248866434366</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-6.886448065170506</c:v>
+                  <c:v>-6.8638714374840823</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-6.7659288331202676</c:v>
+                  <c:v>-6.7435643023674228</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-6.6475187994777558</c:v>
+                  <c:v>-6.625365861577543</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-6.5311810513134194</c:v>
+                  <c:v>-6.5092391547815494</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-6.4168793217082207</c:v>
+                  <c:v>-6.3951478694721606</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-6.3045779784478633</c:v>
+                  <c:v>-6.2830563296128972</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-6.1942420129148728</c:v>
+                  <c:v>-6.1729294844822737</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-6.0858370291750656</c:v>
+                  <c:v>-6.0647328977135322</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-5.9793292332550321</c:v>
+                  <c:v>-5.9584327365264933</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-5.8746854226072562</c:v>
+                  <c:v>-5.8539957611481235</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-5.7718729757596181</c:v>
+                  <c:v>-5.7513893144185575</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-5.6708598421460321</c:v>
+                  <c:v>-5.6505813115792893</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-5.5716145321150679</c:v>
+                  <c:v>-5.551540230240354</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-5.4741061071134132</c:v>
+                  <c:v>-5.4542351005233707</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-5.3783041700411562</c:v>
+                  <c:v>-5.3586354953773245</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-5.2841788557758393</c:v>
+                  <c:v>-5.2647115210641333</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-5.1917008218623648</c:v>
+                  <c:v>-5.1724338078109486</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-5.100841239365832</c:v>
+                  <c:v>-5.0817735006262943</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-5.0115717838844542</c:v>
+                  <c:v>-4.9927022502772029</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.9238646267197614</c:v>
+                  <c:v>-4.9051922044244929</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-4.8376924262013343</c:v>
+                  <c:v>-4.8192159989133936</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-4.7530283191633611</c:v>
+                  <c:v>-4.7347467492168773</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.6698459125703575</c:v>
+                  <c:v>-4.651758042028912</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.5881192752894604</c:v>
+                  <c:v>-4.570223927005113</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-4.5078229300066912</c:v>
+                  <c:v>-4.490118908648137</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-4.428931845284712</c:v>
+                  <c:v>-4.4114179383352941</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-4.3514214277595711</c:v>
+                  <c:v>-4.3340964064859318</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-4.275267514474006</c:v>
+                  <c:v>-4.2581301348660681</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-4.2004463653449324</c:v>
+                  <c:v>-4.1834953690279368</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-4.1269346557627511</c:v>
+                  <c:v>-4.1101687708820309</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-4.0547094693201764</c:v>
+                  <c:v>-4.0381274113993371</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.983748290668319</c:v>
+                  <c:v>-3.9673487634415059</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-3.9140289984977898</c:v>
+                  <c:v>-3.8978106947166595</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-3.8455298586426432</c:v>
+                  <c:v>-3.8294914608586996</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-3.7782295173050056</c:v>
+                  <c:v>-3.7623696986278961</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.712106994398289</c:v>
+                  <c:v>-3.6964244192306501</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.6471416770068874</c:v>
+                  <c:v>-3.6316350017563774</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-3.5833133129603483</c:v>
+                  <c:v>-3.56798118672938</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-3.5206020045199953</c:v>
+                  <c:v>-3.5054430697737837</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-3.4589882021760467</c:v>
+                  <c:v>-3.444001095389484</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-3.3984526985532835</c:v>
+                  <c:v>-3.3836360508371879</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.338976622423381</c:v>
+                  <c:v>-3.324329060130661</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.280541432822019</c:v>
+                  <c:v>-3.266061578134237</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.2231289132689636</c:v>
+                  <c:v>-3.208815384763815</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-3.1667211660892893</c:v>
+                  <c:v>-3.1525725792894903</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-3.1113006068339906</c:v>
+                  <c:v>-3.0973155747380345</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-3.0568499587982396</c:v>
+                  <c:v>-3.0430270923935097</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-3.0033522476355765</c:v>
+                  <c:v>-2.9896901563942495</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.9507907960663577</c:v>
+                  <c:v>-2.9372880884245562</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.8991492186788097</c:v>
+                  <c:v>-2.8858045024994432</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.848411416821071</c:v>
+                  <c:v>-2.8352232998407687</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2.798561573582631</c:v>
+                  <c:v>-2.7855286638432037</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.7495841488635877</c:v>
+                  <c:v>-2.7367050551284198</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.7014638745302118</c:v>
+                  <c:v>-2.6887372066859569</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.6541857496552828</c:v>
+                  <c:v>-2.6416101190992873</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.6077350358417282</c:v>
+                  <c:v>-2.5953090558555227</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.5620972526281016</c:v>
+                  <c:v>-2.5498195387373594</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.5172581729744716</c:v>
+                  <c:v>-2.5051273432957717</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.473203818827308</c:v>
+                  <c:v>-2.4612184944020639</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.4299204567619879</c:v>
+                  <c:v>-2.4180792618778919</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.3873945937015701</c:v>
+                  <c:v>-2.3756961562018666</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-2.3456129727104758</c:v>
+                  <c:v>-2.3340559242914223</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.3045625688618054</c:v>
+                  <c:v>-2.2931455453586125</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.264230585176966</c:v>
+                  <c:v>-2.2529522268385396</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.224604448636367</c:v>
+                  <c:v>-2.2134634003891631</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.1856718062599283</c:v>
+                  <c:v>-2.1746667179612049</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.1474205212561857</c:v>
+                  <c:v>-2.1365500479369532</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.1098386692387896</c:v>
+                  <c:v>-2.0991014713367391</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.0729145345092177</c:v>
+                  <c:v>-2.062309278091893</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.0366366064045431</c:v>
+                  <c:v>-2.0261619633830552</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.0009935757091237</c:v>
+                  <c:v>-1.9906482240426355</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.9659743311290876</c:v>
+                  <c:v>-1.9557569550203497</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.9315679558285146</c:v>
+                  <c:v>-1.9214772459107017</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.8977637240262468</c:v>
+                  <c:v>-1.8877983775413221</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-1.864551097652249</c:v>
+                  <c:v>-1.8547098186211208</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-1.831919723062492</c:v>
+                  <c:v>-1.8222012224471766</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.7998594278113274</c:v>
+                  <c:v>-1.7902624236693465</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.768360217480343</c:v>
+                  <c:v>-1.7588834351115989</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.7374122725627263</c:v>
+                  <c:v>-1.7280544446490398</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.707005945402146</c:v>
+                  <c:v>-1.6977658121396957</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.6771317571852111</c:v>
+                  <c:v>-1.6680080664100649</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.6477803949865575</c:v>
+                  <c:v>-1.6387719022935006</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.618942708865664</c:v>
+                  <c:v>-1.6100481777205251</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.5906097090144564</c:v>
+                  <c:v>-1.5818279108601134</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.5627725629548452</c:v>
+                  <c:v>-1.5541022773111108</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.5354225927853045</c:v>
+                  <c:v>-1.5268626073428591</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1.5085512724756398</c:v>
+                  <c:v>-1.5001003831841992</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.4821502252090939</c:v>
+                  <c:v>-1.4738072363599852</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.4562112207709821</c:v>
+                  <c:v>-1.4479749450742874</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.4307261729830085</c:v>
+                  <c:v>-1.422595431639454</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.4056871371825093</c:v>
+                  <c:v>-1.3976607599502482</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.3810863077457818</c:v>
+                  <c:v>-1.3731631330022371</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.3569160156547893</c:v>
+                  <c:v>-1.3490948904537039</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.3331687261064231</c:v>
+                  <c:v>-1.325448506230269</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1.3098370361636253</c:v>
+                  <c:v>-1.3022165861715116</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.2869136724476025</c:v>
+                  <c:v>-1.2793918657188337</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.2643914888704444</c:v>
+                  <c:v>-1.2569672076438558</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.2422634644074073</c:v>
+                  <c:v>-1.2349355998166187</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.2205227009081998</c:v>
+                  <c:v>-1.2132901530129174</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.1991624209465586</c:v>
+                  <c:v>-1.1920240987600499</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.1781759657074735</c:v>
+                  <c:v>-1.1711307872203451</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.1575567929113744</c:v>
+                  <c:v>-1.1506036851117649</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.1372984747746555</c:v>
+                  <c:v>-1.1304363736649752</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.1173946960058887</c:v>
+                  <c:v>-1.1106225466162054</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1.0978392518371101</c:v>
+                  <c:v>-1.0911560082353031</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.0786260460895492</c:v>
+                  <c:v>-1.0720306713883421</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.059749089273222</c:v>
+                  <c:v>-1.0532405556341933</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.041202496719781</c:v>
+                  <c:v>-1.0347797853544582</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.0229804867480332</c:v>
+                  <c:v>-1.0166425879161769</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-1.0050773788615732</c:v>
+                  <c:v>-0.99882329186674346</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.98748759197795299</c:v>
+                  <c:v>-0.98131632516045453</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.97020564268884968</c:v>
+                  <c:v>-0.96411621341615095</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.95322614355067137</c:v>
+                  <c:v>-0.94721757820538699</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.9365438014050923</c:v>
+                  <c:v>-0.93061513537061902</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.92015341572896625</c:v>
+                  <c:v>-0.91430369337285278</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.90404987701313178</c:v>
+                  <c:v>-0.89827815166827418</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.88822816516957626</c:v>
+                  <c:v>-0.88253349911331436</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.87268334796648861</c:v>
+                  <c:v>-0.86706481239768418</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.85741057949069077</c:v>
+                  <c:v>-0.85186725450486522</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.84240509863698354</c:v>
+                  <c:v>-0.83693607319959051</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.8276622276239245</c:v>
+                  <c:v>-0.82226659954182924</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.81317737053559136</c:v>
+                  <c:v>-0.80785424642682779</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.79894601188885206</c:v>
+                  <c:v>-0.79369450715072765</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.78496371522572328</c:v>
+                  <c:v>-0.77978295400133946</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.77122612173035032</c:v>
+                  <c:v>-0.76611523687359862</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.75772894887020414</c:v>
+                  <c:v>-0.75268708190931133</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.74446798906104739</c:v>
+                  <c:v>-0.73949429016072044</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.73143910835527204</c:v>
+                  <c:v>-0.72653273627751236</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.71863824515318986</c:v>
+                  <c:v>-0.71379836721682743</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.70606140893687719</c:v>
+                  <c:v>-0.70128720097588715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13747,712 +13747,712 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="236"/>
                 <c:pt idx="0">
-                  <c:v>11648.326751880819</c:v>
+                  <c:v>11627.367847984257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10773.034985959619</c:v>
+                  <c:v>10752.356156087673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9963.3672690885542</c:v>
+                  <c:v>9943.0445360634349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9214.4060940641266</c:v>
+                  <c:v>9194.5025066420421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8521.6023995674532</c:v>
+                  <c:v>8502.169550521412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7880.7479650230516</c:v>
+                  <c:v>7861.8273545190605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7287.9498737092072</c:v>
+                  <c:v>7269.5741326406014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6739.6068891608438</c:v>
+                  <c:v>6721.8008757764619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6232.3876015163696</c:v>
+                  <c:v>6215.1693834655634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5763.2102111996146</c:v>
+                  <c:v>5746.5919440115649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5329.2238272635304</c:v>
+                  <c:v>5313.2125392703338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4927.7911669132682</c:v>
+                  <c:v>4912.3894597074905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4556.4725512286241</c:v>
+                  <c:v>4541.6792239088536</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4213.0110999713579</c:v>
+                  <c:v>4198.8217046662248</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3895.3190356386795</c:v>
+                  <c:v>3881.7263711053138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3601.4650136553951</c:v>
+                  <c:v>3588.4595631153375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3329.6624018237831</c:v>
+                  <c:v>3317.2327206233308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3078.2584379101886</c:v>
+                  <c:v>3066.3914960679363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2845.7241995762311</c:v>
+                  <c:v>2834.4056838032989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2630.6453257915123</c:v>
+                  <c:v>2619.8599051360852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2431.7134334248972</c:v>
+                  <c:v>2421.4449922978934</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2247.7181769298254</c:v>
+                  <c:v>2237.9500189096525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2077.5399029412752</c:v>
+                  <c:v>2068.2549284295069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1920.1428552121083</c:v>
+                  <c:v>1911.3237157154858</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1774.5688886558603</c:v>
+                  <c:v>1766.1981202008992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1639.9316543524269</c:v>
+                  <c:v>1631.9917922944242</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1515.411220230814</c:v>
+                  <c:v>1507.8848974972461</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400.249094786911</c:v>
+                  <c:v>1393.1191253938316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1293.7436236397871</c:v>
+                  <c:v>1286.9930731373427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1195.2457309924976</c:v>
+                  <c:v>1188.857975330021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1104.1549801562039</c:v>
+                  <c:v>1098.1137543074242</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1019.9159292324999</c:v>
+                  <c:v>1014.2053667854091</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>942.01475983997841</c:v>
+                  <c:v>936.61942463288108</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>869.97615842772746</c:v>
+                  <c:v>864.88106920159487</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>803.36043125133006</c:v>
+                  <c:v>798.55108018782391</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>741.76083550469298</c:v>
+                  <c:v>737.22320142811441</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>684.80111041272846</c:v>
+                  <c:v>680.52166735182061</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>632.13319330329443</c:v>
+                  <c:v>628.09891503447102</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>583.4351067991895</c:v>
+                  <c:v>579.63346792563254</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>538.40900430945476</c:v>
+                  <c:v>534.8279783699752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>496.77936195973081</c:v>
+                  <c:v>493.40741700670759</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>458.29130599005521</c:v>
+                  <c:v>455.11739802657399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>422.70906547049412</c:v>
+                  <c:v>419.72263009254624</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>389.81454094543096</c:v>
+                  <c:v>387.00548349520511</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>359.40598032082181</c:v>
+                  <c:v>356.76466482131258</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>331.2967539594481</c:v>
+                  <c:v>328.81399106845811</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>305.3142215512238</c:v>
+                  <c:v>302.98125574399165</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>281.29868388249497</c:v>
+                  <c:v>279.10718004631599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>259.10241314345734</c:v>
+                  <c:v>257.04444274449833</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>238.58875588937002</c:v>
+                  <c:v>236.65678285117386</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>219.63130321213495</c:v>
+                  <c:v>217.81816962678499</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>202.11312308662718</c:v>
+                  <c:v>200.41203486303664</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>185.92605023346275</c:v>
+                  <c:v>184.33056277251688</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>170.97002918888452</c:v>
+                  <c:v>169.47403316207283</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>157.15250659532742</c:v>
+                  <c:v>155.75021389185571</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>144.38786902489318</c:v>
+                  <c:v>143.07379892193464</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>132.59692292425834</c:v>
+                  <c:v>131.3658885258711</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>121.70641352514544</c:v>
+                  <c:v>120.55350850728942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>111.64857980092427</c:v>
+                  <c:v>110.56916549289873</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>102.36074276865004</c:v>
+                  <c:v>101.3504355949953</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>93.784924638181096</c:v>
+                  <c:v>92.83958393960269</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>85.867496497208833</c:v>
+                  <c:v>84.983212744264975</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>78.558852394188989</c:v>
+                  <c:v>77.731935803294093</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>71.813107841346749</c:v>
+                  <c:v>71.040077399006478</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65.587820908118275</c:v>
+                  <c:v>64.865393806156916</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>59.843734212465399</c:v>
+                  <c:v>59.168815694306026</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54.544536244319836</c:v>
+                  <c:v>53.91420986005096</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.656640572715823</c:v>
+                  <c:v>49.068158838712691</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45.14898159669675</c:v>
+                  <c:v>44.599757053899701</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40.992825600468727</c:v>
+                  <c:v>40.480422264033102</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.161595966143992</c:v>
+                  <c:v>36.683721158026685</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>33.630711483327822</c:v>
+                  <c:v>33.185208038441239</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30.377436774276976</c:v>
+                  <c:v>29.962275610093521</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27.380743926876512</c:v>
+                  <c:v>26.994016965784205</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.621184495695353</c:v>
+                  <c:v>24.26109792896662</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22.080771094294693</c:v>
+                  <c:v>21.745638976217851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.742867860166939</c:v>
+                  <c:v>19.431106020686812</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.59208912752332</c:v>
+                  <c:v>17.302209391629543</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.614205692956698</c:v>
+                  <c:v>15.344810395030979</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.796058105081167</c:v>
+                  <c:v>13.545834886459204</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.125476451873903</c:v>
+                  <c:v>11.89319332998026</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.591206158875087</c:v>
+                  <c:v>10.375706856443868</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.1828393478773922</c:v>
+                  <c:v>8.9830388709669116</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.8907513394799054</c:v>
+                  <c:v>7.7056317932216611</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.7060419140960192</c:v>
+                  <c:v>6.5346485453779799</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.6204809748812394</c:v>
+                  <c:v>5.4619184314489608</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6264582827597671</c:v>
+                  <c:v>4.4798870785201856</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.7169369584396961</c:v>
+                  <c:v>3.581570135067949</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.8854104691669171</c:v>
+                  <c:v>2.7605104444422182</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1258628391150047</c:v>
+                  <c:v>2.0107384327436471</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.4327318418707549</c:v>
+                  <c:v>1.32673546989108</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.80087495157284572</c:v>
+                  <c:v>0.70339998077451682</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.22553784600154003</c:v>
+                  <c:v>0.13601610012883825</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.29767472959515828</c:v>
+                  <c:v>-0.37977531975143108</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.77282591482735175</c:v>
+                  <c:v>-0.84800352501384335</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.2036716662759464</c:v>
+                  <c:v>-1.2723926632755918</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.5936838207671613</c:v>
+                  <c:v>-1.6563847247323631</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.9460714298419663</c:v>
+                  <c:v>-2.0031607610696156</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.2638004949616937</c:v>
+                  <c:v>-2.3156605114131654</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.5496122232854113</c:v>
+                  <c:v>-2.5966005548589211</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.8060399148755719</c:v>
+                  <c:v>-2.8484911001516391</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-3.035424583883219</c:v>
+                  <c:v>-3.0736515147861097</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-3.2399294085797061</c:v>
+                  <c:v>-3.2742246881298653</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-3.4215530979944302</c:v>
+                  <c:v>-3.4521903160682492</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-3.5821422563424719</c:v>
+                  <c:v>-3.6093771881069863</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-3.7234028203433591</c:v>
+                  <c:v>-3.7474745517943155</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-3.8469106389051664</c:v>
+                  <c:v>-3.8680426237073271</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-3.9541212594427342</c:v>
+                  <c:v>-3.9725223110513497</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-4.0463789802833912</c:v>
+                  <c:v>-4.0622442031151369</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-4.1249252241589982</c:v>
+                  <c:v>-4.1384368873792674</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-4.1909062836621809</c:v>
+                  <c:v>-4.2022346409632911</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-4.2453804857325821</c:v>
+                  <c:v>-4.2546845442938572</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-4.2893248187124531</c:v>
+                  <c:v>-4.2967530603581094</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-4.3236410622485728</c:v>
+                  <c:v>-4.3293321196526842</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-4.349161457299715</c:v>
+                  <c:v>-4.3532447479288425</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-4.3666539507170725</c:v>
+                  <c:v>-4.3692502710502579</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-4.3768270462824734</c:v>
+                  <c:v>-4.3780491287049488</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-4.3803342917001808</c:v>
+                  <c:v>-4.3802873263309685</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-4.3777784288279351</c:v>
+                  <c:v>-4.376560552412327</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-4.3697152323884527</c:v>
+                  <c:v>-4.3674179862638089</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-4.3566570605112345</c:v>
+                  <c:v>-4.3533658195384231</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-4.3390761387049626</c:v>
+                  <c:v>-4.3348705129477487</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-4.3174075972422301</c:v>
+                  <c:v>-4.3123618080727883</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-4.2920522804411183</c:v>
+                  <c:v>-4.2862355126512472</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-4.2633793449430062</c:v>
+                  <c:v>-4.2568560763475105</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.2317286628047777</c:v>
+                  <c:v>-4.2245589727353083</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-4.1974130440382469</c:v>
+                  <c:v>-4.1896529020426527</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-4.1607202921331394</c:v>
+                  <c:v>-4.1524218281168253</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.1219151050856446</c:v>
+                  <c:v>-4.113126862057122</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.0812408335162393</c:v>
+                  <c:v>-4.0720080040290885</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-4.0389211065923964</c:v>
+                  <c:v>-4.0292857539097646</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-3.995161335668878</c:v>
+                  <c:v>-3.9851626006143031</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-3.9501501048154157</c:v>
+                  <c:v>-3.9398243992151247</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-3.9040604567144603</c:v>
+                  <c:v>-3.8934416442808728</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-3.8570510817759751</c:v>
+                  <c:v>-3.8461706472300787</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-3.8092674177282069</c:v>
+                  <c:v>-3.7981546249093583</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-3.7608426663993622</c:v>
+                  <c:v>-3.7495247060648773</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.7118987339019087</c:v>
+                  <c:v>-3.7004008618753241</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-3.6625470999656593</c:v>
+                  <c:v>-3.6508927662516317</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-3.6128896217351865</c:v>
+                  <c:v>-3.6011005911805376</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-3.5630192769487095</c:v>
+                  <c:v>-3.5511157419929273</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.5130208510470902</c:v>
+                  <c:v>-3.5010215370715811</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.4629715724206229</c:v>
+                  <c:v>-3.4508938361741048</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-3.412941699685982</c:v>
+                  <c:v>-3.4008016212332826</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-3.3629950645938989</c:v>
+                  <c:v>-3.3508075332073131</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-3.313189573898307</c:v>
+                  <c:v>-3.300968368284098</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-3.2635776732679864</c:v>
+                  <c:v>-3.2513355364957794</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.2142067760908355</c:v>
+                  <c:v>-3.2019554855703096</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.1651196598072038</c:v>
+                  <c:v>-3.1528700926345414</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.1163548322111394</c:v>
+                  <c:v>-3.1041170261871511</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-3.0679468699755095</c:v>
+                  <c:v>-3.0557300805780727</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-3.0199267314878844</c:v>
+                  <c:v>-3.0077394850632029</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.9723220459275854</c:v>
+                  <c:v>-2.9601721893478548</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.9251573803695758</c:v>
+                  <c:v>-2.913052127388684</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.8784544865669872</c:v>
+                  <c:v>-2.8664004610910054</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.8322325289402253</c:v>
+                  <c:v>-2.8202358054154471</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.7865082951860241</c:v>
+                  <c:v>-2.7745744362941962</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2.7412963908138264</c:v>
+                  <c:v>-2.7294304826519755</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.6966094188188272</c:v>
+                  <c:v>-2.684816103729565</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.6524581456103347</c:v>
+                  <c:v>-2.6407416528177379</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.608851654230175</c:v>
+                  <c:v>-2.5972158284263025</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.5657974858182828</c:v>
+                  <c:v>-2.5542458138358808</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.5233017702108009</c:v>
+                  <c:v>-2.5118374059089641</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.4813693464896232</c:v>
+                  <c:v>-2.469995133970853</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.4400038742408428</c:v>
+                  <c:v>-2.428722369510226</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.3992079362227696</c:v>
+                  <c:v>-2.3880214273927454</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.3589831330915891</c:v>
+                  <c:v>-2.3478936592289616</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-2.3193301707840845</c:v>
+                  <c:v>-2.3083395394896375</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.2802489411119091</c:v>
+                  <c:v>-2.2693587449169841</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.2417385960802121</c:v>
+                  <c:v>-2.2309502277390947</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.2037976164049797</c:v>
+                  <c:v>-2.1931122831567338</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.1664238746678057</c:v>
+                  <c:v>-2.1558426115363241</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.1296146935138847</c:v>
+                  <c:v>-2.1191383757103992</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.0933668992685424</c:v>
+                  <c:v>-2.0829962537565705</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.0576768713194205</c:v>
+                  <c:v>-2.0474124875981574</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.022540587585369</c:v>
+                  <c:v>-2.0123829277438525</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.9879536663689865</c:v>
+                  <c:v>-1.9779030744598274</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.953911404867404</c:v>
+                  <c:v>-1.9439681156456987</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.9204088145953069</c:v>
+                  <c:v>-1.9105729616652827</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.8874406539550801</c:v>
+                  <c:v>-1.8777122773641861</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-1.8550014581712919</c:v>
+                  <c:v>-1.8453805114888386</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-1.823085566790418</c:v>
+                  <c:v>-1.8135719237053545</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-1.7916871489315804</c:v>
+                  <c:v>-1.7822806094017098</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.7608002264600939</c:v>
+                  <c:v>-1.751500522442893</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.7304186952427099</c:v>
+                  <c:v>-1.7212254960358471</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-1.7005363446314512</c:v>
+                  <c:v>-1.69144926184928</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.671146875311899</c:v>
+                  <c:v>-1.6621654675224018</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.6422439156415338</c:v>
+                  <c:v>-1.6333676926865701</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.6138210365943098</c:v>
+                  <c:v>-1.6050494636144947</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.5858717654188144</c:v>
+                  <c:v>-1.5772042666029065</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.5583895981093514</c:v>
+                  <c:v>-1.5498255601867184</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1.5313680107817316</c:v>
+                  <c:v>-1.5229067862751886</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1.5048004700386548</c:v>
+                  <c:v>-1.4964413802938343</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.4786804424031488</c:v>
+                  <c:v>-1.4704227804094578</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.4530014028926215</c:v>
+                  <c:v>-1.4448444359098309</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.4277568428005574</c:v>
+                  <c:v>-1.419699814804134</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.4029402767478858</c:v>
+                  <c:v>-1.3949824107052797</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.3785452490612702</c:v>
+                  <c:v>-1.3706857490505617</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.3545653395313346</c:v>
+                  <c:v>-1.3468033927128666</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.3309941685997191</c:v>
+                  <c:v>-1.3233289470506304</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1.3078254020202484</c:v>
+                  <c:v>-1.3002560644411483</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.2850527550359798</c:v>
+                  <c:v>-1.2775784483383941</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.2626699961107983</c:v>
+                  <c:v>-1.255289856893415</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.2406709502512152</c:v>
+                  <c:v>-1.2333841061724351</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.2190495019513863</c:v>
+                  <c:v>-1.2118550730051674</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.1977995977917892</c:v>
+                  <c:v>-1.1906966974932998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.1769152487197339</c:v>
+                  <c:v>-1.1699029852069005</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.1563905320376775</c:v>
+                  <c:v>-1.1494680090942864</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.1362195931233861</c:v>
+                  <c:v>-1.1293859111290345</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.1163966469040987</c:v>
+                  <c:v>-1.1096509037159137</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1.0969159791051919</c:v>
+                  <c:v>-1.0902572708759148</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.0777719472922309</c:v>
+                  <c:v>-1.0711993692289608</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.0589589817238902</c:v>
+                  <c:v>-1.0524716287914699</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.0404715860318476</c:v>
+                  <c:v>-1.0340685536046206</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.0223043377425123</c:v>
+                  <c:v>-1.0159847222079315</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-1.0044518886543365</c:v>
+                  <c:v>-0.99821478797165708</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.98690896508335679</c:v>
+                  <c:v>-0.98075347930043422</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.96967036798866013</c:v>
+                  <c:v>-0.96359559971967323</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.95273097298853737</c:v>
+                  <c:v>-0.94673602785526023</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.93608573027728215</c:v>
+                  <c:v>-0.93016971731635711</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.91972966445177207</c:v>
+                  <c:v>-0.91389169649026258</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.90365787425630628</c:v>
+                  <c:v>-0.89789706825766724</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.88786553225345566</c:v>
+                  <c:v>-0.88218100963590174</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.87234788442812194</c:v>
+                  <c:v>-0.86673877135724964</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-0.85710024973139221</c:v>
+                  <c:v>-0.85156567738878242</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.84211801957028309</c:v>
+                  <c:v>-0.83665712439969842</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.82739665724896638</c:v>
+                  <c:v>-0.82200858118164333</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.81293169736664173</c:v>
+                  <c:v>-0.80761558802708289</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.79871874517677521</c:v>
+                  <c:v>-0.79347375607034809</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.78475347591208944</c:v>
+                  <c:v>-0.77957876659565484</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.77103163407928466</c:v>
+                  <c:v>-0.76592637031598765</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.75754903272719909</c:v>
+                  <c:v>-0.75251238662649389</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.74430155269176401</c:v>
+                  <c:v>-0.73933270283565511</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.73128514182087689</c:v>
+                  <c:v>-0.72638327337730879</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.71849581418202824</c:v>
+                  <c:v>-0.71366011900628101</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.70592964925529611</c:v>
+                  <c:v>-0.70115932598019759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15735,8 +15735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95277E7D-273B-43F1-BCE5-355DC344FD62}">
   <dimension ref="A1:Q278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16013,8 +16013,8 @@
         <v>92</v>
       </c>
       <c r="N7" s="13">
-        <f>N5/((B6/B8+H6/H8)/2)</f>
-        <v>2.6343065595537825</v>
+        <f>( N5/((B6/B8+H6/H8)/2) + N6/((B7/B8+H7/H8)/2) )/2</f>
+        <v>2.6302635831618693</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>14</v>
@@ -16211,7 +16211,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="1">
-        <f>SQRT(H10)</f>
+        <f>H10</f>
         <v>1</v>
       </c>
       <c r="P13" s="28" t="s">
@@ -16319,11 +16319,11 @@
         <v>3.4983702531328653</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="N16" s="13">
-        <f>N6/((B7/B8+H7/H8)/2)</f>
-        <v>2.6262206067699565</v>
+        <f>N5/((B6/B7+H6/H7)/2)</f>
+        <v>2.2995711975994917</v>
       </c>
       <c r="O16" t="s">
         <v>126</v>
@@ -16344,15 +16344,15 @@
         <f>(1+LN((H4*H6)/(H5*H7))*(1/(H6-H7)))*H8</f>
         <v>2.1970199674216602</v>
       </c>
-      <c r="M17" s="28" t="s">
-        <v>163</v>
+      <c r="M17" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="N17" s="13">
-        <f>N7</f>
-        <v>2.6343065595537825</v>
+        <f>N6/((B7/B8+H7/H8)/2)</f>
+        <v>2.6262206067699565</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
@@ -16369,6 +16369,16 @@
       <c r="H18" s="1">
         <f>SQRT(2)*1.024*H8</f>
         <v>3.6971389181322363</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="13">
+        <f>N7</f>
+        <v>2.6302635831618693</v>
+      </c>
+      <c r="O18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -16524,7 +16534,7 @@
       </c>
       <c r="D25" s="17">
         <f>N7</f>
-        <v>2.6343065595537825</v>
+        <v>2.6302635831618693</v>
       </c>
       <c r="E25" s="17">
         <f>N5</f>
@@ -16911,7 +16921,7 @@
       </c>
       <c r="D36" s="40">
         <f t="shared" si="5"/>
-        <v>-4.7934404462175451E-3</v>
+        <v>-8.8364168381307451E-3</v>
       </c>
       <c r="E36" s="40">
         <f t="shared" si="5"/>
@@ -16931,7 +16941,7 @@
       </c>
       <c r="I36" s="43">
         <f>(D36/D30+E36/E30+F36/F30+G36/G30+H36/H30)/5*100</f>
-        <v>-2.3941102290577767</v>
+        <v>-2.4247492832195223</v>
       </c>
       <c r="J36" t="s">
         <v>148</v>
@@ -17090,15 +17100,15 @@
       </c>
       <c r="N43">
         <f>$N$3*EXP(-$N$5*(M43/$N$7-1))*$C$41</f>
-        <v>11693.07618118848</v>
+        <v>11672.099064284546</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43:O106" si="9">-SQRT(($N$4*EXP(-$N$6*(M43/$N$7-1)))^2*$C$41)</f>
-        <v>-44.749429307661401</v>
+        <v>-44.73121630028912</v>
       </c>
       <c r="P43">
         <f>N43+O43</f>
-        <v>11648.326751880819</v>
+        <v>11627.367847984257</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
@@ -17137,15 +17147,15 @@
       </c>
       <c r="N44">
         <f t="shared" ref="N44:N107" si="14">$N$3*EXP(-$N$5*(M44/$N$7-1))*$C$41</f>
-        <v>10817.001258725068</v>
+        <v>10796.303341898407</v>
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
-        <v>-43.966272765448764</v>
+        <v>-43.947185810734396</v>
       </c>
       <c r="P44">
         <f t="shared" ref="P44:P107" si="15">N44+O44</f>
-        <v>10773.034985959619</v>
+        <v>10752.356156087673</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
@@ -17184,15 +17194,15 @@
       </c>
       <c r="N45">
         <f t="shared" si="14"/>
-        <v>10006.56409127808</v>
+        <v>9986.2214335508106</v>
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
-        <v>-43.196822189526642</v>
+        <v>-43.176897487375719</v>
       </c>
       <c r="P45">
         <f t="shared" si="15"/>
-        <v>9963.3672690885542</v>
+        <v>9943.0445360634349</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
@@ -17231,15 +17241,15 @@
       </c>
       <c r="N46">
         <f t="shared" si="14"/>
-        <v>9256.8469317768922</v>
+        <v>9236.9226171051796</v>
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
-        <v>-42.440837712765244</v>
+        <v>-42.420110463136837</v>
       </c>
       <c r="P46">
         <f t="shared" si="15"/>
-        <v>9214.4060940641266</v>
+        <v>9194.5025066420421</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
@@ -17278,15 +17288,15 @@
       </c>
       <c r="N47">
         <f t="shared" si="14"/>
-        <v>8563.3004832333845</v>
+        <v>8543.8461386141735</v>
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
-        <v>-41.698083665932153</v>
+        <v>-41.676588092761136</v>
       </c>
       <c r="P47">
         <f t="shared" si="15"/>
-        <v>8521.6023995674532</v>
+        <v>8502.169550521412</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
@@ -17325,15 +17335,15 @@
       </c>
       <c r="N48">
         <f t="shared" si="14"/>
-        <v>7921.7162935272772</v>
+        <v>7902.7734523978743</v>
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
-        <v>-40.968328504225241</v>
+        <v>-40.94609787881344</v>
       </c>
       <c r="P48">
         <f t="shared" si="15"/>
-        <v>7880.7479650230516</v>
+        <v>7861.8273545190605</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
@@ -17372,15 +17382,15 @@
       </c>
       <c r="N49">
         <f t="shared" si="14"/>
-        <v>7328.2012184442983</v>
+        <v>7309.8025440395804</v>
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
-        <v>-40.251344735091294</v>
+        <v>-40.228411398978679</v>
       </c>
       <c r="P49">
         <f t="shared" si="15"/>
-        <v>7287.9498737092072</v>
+        <v>7269.5741326406014</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
@@ -17419,15 +17429,15 @@
       </c>
       <c r="N50">
         <f t="shared" si="14"/>
-        <v>6779.1537980081521</v>
+        <v>6761.3241800110964</v>
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
-        <v>-39.546908847307876</v>
+        <v>-39.523304234634772</v>
       </c>
       <c r="P50">
         <f t="shared" si="15"/>
-        <v>6739.6068891608438</v>
+        <v>6721.8008757764619</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
@@ -17466,15 +17476,15 @@
       </c>
       <c r="N51">
         <f t="shared" si="14"/>
-        <v>6271.2424027576762</v>
+        <v>6253.9999393662411</v>
       </c>
       <c r="O51">
         <f t="shared" si="9"/>
-        <v>-38.85480124130644</v>
+        <v>-38.830555900677652</v>
       </c>
       <c r="P51">
         <f t="shared" si="15"/>
-        <v>6232.3876015163696</v>
+        <v>6215.1693834655634</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
@@ -17513,15 +17523,15 @@
       </c>
       <c r="N52">
         <f t="shared" si="14"/>
-        <v>5801.3850173603296</v>
+        <v>5784.7418937881412</v>
       </c>
       <c r="O52">
         <f t="shared" si="9"/>
-        <v>-38.174806160714624</v>
+        <v>-38.149949776576022</v>
       </c>
       <c r="P52">
         <f t="shared" si="15"/>
-        <v>5763.2102111996146</v>
+        <v>5746.5919440115649</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
@@ -17560,15 +17570,15 @@
       </c>
       <c r="N53">
         <f t="shared" si="14"/>
-        <v>5366.7305388886271</v>
+        <v>5350.6938123089685</v>
       </c>
       <c r="O53">
         <f t="shared" si="9"/>
-        <v>-37.506711625096848</v>
+        <v>-37.481273038634868</v>
       </c>
       <c r="P53">
         <f t="shared" si="15"/>
-        <v>5329.2238272635304</v>
+        <v>5313.2125392703338</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
@@ -17607,15 +17617,15 @@
       </c>
       <c r="N54">
         <f t="shared" si="14"/>
-        <v>4964.6414762771401</v>
+        <v>4949.2137763009359</v>
       </c>
       <c r="O54">
         <f t="shared" si="9"/>
-        <v>-36.850309363871851</v>
+        <v>-36.824316593445921</v>
       </c>
       <c r="P54">
         <f t="shared" si="15"/>
-        <v>4927.7911669132682</v>
+        <v>4912.3894597074905</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
@@ -17654,15 +17664,15 @@
       </c>
       <c r="N55">
         <f t="shared" si="14"/>
-        <v>4592.6779459800109</v>
+        <v>4577.8580989213588</v>
       </c>
       <c r="O55">
         <f t="shared" si="9"/>
-        <v>-36.205394751386841</v>
+        <v>-36.178875012504797</v>
       </c>
       <c r="P55">
         <f t="shared" si="15"/>
-        <v>4556.4725512286241</v>
+        <v>4541.6792239088536</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
@@ -17701,15 +17711,15 @@
       </c>
       <c r="N56">
         <f t="shared" si="14"/>
-        <v>4248.582866714486</v>
+        <v>4234.3664511341985</v>
       </c>
       <c r="O56">
         <f t="shared" si="9"/>
-        <v>-35.571766743127846</v>
+        <v>-35.544746467974022</v>
       </c>
       <c r="P56">
         <f t="shared" si="15"/>
-        <v>4213.0110999713579</v>
+        <v>4198.8217046662248</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
@@ -17748,15 +17758,15 @@
       </c>
       <c r="N57">
         <f t="shared" si="14"/>
-        <v>3930.2682634517259</v>
+        <v>3916.6481037748858</v>
       </c>
       <c r="O57">
         <f t="shared" si="9"/>
-        <v>-34.949227813046505</v>
+        <v>-34.921732669572016</v>
       </c>
       <c r="P57">
         <f t="shared" si="15"/>
-        <v>3895.3190356386795</v>
+        <v>3881.7263711053138</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
@@ -17795,15 +17805,15 @@
       </c>
       <c r="N58">
         <f t="shared" si="14"/>
-        <v>3635.8025975473788</v>
+        <v>3622.7692019179058</v>
       </c>
       <c r="O58">
         <f t="shared" si="9"/>
-        <v>-34.337583891983556</v>
+        <v>-34.309638802568287</v>
       </c>
       <c r="P58">
         <f t="shared" si="15"/>
-        <v>3601.4650136553951</v>
+        <v>3588.4595631153375</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
@@ -17842,15 +17852,15 @@
       </c>
       <c r="N59">
         <f t="shared" si="14"/>
-        <v>3363.3990461309531</v>
+        <v>3350.940994090196</v>
       </c>
       <c r="O59">
         <f t="shared" si="9"/>
-        <v>-33.736644307170167</v>
+        <v>-33.708273466865364</v>
       </c>
       <c r="P59">
         <f t="shared" si="15"/>
-        <v>3329.6624018237831</v>
+        <v>3317.2327206233308</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
@@ -17889,15 +17899,15 @@
       </c>
       <c r="N60">
         <f t="shared" si="14"/>
-        <v>3111.4046596329763</v>
+        <v>3099.5089446850848</v>
       </c>
       <c r="O60">
         <f t="shared" si="9"/>
-        <v>-33.146221722787899</v>
+        <v>-33.117448617148483</v>
       </c>
       <c r="P60">
         <f t="shared" si="15"/>
-        <v>3078.2584379101886</v>
+        <v>3066.3914960679363</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
@@ -17936,15 +17946,15 @@
       </c>
       <c r="N61">
         <f t="shared" si="14"/>
-        <v>2878.2903316577999</v>
+        <v>2866.9426633073831</v>
       </c>
       <c r="O61">
         <f t="shared" si="9"/>
-        <v>-32.566132081568988</v>
+        <v>-32.536979504084378</v>
       </c>
       <c r="P61">
         <f t="shared" si="15"/>
-        <v>2845.7241995762311</v>
+        <v>2834.4056838032989</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
@@ -17983,15 +17993,15 @@
       </c>
       <c r="N62">
         <f t="shared" si="14"/>
-        <v>2662.6415203389311</v>
+        <v>2651.8265897526358</v>
       </c>
       <c r="O62">
         <f t="shared" si="9"/>
-        <v>-31.996194547418686</v>
+        <v>-31.966684616550669</v>
       </c>
       <c r="P62">
         <f t="shared" si="15"/>
-        <v>2630.6453257915123</v>
+        <v>2619.8599051360852</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
@@ -18030,15 +18040,15 @@
       </c>
       <c r="N63">
         <f t="shared" si="14"/>
-        <v>2463.1496648739389</v>
+        <v>2452.851377922771</v>
       </c>
       <c r="O63">
         <f t="shared" si="9"/>
-        <v>-31.436231449041721</v>
+        <v>-31.406385624877732</v>
       </c>
       <c r="P63">
         <f t="shared" si="15"/>
-        <v>2431.7134334248972</v>
+        <v>2421.4449922978934</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
@@ -18077,15 +18087,15 @@
       </c>
       <c r="N64">
         <f t="shared" si="14"/>
-        <v>2278.6042451543808</v>
+        <v>2268.8059262347383</v>
       </c>
       <c r="O64">
         <f t="shared" si="9"/>
-        <v>-30.886068224555352</v>
+        <v>-30.855907325085592</v>
       </c>
       <c r="P64">
         <f t="shared" si="15"/>
-        <v>2247.7181769298254</v>
+        <v>2237.9500189096525</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
@@ -18124,15 +18134,15 @@
       </c>
       <c r="N65">
         <f t="shared" si="14"/>
-        <v>2107.8854363083469</v>
+        <v>2098.5700060136051</v>
       </c>
       <c r="O65">
         <f t="shared" si="9"/>
-        <v>-30.34553336707182</v>
+        <v>-30.315077584098063</v>
       </c>
       <c r="P65">
         <f t="shared" si="15"/>
-        <v>2077.5399029412752</v>
+        <v>2068.2549284295069</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
@@ -18171,15 +18181,15 @@
       </c>
       <c r="N66">
         <f t="shared" si="14"/>
-        <v>1949.9573135833414</v>
+        <v>1941.107443001403</v>
       </c>
       <c r="O66">
         <f t="shared" si="9"/>
-        <v>-29.814458371233034</v>
+        <v>-29.783727285917227</v>
       </c>
       <c r="P66">
         <f t="shared" si="15"/>
-        <v>1920.1428552121083</v>
+        <v>1911.3237157154858</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
@@ -18218,15 +18228,15 @@
       </c>
       <c r="N67">
         <f t="shared" si="14"/>
-        <v>1803.8615663365413</v>
+        <v>1795.4598104796405</v>
       </c>
       <c r="O67">
         <f t="shared" si="9"/>
-        <v>-29.292677680681088</v>
+        <v>-29.261690278741291</v>
       </c>
       <c r="P67">
         <f t="shared" si="15"/>
-        <v>1774.5688886558603</v>
+        <v>1766.1981202008992</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
@@ -18265,15 +18275,15 @@
       </c>
       <c r="N68">
         <f t="shared" si="14"/>
-        <v>1668.7116829888748</v>
+        <v>1660.7405956174334</v>
       </c>
       <c r="O68">
         <f t="shared" si="9"/>
-        <v>-28.780028636447934</v>
+        <v>-28.748803323009376</v>
       </c>
       <c r="P68">
         <f t="shared" si="15"/>
-        <v>1639.9316543524269</v>
+        <v>1631.9917922944242</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.4">
@@ -18312,15 +18322,15 @@
       </c>
       <c r="N69">
         <f t="shared" si="14"/>
-        <v>1543.6875716570626</v>
+        <v>1536.129803537603</v>
       </c>
       <c r="O69">
         <f t="shared" si="9"/>
-        <v>-28.276351426248471</v>
+        <v>-28.244906040356998</v>
       </c>
       <c r="P69">
         <f t="shared" si="15"/>
-        <v>1515.411220230814</v>
+        <v>1507.8848974972461</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.4">
@@ -18359,15 +18369,15 @@
       </c>
       <c r="N70">
         <f t="shared" si="14"/>
-        <v>1428.0305838215718</v>
+        <v>1420.8689662572976</v>
       </c>
       <c r="O70">
         <f t="shared" si="9"/>
-        <v>-27.781489034660861</v>
+        <v>-27.749840863466073</v>
       </c>
       <c r="P70">
         <f t="shared" si="15"/>
-        <v>1400.249094786911</v>
+        <v>1393.1191253938316</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
@@ -18406,15 +18416,15 @@
       </c>
       <c r="N71">
         <f t="shared" si="14"/>
-        <v>1321.0389108339659</v>
+        <v>1314.2565261241368</v>
       </c>
       <c r="O71">
         <f t="shared" si="9"/>
-        <v>-27.295287194178869</v>
+        <v>-27.26345298679416</v>
       </c>
       <c r="P71">
         <f t="shared" si="15"/>
-        <v>1293.7436236397871</v>
+        <v>1286.9930731373427</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
@@ -18453,15 +18463,15 @@
       </c>
       <c r="N72">
         <f t="shared" si="14"/>
-        <v>1222.0633253296185</v>
+        <v>1215.6435656481881</v>
       </c>
       <c r="O72">
         <f t="shared" si="9"/>
-        <v>-26.817594337120799</v>
+        <v>-26.785590318167117</v>
       </c>
       <c r="P72">
         <f t="shared" si="15"/>
-        <v>1195.2457309924976</v>
+        <v>1188.857975330021</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
@@ -18500,15 +18510,15 @@
       </c>
       <c r="N73">
         <f t="shared" si="14"/>
-        <v>1130.5032417045841</v>
+        <v>1124.4298577386446</v>
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
-        <v>-26.34826154838008</v>
+        <v>-26.316103431220352</v>
       </c>
       <c r="P73">
         <f t="shared" si="15"/>
-        <v>1104.1549801562039</v>
+        <v>1098.1137543074242</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
@@ -18547,15 +18557,15 @@
       </c>
       <c r="N74">
         <f t="shared" si="14"/>
-        <v>1045.8030717515026</v>
+        <v>1040.0602123040826</v>
       </c>
       <c r="O74">
         <f t="shared" si="9"/>
-        <v>-25.887142519002623</v>
+        <v>-25.854845518673507</v>
       </c>
       <c r="P74">
         <f t="shared" si="15"/>
-        <v>1019.9159292324999</v>
+        <v>1014.2053667854091</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
@@ -18594,15 +18604,15 @@
       </c>
       <c r="N75">
         <f t="shared" si="14"/>
-        <v>967.44885334055527</v>
+        <v>962.02109697930541</v>
       </c>
       <c r="O75">
         <f t="shared" si="9"/>
-        <v>-25.434093500576889</v>
+        <v>-25.401672346424299</v>
       </c>
       <c r="P75">
         <f t="shared" si="15"/>
-        <v>942.01475983997841</v>
+        <v>936.61942463288108</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
@@ -18641,15 +18651,15 @@
       </c>
       <c r="N76">
         <f t="shared" si="14"/>
-        <v>894.96513168814931</v>
+        <v>889.83751141004177</v>
       </c>
       <c r="O76">
         <f t="shared" si="9"/>
-        <v>-24.988973260421908</v>
+        <v>-24.956442208446866</v>
       </c>
       <c r="P76">
         <f t="shared" si="15"/>
-        <v>869.97615842772746</v>
+        <v>864.88106920159487</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.4">
@@ -18688,15 +18698,15 @@
       </c>
       <c r="N77">
         <f t="shared" si="14"/>
-        <v>827.9120742888897</v>
+        <v>823.07009607030466</v>
       </c>
       <c r="O77">
         <f t="shared" si="9"/>
-        <v>-24.5516430375597</v>
+        <v>-24.519015882480705</v>
       </c>
       <c r="P77">
         <f t="shared" si="15"/>
-        <v>803.36043125133006</v>
+        <v>798.55108018782391</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.4">
@@ -18735,15 +18745,15 @@
       </c>
       <c r="N78">
         <f t="shared" si="14"/>
-        <v>765.88280200415113</v>
+        <v>761.31245801461068</v>
       </c>
       <c r="O78">
         <f t="shared" si="9"/>
-        <v>-24.121966499458207</v>
+        <v>-24.089256586496248</v>
       </c>
       <c r="P78">
         <f t="shared" si="15"/>
-        <v>741.76083550469298</v>
+        <v>737.22320142811441</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.4">
@@ -18782,15 +18792,15 @@
       </c>
       <c r="N79">
         <f t="shared" si="14"/>
-        <v>708.50092011225956</v>
+        <v>704.18869728774405</v>
       </c>
       <c r="O79">
         <f t="shared" si="9"/>
-        <v>-23.699809699531141</v>
+        <v>-23.667029935923402</v>
       </c>
       <c r="P79">
         <f t="shared" si="15"/>
-        <v>684.80111041272846</v>
+        <v>680.52166735182061</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.4">
@@ -18829,15 +18839,15 @@
       </c>
       <c r="N80">
         <f t="shared" si="14"/>
-        <v>655.41823433867626</v>
+        <v>651.35111893610099</v>
       </c>
       <c r="O80">
         <f t="shared" si="9"/>
-        <v>-23.285041035381845</v>
+        <v>-23.252203901630015</v>
       </c>
       <c r="P80">
         <f t="shared" si="15"/>
-        <v>632.13319330329443</v>
+        <v>628.09891503447102</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.4">
@@ -18876,15 +18886,15 @@
       </c>
       <c r="N81">
         <f t="shared" si="14"/>
-        <v>606.31263800696718</v>
+        <v>602.47811669426915</v>
       </c>
       <c r="O81">
         <f t="shared" si="9"/>
-        <v>-22.8775312077777</v>
+        <v>-22.844648768636599</v>
       </c>
       <c r="P81">
         <f t="shared" si="15"/>
-        <v>583.4351067991895</v>
+        <v>579.63346792563254</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.4">
@@ -18923,15 +18933,15 @@
       </c>
       <c r="N82">
         <f t="shared" si="14"/>
-        <v>560.88615748979737</v>
+        <v>557.27221546553005</v>
       </c>
       <c r="O82">
         <f t="shared" si="9"/>
-        <v>-22.477153180342661</v>
+        <v>-22.44423709555485</v>
       </c>
       <c r="P82">
         <f t="shared" si="15"/>
-        <v>538.40900430945476</v>
+        <v>534.8279783699752</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.4">
@@ -18970,15 +18980,15 @@
       </c>
       <c r="N83">
         <f t="shared" si="14"/>
-        <v>518.863144099686</v>
+        <v>515.4582606814447</v>
       </c>
       <c r="O83">
         <f t="shared" si="9"/>
-        <v>-22.083782139955179</v>
+        <v>-22.050843674737084</v>
       </c>
       <c r="P83">
         <f t="shared" si="15"/>
-        <v>496.77936195973081</v>
+        <v>493.40741700670759</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.4">
@@ -19017,15 +19027,15 @@
       </c>
       <c r="N84">
         <f t="shared" si="14"/>
-        <v>479.98860144789433</v>
+        <v>476.78174351969807</v>
       </c>
       <c r="O84">
         <f t="shared" si="9"/>
-        <v>-21.697295457839132</v>
+        <v>-21.664345493124092</v>
       </c>
       <c r="P84">
         <f t="shared" si="15"/>
-        <v>458.29130599005521</v>
+        <v>455.11739802657399</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.4">
@@ -19064,15 +19074,15 @@
       </c>
       <c r="N85">
         <f t="shared" si="14"/>
-        <v>444.02663812182993</v>
+        <v>441.00725178632558</v>
       </c>
       <c r="O85">
         <f t="shared" si="9"/>
-        <v>-21.317572651335816</v>
+        <v>-21.284621693779361</v>
       </c>
       <c r="P85">
         <f t="shared" si="15"/>
-        <v>422.70906547049412</v>
+        <v>419.72263009254624</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.4">
@@ -19111,15 +19121,15 @@
       </c>
       <c r="N86">
         <f t="shared" si="14"/>
-        <v>410.75903629177577</v>
+        <v>407.91703703330245</v>
       </c>
       <c r="O86">
         <f t="shared" si="9"/>
-        <v>-20.944495346344834</v>
+        <v>-20.911553538097362</v>
       </c>
       <c r="P86">
         <f t="shared" si="15"/>
-        <v>389.81454094543096</v>
+        <v>387.00548349520511</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.4">
@@ -19158,15 +19168,15 @@
       </c>
       <c r="N87">
         <f t="shared" si="14"/>
-        <v>379.98392756124423</v>
+        <v>377.30968918998695</v>
       </c>
       <c r="O87">
         <f t="shared" si="9"/>
-        <v>-20.577947240422425</v>
+        <v>-20.54502436867438</v>
       </c>
       <c r="P87">
         <f t="shared" si="15"/>
-        <v>359.40598032082181</v>
+        <v>356.76466482131258</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.4">
@@ -19205,15 +19215,15 @@
       </c>
       <c r="N88">
         <f t="shared" si="14"/>
-        <v>351.51456802597363</v>
+        <v>348.99891064128815</v>
       </c>
       <c r="O88">
         <f t="shared" si="9"/>
-        <v>-20.217814066525516</v>
+        <v>-20.184919572830019</v>
       </c>
       <c r="P88">
         <f t="shared" si="15"/>
-        <v>331.2967539594481</v>
+        <v>328.81399106845811</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.4">
@@ -19252,15 +19262,15 @@
       </c>
       <c r="N89">
         <f t="shared" si="14"/>
-        <v>325.17820510861412</v>
+        <v>322.81238229075979</v>
       </c>
       <c r="O89">
         <f t="shared" si="9"/>
-        <v>-19.863983557390341</v>
+        <v>-19.831126546768111</v>
       </c>
       <c r="P89">
         <f t="shared" si="15"/>
-        <v>305.3142215512238</v>
+        <v>302.98125574399165</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.4">
@@ -19299,15 +19309,15 @@
       </c>
       <c r="N90">
         <f t="shared" si="14"/>
-        <v>300.8150292930294</v>
+        <v>298.59071470668187</v>
       </c>
       <c r="O90">
         <f t="shared" si="9"/>
-        <v>-19.516345410534445</v>
+        <v>-19.483534660365862</v>
       </c>
       <c r="P90">
         <f t="shared" si="15"/>
-        <v>281.29868388249497</v>
+        <v>279.10718004631599</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.4">
@@ -19346,15 +19356,15 @@
       </c>
       <c r="N91">
         <f t="shared" si="14"/>
-        <v>278.27720439732849</v>
+        <v>276.18647796707842</v>
       </c>
       <c r="O91">
         <f t="shared" si="9"/>
-        <v>-19.17479125387116</v>
+        <v>-19.14203522258007</v>
       </c>
       <c r="P91">
         <f t="shared" si="15"/>
-        <v>259.10241314345734</v>
+        <v>257.04444274449833</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.4">
@@ -19393,15 +19403,15 @@
       </c>
       <c r="N92">
         <f t="shared" si="14"/>
-        <v>257.42797050129593</v>
+        <v>255.4633042986336</v>
       </c>
       <c r="O92">
         <f t="shared" si="9"/>
-        <v>-18.839214611925922</v>
+        <v>-18.806521447459751</v>
       </c>
       <c r="P92">
         <f t="shared" si="15"/>
-        <v>238.58875588937002</v>
+        <v>236.65678285117386</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.4">
@@ -19440,15 +19450,15 @@
       </c>
       <c r="N93">
         <f t="shared" si="14"/>
-        <v>238.14081408477873</v>
+        <v>236.29505804753944</v>
       </c>
       <c r="O93">
         <f t="shared" si="9"/>
-        <v>-18.509510872643784</v>
+        <v>-18.476888420754456</v>
       </c>
       <c r="P93">
         <f t="shared" si="15"/>
-        <v>219.63130321213495</v>
+        <v>217.81816962678499</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.4">
@@ -19487,15 +19497,15 @@
       </c>
       <c r="N94">
         <f t="shared" si="14"/>
-        <v>220.29870034140501</v>
+        <v>218.56506793014449</v>
       </c>
       <c r="O94">
         <f t="shared" si="9"/>
-        <v>-18.18557725477784</v>
+        <v>-18.153033067107863</v>
       </c>
       <c r="P94">
         <f t="shared" si="15"/>
-        <v>202.11312308662718</v>
+        <v>200.41203486303664</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.4">
@@ -19534,15 +19544,15 @@
       </c>
       <c r="N95">
         <f t="shared" si="14"/>
-        <v>203.79336300931115</v>
+        <v>202.16541689034329</v>
       </c>
       <c r="O95">
         <f t="shared" si="9"/>
-        <v>-17.867312775848401</v>
+        <v>-17.834854117826399</v>
       </c>
       <c r="P95">
         <f t="shared" si="15"/>
-        <v>185.92605023346275</v>
+        <v>184.33056277251688</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.4">
@@ -19581,15 +19591,15 @@
       </c>
       <c r="N96">
         <f t="shared" si="14"/>
-        <v>188.52464740954741</v>
+        <v>186.99628524128562</v>
       </c>
       <c r="O96">
         <f t="shared" si="9"/>
-        <v>-17.554618220662885</v>
+        <v>-17.522252079212787</v>
       </c>
       <c r="P96">
         <f t="shared" si="15"/>
-        <v>170.97002918888452</v>
+        <v>169.47403316207283</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.4">
@@ -19628,15 +19638,15 @@
       </c>
       <c r="N97">
         <f t="shared" si="14"/>
-        <v>174.39990270571406</v>
+        <v>172.96534309331037</v>
       </c>
       <c r="O97">
         <f t="shared" si="9"/>
-        <v>-17.247396110386639</v>
+        <v>-17.215129201454648</v>
       </c>
       <c r="P97">
         <f t="shared" si="15"/>
-        <v>157.15250659532742</v>
+        <v>155.75021389185571</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.4">
@@ -19675,15 +19685,15 @@
       </c>
       <c r="N98">
         <f t="shared" si="14"/>
-        <v>161.3334196970483</v>
+        <v>159.98718836999302</v>
       </c>
       <c r="O98">
         <f t="shared" si="9"/>
-        <v>-16.945550672155107</v>
+        <v>-16.913389448058375</v>
       </c>
       <c r="P98">
         <f t="shared" si="15"/>
-        <v>144.38786902489318</v>
+        <v>143.07379892193464</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.4">
@@ -19722,15 +19732,15 @@
       </c>
       <c r="N99">
         <f t="shared" si="14"/>
-        <v>149.24591073347605</v>
+        <v>147.9828269916899</v>
       </c>
       <c r="O99">
         <f t="shared" si="9"/>
-        <v>-16.648987809217726</v>
+        <v>-16.616938465818812</v>
       </c>
       <c r="P99">
         <f t="shared" si="15"/>
-        <v>132.59692292425834</v>
+        <v>131.3658885258711</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.4">
@@ -19769,15 +19779,15 @@
       </c>
       <c r="N100">
         <f t="shared" si="14"/>
-        <v>138.06402859674984</v>
+        <v>136.87919206260466</v>
       </c>
       <c r="O100">
         <f t="shared" si="9"/>
-        <v>-16.3576150716044</v>
+        <v>-16.32568355531523</v>
       </c>
       <c r="P100">
         <f t="shared" si="15"/>
-        <v>121.70641352514544</v>
+        <v>120.55350850728942</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.4">
@@ -19816,15 +19826,15 @@
       </c>
       <c r="N101">
         <f t="shared" si="14"/>
-        <v>127.71992142822957</v>
+        <v>126.60869913482324</v>
       </c>
       <c r="O101">
         <f t="shared" si="9"/>
-        <v>-16.071341627305305</v>
+        <v>-16.03953364192451</v>
       </c>
       <c r="P101">
         <f t="shared" si="15"/>
-        <v>111.64857980092427</v>
+        <v>110.56916549289873</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.4">
@@ -19863,15 +19873,15 @@
       </c>
       <c r="N102">
         <f t="shared" si="14"/>
-        <v>118.15082100260513</v>
+        <v>117.1088348423376</v>
       </c>
       <c r="O102">
         <f t="shared" si="9"/>
-        <v>-15.790078233955088</v>
+        <v>-15.758399247342295</v>
       </c>
       <c r="P102">
         <f t="shared" si="15"/>
-        <v>102.36074276865004</v>
+        <v>101.3504355949953</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.4">
@@ -19910,15 +19920,15 @@
       </c>
       <c r="N103">
         <f t="shared" si="14"/>
-        <v>109.29866184919371</v>
+        <v>108.32177640120612</v>
       </c>
       <c r="O103">
         <f t="shared" si="9"/>
-        <v>-15.513737211012609</v>
+        <v>-15.482192461603432</v>
       </c>
       <c r="P103">
         <f t="shared" si="15"/>
-        <v>93.784924638181096</v>
+        <v>92.83958393960269</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.4">
@@ -19957,15 +19967,15 @@
       </c>
       <c r="N104">
         <f t="shared" si="14"/>
-        <v>101.1097289096364</v>
+        <v>100.19403965985768</v>
       </c>
       <c r="O104">
         <f t="shared" si="9"/>
-        <v>-15.242232412427569</v>
+        <v>-15.21082691559271</v>
       </c>
       <c r="P104">
         <f t="shared" si="15"/>
-        <v>85.867496497208833</v>
+        <v>84.983212744264975</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.4">
@@ -20004,15 +20014,15 @@
       </c>
       <c r="N105">
         <f t="shared" si="14"/>
-        <v>93.534331593974485</v>
+        <v>92.676153557331602</v>
       </c>
       <c r="O105">
         <f t="shared" si="9"/>
-        <v>-14.975479199785495</v>
+        <v>-14.944217754037505</v>
       </c>
       <c r="P105">
         <f t="shared" si="15"/>
-        <v>78.558852394188989</v>
+        <v>77.731935803294093</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.4">
@@ -20051,15 +20061,15 @@
       </c>
       <c r="N106">
         <f t="shared" si="14"/>
-        <v>86.526502257269456</v>
+        <v>85.722359007980231</v>
       </c>
       <c r="O106">
         <f t="shared" si="9"/>
-        <v>-14.713394415922705</v>
+        <v>-14.682281608973753</v>
       </c>
       <c r="P106">
         <f t="shared" si="15"/>
-        <v>71.813107841346749</v>
+        <v>71.040077399006478</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.4">
@@ -20098,15 +20108,15 @@
       </c>
       <c r="N107">
         <f t="shared" si="14"/>
-        <v>80.043717267121366</v>
+        <v>79.290330379833918</v>
       </c>
       <c r="O107">
         <f t="shared" ref="O107:O170" si="18">-SQRT(($N$4*EXP(-$N$6*(M107/$N$7-1)))^2*$C$41)</f>
-        <v>-14.455896359003088</v>
+        <v>-14.424936573677007</v>
       </c>
       <c r="P107">
         <f t="shared" si="15"/>
-        <v>65.587820908118275</v>
+        <v>64.865393806156916</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.4">
@@ -20145,15 +20155,15 @@
       </c>
       <c r="N108">
         <f t="shared" ref="N108:N171" si="23">$N$3*EXP(-$N$5*(M108/$N$7-1))*$C$41</f>
-        <v>74.04663896951385</v>
+        <v>73.340917871356467</v>
       </c>
       <c r="O108">
         <f t="shared" si="18"/>
-        <v>-14.202904757048451</v>
+        <v>-14.172102177050443</v>
       </c>
       <c r="P108">
         <f t="shared" ref="P108:P171" si="24">N108+O108</f>
-        <v>59.843734212465399</v>
+        <v>59.168815694306026</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.4">
@@ -20192,15 +20202,15 @@
       </c>
       <c r="N109">
         <f t="shared" si="23"/>
-        <v>68.498876987234567</v>
+        <v>67.837909218512706</v>
       </c>
       <c r="O109">
         <f t="shared" si="18"/>
-        <v>-13.954340742914731</v>
+        <v>-13.923699358461745</v>
       </c>
       <c r="P109">
         <f t="shared" si="24"/>
-        <v>54.544536244319836</v>
+        <v>53.91420986005096</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.4">
@@ -20239,15 +20249,15 @@
       </c>
       <c r="N110">
         <f t="shared" si="23"/>
-        <v>63.3667674024219</v>
+        <v>62.747809281733758</v>
       </c>
       <c r="O110">
         <f t="shared" si="18"/>
-        <v>-13.710126829706077</v>
+        <v>-13.679650443021071</v>
       </c>
       <c r="P110">
         <f t="shared" si="24"/>
-        <v>49.656640572715823</v>
+        <v>49.068158838712691</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.4">
@@ -20286,15 +20296,15 @@
       </c>
       <c r="N111">
         <f t="shared" si="23"/>
-        <v>58.619168483315974</v>
+        <v>58.039636171192029</v>
       </c>
       <c r="O111">
         <f t="shared" si="18"/>
-        <v>-13.470186886619226</v>
+        <v>-13.439879117292328</v>
       </c>
       <c r="P111">
         <f t="shared" si="24"/>
-        <v>45.14898159669675</v>
+        <v>44.599757053899701</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.4">
@@ -20333,15 +20343,15 @@
       </c>
       <c r="N112">
         <f t="shared" si="23"/>
-        <v>54.22727171567935</v>
+        <v>53.684732669463259</v>
       </c>
       <c r="O112">
         <f t="shared" si="18"/>
-        <v>-13.234446115210625</v>
+        <v>-13.204310405430158</v>
       </c>
       <c r="P112">
         <f t="shared" si="24"/>
-        <v>40.992825600468727</v>
+        <v>40.480422264033102</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.4">
@@ -20380,15 +20390,15 @@
       </c>
       <c r="N113">
         <f t="shared" si="23"/>
-        <v>50.164426992222893</v>
+        <v>49.656591803761891</v>
       </c>
       <c r="O113">
         <f t="shared" si="18"/>
-        <v>-13.002831026078903</v>
+        <v>-12.972870645735203</v>
       </c>
       <c r="P113">
         <f t="shared" si="24"/>
-        <v>37.161595966143992</v>
+        <v>36.683721158026685</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.4">
@@ -20427,15 +20437,15 @@
       </c>
       <c r="N114">
         <f t="shared" si="23"/>
-        <v>46.405980899283222</v>
+        <v>45.930695506061511</v>
       </c>
       <c r="O114">
         <f t="shared" si="18"/>
-        <v>-12.775269415955401</v>
+        <v>-12.74548746762027</v>
       </c>
       <c r="P114">
         <f t="shared" si="24"/>
-        <v>33.630711483327822</v>
+        <v>33.185208038441239</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.4">
@@ -20474,15 +20484,15 @@
       </c>
       <c r="N115">
         <f t="shared" si="23"/>
-        <v>42.92912711947266</v>
+        <v>42.4843653790738</v>
       </c>
       <c r="O115">
         <f t="shared" si="18"/>
-        <v>-12.551690345195684</v>
+        <v>-12.522089768980281</v>
       </c>
       <c r="P115">
         <f t="shared" si="24"/>
-        <v>30.377436774276976</v>
+        <v>29.962275610093521</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.4">
@@ -20521,15 +20531,15 @@
       </c>
       <c r="N116">
         <f t="shared" si="23"/>
-        <v>39.712768042541441</v>
+        <v>39.29662465974301</v>
       </c>
       <c r="O116">
         <f t="shared" si="18"/>
-        <v>-12.332024115664927</v>
+        <v>-12.302607693958807</v>
       </c>
       <c r="P116">
         <f t="shared" si="24"/>
-        <v>27.380743926876512</v>
+        <v>26.994016965784205</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.4">
@@ -20568,15 +20578,15 @@
       </c>
       <c r="N117">
         <f t="shared" si="23"/>
-        <v>36.737386744705695</v>
+        <v>36.34807054007095</v>
       </c>
       <c r="O117">
         <f t="shared" si="18"/>
-        <v>-12.116202249010341</v>
+        <v>-12.086972611104329</v>
       </c>
       <c r="P117">
         <f t="shared" si="24"/>
-        <v>24.621184495695353</v>
+        <v>24.26109792896662</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.4">
@@ -20615,15 +20625,15 @@
       </c>
       <c r="N118">
         <f t="shared" si="23"/>
-        <v>33.984928559608555</v>
+        <v>33.620756068127243</v>
       </c>
       <c r="O118">
         <f t="shared" si="18"/>
-        <v>-11.904157465313862</v>
+        <v>-11.875117091909392</v>
       </c>
       <c r="P118">
         <f t="shared" si="24"/>
-        <v>22.080771094294693</v>
+        <v>21.745638976217851</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.4">
@@ -20662,15 +20672,15 @@
       </c>
       <c r="N119">
         <f t="shared" si="23"/>
-        <v>31.438691522285374</v>
+        <v>31.098080910412683</v>
       </c>
       <c r="O119">
         <f t="shared" si="18"/>
-        <v>-11.695823662118434</v>
+        <v>-11.66697488972587</v>
       </c>
       <c r="P119">
         <f t="shared" si="24"/>
-        <v>19.742867860166939</v>
+        <v>19.431106020686812</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.4">
@@ -20709,15 +20719,15 @@
       </c>
       <c r="N120">
         <f t="shared" si="23"/>
-        <v>29.083225021344667</v>
+        <v>28.764690310679377</v>
       </c>
       <c r="O120">
         <f t="shared" si="18"/>
-        <v>-11.491135893821347</v>
+        <v>-11.462480919049835</v>
       </c>
       <c r="P120">
         <f t="shared" si="24"/>
-        <v>17.59208912752332</v>
+        <v>17.302209391629543</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.4">
@@ -20756,15 +20766,15 @@
       </c>
       <c r="N121">
         <f t="shared" si="23"/>
-        <v>26.904236044384909</v>
+        <v>26.60638163020047</v>
       </c>
       <c r="O121">
         <f t="shared" si="18"/>
-        <v>-11.290030351428211</v>
+        <v>-11.261571235169491</v>
       </c>
       <c r="P121">
         <f t="shared" si="24"/>
-        <v>15.614205692956698</v>
+        <v>15.344810395030979</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.4">
@@ -20803,15 +20813,15 @@
       </c>
       <c r="N122">
         <f t="shared" si="23"/>
-        <v>24.888502447742415</v>
+        <v>24.610017900629028</v>
       </c>
       <c r="O122">
         <f t="shared" si="18"/>
-        <v>-11.092444342661247</v>
+        <v>-11.064183014169824</v>
       </c>
       <c r="P122">
         <f t="shared" si="24"/>
-        <v>13.796058105081167</v>
+        <v>13.545834886459204</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.4">
@@ -20850,15 +20860,15 @@
       </c>
       <c r="N123">
         <f t="shared" si="23"/>
-        <v>23.023792724289628</v>
+        <v>22.763447863268002</v>
       </c>
       <c r="O123">
         <f t="shared" si="18"/>
-        <v>-10.898316272415725</v>
+        <v>-10.870254533287742</v>
       </c>
       <c r="P123">
         <f t="shared" si="24"/>
-        <v>12.125476451873903</v>
+        <v>11.89319332998026</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.4">
@@ -20897,15 +20907,15 @@
       </c>
       <c r="N124">
         <f t="shared" si="23"/>
-        <v>21.298791782433497</v>
+        <v>21.055432008055416</v>
       </c>
       <c r="O124">
         <f t="shared" si="18"/>
-        <v>-10.70758562355841</v>
+        <v>-10.679725151611548</v>
       </c>
       <c r="P124">
         <f t="shared" si="24"/>
-        <v>10.591206158875087</v>
+        <v>10.375706856443868</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.4">
@@ -20944,15 +20954,15 @@
       </c>
       <c r="N125">
         <f t="shared" si="23"/>
-        <v>19.703032285939454</v>
+        <v>19.475574162085579</v>
       </c>
       <c r="O125">
         <f t="shared" si="18"/>
-        <v>-10.520192938062062</v>
+        <v>-10.492535291118667</v>
       </c>
       <c r="P125">
         <f t="shared" si="24"/>
-        <v>9.1828393478773922</v>
+        <v>8.9830388709669116</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.4">
@@ -20991,15 +21001,15 @@
       </c>
       <c r="N126">
         <f t="shared" si="23"/>
-        <v>18.226831137949993</v>
+        <v>18.014258211267432</v>
       </c>
       <c r="O126">
         <f t="shared" si="18"/>
-        <v>-10.336079798470088</v>
+        <v>-10.308626418045771</v>
       </c>
       <c r="P126">
         <f t="shared" si="24"/>
-        <v>7.8907513394799054</v>
+        <v>7.7056317932216611</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.4">
@@ -21038,15 +21048,15 @@
       </c>
       <c r="N127">
         <f t="shared" si="23"/>
-        <v>16.861230723781635</v>
+        <v>16.662589569963412</v>
       </c>
       <c r="O127">
         <f t="shared" si="18"/>
-        <v>-10.155188809685615</v>
+        <v>-10.127941024585432</v>
       </c>
       <c r="P127">
         <f t="shared" si="24"/>
-        <v>6.7060419140960192</v>
+        <v>6.5346485453779799</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.4">
@@ -21085,15 +21095,15 @@
       </c>
       <c r="N128">
         <f t="shared" si="23"/>
-        <v>15.59794455596046</v>
+        <v>15.412341042352535</v>
       </c>
       <c r="O128">
         <f t="shared" si="18"/>
-        <v>-9.9774635810792205</v>
+        <v>-9.9504226109035745</v>
       </c>
       <c r="P128">
         <f t="shared" si="24"/>
-        <v>5.6204809748812394</v>
+        <v>5.4619184314489608</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.4">
@@ -21132,15 +21142,15 @@
       </c>
       <c r="N129">
         <f t="shared" si="23"/>
-        <v>14.429306991669595</v>
+        <v>14.255902745992339</v>
       </c>
       <c r="O129">
         <f t="shared" si="18"/>
-        <v>-9.8028487089098277</v>
+        <v>-9.7760156674721532</v>
       </c>
       <c r="P129">
         <f t="shared" si="24"/>
-        <v>4.6264582827597671</v>
+        <v>4.4798870785201856</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.4">
@@ -21179,15 +21189,15 @@
       </c>
       <c r="N130">
         <f t="shared" si="23"/>
-        <v>13.348226717492949</v>
+        <v>13.186235792779392</v>
       </c>
       <c r="O130">
         <f t="shared" si="18"/>
-        <v>-9.6312897590532529</v>
+        <v>-9.6046656577114433</v>
       </c>
       <c r="P130">
         <f t="shared" si="24"/>
-        <v>3.7169369584396961</v>
+        <v>3.581570135067949</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.4">
@@ -21226,15 +21236,15 @@
       </c>
       <c r="N131">
         <f t="shared" si="23"/>
-        <v>12.348143719199914</v>
+        <v>12.196829445378839</v>
       </c>
       <c r="O131">
         <f t="shared" si="18"/>
-        <v>-9.462733250032997</v>
+        <v>-9.4363190009366207</v>
       </c>
       <c r="P131">
         <f t="shared" si="24"/>
-        <v>2.8854104691669171</v>
+        <v>2.7605104444422182</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.4">
@@ -21273,15 +21283,15 @@
       </c>
       <c r="N132">
         <f t="shared" si="23"/>
-        <v>11.422989475463039</v>
+        <v>11.28166148834687</v>
       </c>
       <c r="O132">
         <f t="shared" si="18"/>
-        <v>-9.2971266363480343</v>
+        <v>-9.2709230556032232</v>
       </c>
       <c r="P132">
         <f t="shared" si="24"/>
-        <v>2.1258628391150047</v>
+        <v>2.0107384327436471</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.4">
@@ -21320,15 +21330,15 @@
       </c>
       <c r="N133">
         <f t="shared" si="23"/>
-        <v>10.56715013396313</v>
+        <v>10.435161572737353</v>
       </c>
       <c r="O133">
         <f t="shared" si="18"/>
-        <v>-9.1344182920923753</v>
+        <v>-9.1084261028462734</v>
       </c>
       <c r="P133">
         <f t="shared" si="24"/>
-        <v>1.4327318418707549</v>
+        <v>1.32673546989108</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.4">
@@ -21367,15 +21377,15 @@
       </c>
       <c r="N134">
         <f t="shared" si="23"/>
-        <v>9.7754324464341344</v>
+        <v>9.6521773110824611</v>
       </c>
       <c r="O134">
         <f t="shared" si="18"/>
-        <v>-8.9745574948612887</v>
+        <v>-8.9487773303079443</v>
       </c>
       <c r="P134">
         <f t="shared" si="24"/>
-        <v>0.80087495157284572</v>
+        <v>0.70339998077451682</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.4">
@@ -21414,15 +21424,15 @@
       </c>
       <c r="N135">
         <f t="shared" si="23"/>
-        <v>9.0430322559407408</v>
+        <v>8.9279429163774928</v>
       </c>
       <c r="O135">
         <f t="shared" si="18"/>
-        <v>-8.8174944099392008</v>
+        <v>-8.7919268162486546</v>
       </c>
       <c r="P135">
         <f t="shared" si="24"/>
-        <v>0.22553784600154003</v>
+        <v>0.13601610012883825</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.4">
@@ -21461,15 +21471,15 @@
       </c>
       <c r="N136">
         <f t="shared" si="23"/>
-        <v>8.3655053451691597</v>
+        <v>8.2580501941852553</v>
       </c>
       <c r="O136">
         <f t="shared" si="18"/>
-        <v>-8.663180074764318</v>
+        <v>-8.6378255139366864</v>
       </c>
       <c r="P136">
         <f t="shared" si="24"/>
-        <v>-0.29767472959515828</v>
+        <v>-0.37977531975143108</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.4">
@@ -21508,15 +21518,15 @@
       </c>
       <c r="N137">
         <f t="shared" si="23"/>
-        <v>7.7387404688377535</v>
+        <v>7.6384217112975632</v>
       </c>
       <c r="O137">
         <f t="shared" si="18"/>
-        <v>-8.5115663836651052</v>
+        <v>-8.4864252363114066</v>
       </c>
       <c r="P137">
         <f t="shared" si="24"/>
-        <v>-0.77282591482735175</v>
+        <v>-0.84800352501384335</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.4">
@@ -21555,15 +21565,15 @@
       </c>
       <c r="N138">
         <f t="shared" si="23"/>
-        <v>7.1589344065879832</v>
+        <v>7.0652859776397063</v>
       </c>
       <c r="O138">
         <f t="shared" si="18"/>
-        <v>-8.3626060728639295</v>
+        <v>-8.3376786409152981</v>
       </c>
       <c r="P138">
         <f t="shared" si="24"/>
-        <v>-1.2036716662759464</v>
+        <v>-1.2723926632755918</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.4">
@@ -21602,15 +21612,15 @@
       </c>
       <c r="N139">
         <f t="shared" si="23"/>
-        <v>6.6225688849759674</v>
+        <v>6.5351544903577379</v>
       </c>
       <c r="O139">
         <f t="shared" si="18"/>
-        <v>-8.2162527057431287</v>
+        <v>-8.191539215090101</v>
       </c>
       <c r="P139">
         <f t="shared" si="24"/>
-        <v>-1.5936838207671613</v>
+        <v>-1.6563847247323631</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.4">
@@ -21649,15 +21659,15 @@
       </c>
       <c r="N140">
         <f t="shared" si="23"/>
-        <v>6.1263892285269748</v>
+        <v>6.0448005003628218</v>
       </c>
       <c r="O140">
         <f t="shared" si="18"/>
-        <v>-8.0724606583689411</v>
+        <v>-8.0479612614324374</v>
       </c>
       <c r="P140">
         <f t="shared" si="24"/>
-        <v>-1.9460714298419663</v>
+        <v>-2.0031607610696156</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.4">
@@ -21696,15 +21706,15 @@
       </c>
       <c r="N141">
         <f t="shared" si="23"/>
-        <v>5.6673846103071046</v>
+        <v>5.591239372091179</v>
       </c>
       <c r="O141">
         <f t="shared" si="18"/>
-        <v>-7.9311851052687983</v>
+        <v>-7.9068998835043445</v>
       </c>
       <c r="P141">
         <f t="shared" si="24"/>
-        <v>-2.2638004949616937</v>
+        <v>-2.3156605114131654</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.4">
@@ -21743,15 +21753,15 @@
       </c>
       <c r="N142">
         <f t="shared" si="23"/>
-        <v>5.2427697821720711</v>
+        <v>5.1717104169353671</v>
       </c>
       <c r="O142">
         <f t="shared" si="18"/>
-        <v>-7.7923820054574824</v>
+        <v>-7.7683109717942882</v>
       </c>
       <c r="P142">
         <f t="shared" si="24"/>
-        <v>-2.5496122232854113</v>
+        <v>-2.5966005548589211</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.4">
@@ -21790,15 +21800,15 @@
       </c>
       <c r="N143">
         <f t="shared" si="23"/>
-        <v>4.8499681738323348</v>
+        <v>4.783660089772602</v>
       </c>
       <c r="O143">
         <f t="shared" si="18"/>
-        <v>-7.6560080887079067</v>
+        <v>-7.6321511899242411</v>
       </c>
       <c r="P143">
         <f t="shared" si="24"/>
-        <v>-2.8060399148755719</v>
+        <v>-2.8484911001516391</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.4">
@@ -21837,15 +21847,15 @@
       </c>
       <c r="N144">
         <f t="shared" si="23"/>
-        <v>4.4865962581788867</v>
+        <v>4.4247264463123939</v>
       </c>
       <c r="O144">
         <f t="shared" si="18"/>
-        <v>-7.5220208420621057</v>
+        <v>-7.4983779610985035</v>
       </c>
       <c r="P144">
         <f t="shared" si="24"/>
-        <v>-3.035424583883219</v>
+        <v>-3.0736515147861097</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.4">
@@ -21884,15 +21894,15 @@
       </c>
       <c r="N145">
         <f t="shared" si="23"/>
-        <v>4.1504490879986289</v>
+        <v>4.0927247666602042</v>
       </c>
       <c r="O145">
         <f t="shared" si="18"/>
-        <v>-7.390378496578335</v>
+        <v>-7.3669494547900696</v>
       </c>
       <c r="P145">
         <f t="shared" si="24"/>
-        <v>-3.2399294085797061</v>
+        <v>-3.2742246881298653</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.4">
@@ -21931,15 +21941,15 @@
       </c>
       <c r="N146">
         <f t="shared" si="23"/>
-        <v>3.8394869163156629</v>
+        <v>3.7856342575920672</v>
       </c>
       <c r="O146">
         <f t="shared" si="18"/>
-        <v>-7.261040014310093</v>
+        <v>-7.2378245736603164</v>
       </c>
       <c r="P146">
         <f t="shared" si="24"/>
-        <v>-3.4215530979944302</v>
+        <v>-3.4521903160682492</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.4">
@@ -21978,15 +21988,15 @@
       </c>
       <c r="N147">
         <f t="shared" si="23"/>
-        <v>3.5518228191705541</v>
+        <v>3.5015857526010086</v>
       </c>
       <c r="O147">
         <f t="shared" si="18"/>
-        <v>-7.1339650755130259</v>
+        <v>-7.1109629407079948</v>
       </c>
       <c r="P147">
         <f t="shared" si="24"/>
-        <v>-3.5821422563424719</v>
+        <v>-3.6093771881069863</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.4">
@@ -22025,15 +22035,15 @@
       </c>
       <c r="N148">
         <f t="shared" si="23"/>
-        <v>3.2857112457323709</v>
+        <v>3.2388503348491211</v>
       </c>
       <c r="O148">
         <f t="shared" si="18"/>
-        <v>-7.0091140660757301</v>
+        <v>-6.9863248866434366</v>
       </c>
       <c r="P148">
         <f t="shared" si="24"/>
-        <v>-3.7234028203433591</v>
+        <v>-3.7474745517943155</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.4">
@@ -22072,15 +22082,15 @@
       </c>
       <c r="N149">
         <f t="shared" si="23"/>
-        <v>3.0395374262653396</v>
+        <v>2.9958288137767553</v>
       </c>
       <c r="O149">
         <f t="shared" si="18"/>
-        <v>-6.886448065170506</v>
+        <v>-6.8638714374840823</v>
       </c>
       <c r="P149">
         <f t="shared" si="24"/>
-        <v>-3.8469106389051664</v>
+        <v>-3.8680426237073271</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.4">
@@ -22119,15 +22129,15 @@
       </c>
       <c r="N150">
         <f t="shared" si="23"/>
-        <v>2.8118075736775334</v>
+        <v>2.7710419913160731</v>
       </c>
       <c r="O150">
         <f t="shared" si="18"/>
-        <v>-6.7659288331202676</v>
+        <v>-6.7435643023674228</v>
       </c>
       <c r="P150">
         <f t="shared" si="24"/>
-        <v>-3.9541212594427342</v>
+        <v>-3.9725223110513497</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.4">
@@ -22166,15 +22176,15 @@
       </c>
       <c r="N151">
         <f t="shared" si="23"/>
-        <v>2.6011398191943642</v>
+        <v>2.5631216584624057</v>
       </c>
       <c r="O151">
         <f t="shared" si="18"/>
-        <v>-6.6475187994777558</v>
+        <v>-6.625365861577543</v>
       </c>
       <c r="P151">
         <f t="shared" si="24"/>
-        <v>-4.0463789802833912</v>
+        <v>-4.0622442031151369</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.4">
@@ -22213,15 +22223,15 @@
       </c>
       <c r="N152">
         <f t="shared" si="23"/>
-        <v>2.4062558271544208</v>
+        <v>2.3708022674022824</v>
       </c>
       <c r="O152">
         <f t="shared" si="18"/>
-        <v>-6.5311810513134194</v>
+        <v>-6.5092391547815494</v>
       </c>
       <c r="P152">
         <f t="shared" si="24"/>
-        <v>-4.1249252241589982</v>
+        <v>-4.1384368873792674</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.4">
@@ -22260,15 +22270,15 @@
       </c>
       <c r="N153">
         <f t="shared" si="23"/>
-        <v>2.2259730380460399</v>
+        <v>2.1929132285088695</v>
       </c>
       <c r="O153">
         <f t="shared" si="18"/>
-        <v>-6.4168793217082207</v>
+        <v>-6.3951478694721606</v>
       </c>
       <c r="P153">
         <f t="shared" si="24"/>
-        <v>-4.1909062836621809</v>
+        <v>-4.2022346409632911</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.4">
@@ -22307,15 +22317,15 @@
       </c>
       <c r="N154">
         <f t="shared" si="23"/>
-        <v>2.0591974927152807</v>
+        <v>2.0283717853190395</v>
       </c>
       <c r="O154">
         <f t="shared" si="18"/>
-        <v>-6.3045779784478633</v>
+        <v>-6.2830563296128972</v>
       </c>
       <c r="P154">
         <f t="shared" si="24"/>
-        <v>-4.2453804857325821</v>
+        <v>-4.2546845442938572</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.4">
@@ -22354,15 +22364,15 @@
       </c>
       <c r="N155">
         <f t="shared" si="23"/>
-        <v>1.9049171942024192</v>
+        <v>1.8761764241241643</v>
       </c>
       <c r="O155">
         <f t="shared" si="18"/>
-        <v>-6.1942420129148728</v>
+        <v>-6.1729294844822737</v>
       </c>
       <c r="P155">
         <f t="shared" si="24"/>
-        <v>-4.2893248187124531</v>
+        <v>-4.2967530603581094</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.4">
@@ -22401,15 +22411,15 @@
       </c>
       <c r="N156">
         <f t="shared" si="23"/>
-        <v>1.7621959669264928</v>
+        <v>1.7354007780608478</v>
       </c>
       <c r="O156">
         <f t="shared" si="18"/>
-        <v>-6.0858370291750656</v>
+        <v>-6.0647328977135322</v>
       </c>
       <c r="P156">
         <f t="shared" si="24"/>
-        <v>-4.3236410622485728</v>
+        <v>-4.3293321196526842</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.4">
@@ -22448,15 +22458,15 @@
       </c>
       <c r="N157">
         <f t="shared" si="23"/>
-        <v>1.630167775955317</v>
+        <v>1.6051879885976506</v>
       </c>
       <c r="O157">
         <f t="shared" si="18"/>
-        <v>-5.9793292332550321</v>
+        <v>-5.9584327365264933</v>
       </c>
       <c r="P157">
         <f t="shared" si="24"/>
-        <v>-4.349161457299715</v>
+        <v>-4.3532447479288425</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.4">
@@ -22495,15 +22505,15 @@
       </c>
       <c r="N158">
         <f t="shared" si="23"/>
-        <v>1.5080314718901839</v>
+        <v>1.4847454900978656</v>
       </c>
       <c r="O158">
         <f t="shared" si="18"/>
-        <v>-5.8746854226072562</v>
+        <v>-5.8539957611481235</v>
       </c>
       <c r="P158">
         <f t="shared" si="24"/>
-        <v>-4.3666539507170725</v>
+        <v>-4.3692502710502579</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.4">
@@ -22542,15 +22552,15 @@
       </c>
       <c r="N159">
         <f t="shared" si="23"/>
-        <v>1.3950459294771445</v>
+        <v>1.3733401857136085</v>
       </c>
       <c r="O159">
         <f t="shared" si="18"/>
-        <v>-5.7718729757596181</v>
+        <v>-5.7513893144185575</v>
       </c>
       <c r="P159">
         <f t="shared" si="24"/>
-        <v>-4.3768270462824734</v>
+        <v>-4.3780491287049488</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.4">
@@ -22589,15 +22599,15 @@
       </c>
       <c r="N160">
         <f t="shared" si="23"/>
-        <v>1.2905255504458515</v>
+        <v>1.2702939852483206</v>
       </c>
       <c r="O160">
         <f t="shared" si="18"/>
-        <v>-5.6708598421460321</v>
+        <v>-5.6505813115792893</v>
       </c>
       <c r="P160">
         <f t="shared" si="24"/>
-        <v>-4.3803342917001808</v>
+        <v>-4.3802873263309685</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.4">
@@ -22636,15 +22646,15 @@
       </c>
       <c r="N161">
         <f t="shared" si="23"/>
-        <v>1.1938361032871327</v>
+        <v>1.1749796778280273</v>
       </c>
       <c r="O161">
         <f t="shared" si="18"/>
-        <v>-5.5716145321150679</v>
+        <v>-5.551540230240354</v>
       </c>
       <c r="P161">
         <f t="shared" si="24"/>
-        <v>-4.3777784288279351</v>
+        <v>-4.376560552412327</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.4">
@@ -22683,15 +22693,15 @@
       </c>
       <c r="N162">
         <f t="shared" si="23"/>
-        <v>1.1043908747249607</v>
+        <v>1.0868171142595615</v>
       </c>
       <c r="O162">
         <f t="shared" si="18"/>
-        <v>-5.4741061071134132</v>
+        <v>-5.4542351005233707</v>
       </c>
       <c r="P162">
         <f t="shared" si="24"/>
-        <v>-4.3697152323884527</v>
+        <v>-4.3674179862638089</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.4">
@@ -22730,15 +22740,15 @@
       </c>
       <c r="N163">
         <f t="shared" si="23"/>
-        <v>1.0216471095299215</v>
+        <v>1.0052696758389015</v>
       </c>
       <c r="O163">
         <f t="shared" si="18"/>
-        <v>-5.3783041700411562</v>
+        <v>-5.3586354953773245</v>
       </c>
       <c r="P163">
         <f t="shared" si="24"/>
-        <v>-4.3566570605112345</v>
+        <v>-4.3533658195384231</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.4">
@@ -22777,15 +22787,15 @@
       </c>
       <c r="N164">
         <f t="shared" si="23"/>
-        <v>0.94510271707087723</v>
+        <v>0.92984100811638448</v>
       </c>
       <c r="O164">
         <f t="shared" si="18"/>
-        <v>-5.2841788557758393</v>
+        <v>-5.2647115210641333</v>
       </c>
       <c r="P164">
         <f t="shared" si="24"/>
-        <v>-4.3390761387049626</v>
+        <v>-4.3348705129477487</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.4">
@@ -22824,15 +22834,15 @@
       </c>
       <c r="N165">
         <f t="shared" si="23"/>
-        <v>0.87429322462013448</v>
+        <v>0.86007199973816006</v>
       </c>
       <c r="O165">
         <f t="shared" si="18"/>
-        <v>-5.1917008218623648</v>
+        <v>-5.1724338078109486</v>
       </c>
       <c r="P165">
         <f t="shared" si="24"/>
-        <v>-4.3174075972422301</v>
+        <v>-4.3123618080727883</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.4">
@@ -22871,15 +22881,15 @@
       </c>
       <c r="N166">
         <f t="shared" si="23"/>
-        <v>0.80878895892471347</v>
+        <v>0.79553798797504682</v>
       </c>
       <c r="O166">
         <f t="shared" si="18"/>
-        <v>-5.100841239365832</v>
+        <v>-5.0817735006262943</v>
       </c>
       <c r="P166">
         <f t="shared" si="24"/>
-        <v>-4.2920522804411183</v>
+        <v>-4.2862355126512472</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.4">
@@ -22918,15 +22928,15 @@
       </c>
       <c r="N167">
         <f t="shared" si="23"/>
-        <v>0.74819243894144838</v>
+        <v>0.7358461739296922</v>
       </c>
       <c r="O167">
         <f t="shared" si="18"/>
-        <v>-5.0115717838844542</v>
+        <v>-4.9927022502772029</v>
       </c>
       <c r="P167">
         <f t="shared" si="24"/>
-        <v>-4.2633793449430062</v>
+        <v>-4.2568560763475105</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.4">
@@ -22965,15 +22975,15 @@
       </c>
       <c r="N168">
         <f t="shared" si="23"/>
-        <v>0.69213596391498389</v>
+        <v>0.68063323168918477</v>
       </c>
       <c r="O168">
         <f t="shared" si="18"/>
-        <v>-4.9238646267197614</v>
+        <v>-4.9051922044244929</v>
       </c>
       <c r="P168">
         <f t="shared" si="24"/>
-        <v>-4.2317286628047777</v>
+        <v>-4.2245589727353083</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.4">
@@ -23012,15 +23022,15 @@
       </c>
       <c r="N169">
         <f t="shared" si="23"/>
-        <v>0.64027938216308722</v>
+        <v>0.62956309687074041</v>
       </c>
       <c r="O169">
         <f t="shared" si="18"/>
-        <v>-4.8376924262013343</v>
+        <v>-4.8192159989133936</v>
       </c>
       <c r="P169">
         <f t="shared" si="24"/>
-        <v>-4.1974130440382469</v>
+        <v>-4.1896529020426527</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.4">
@@ -23059,15 +23069,15 @@
       </c>
       <c r="N170">
         <f t="shared" si="23"/>
-        <v>0.59230802703022145</v>
+        <v>0.5823249211000523</v>
       </c>
       <c r="O170">
         <f t="shared" si="18"/>
-        <v>-4.7530283191633611</v>
+        <v>-4.7347467492168773</v>
       </c>
       <c r="P170">
         <f t="shared" si="24"/>
-        <v>-4.1607202921331394</v>
+        <v>-4.1524218281168253</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.4">
@@ -23106,15 +23116,15 @@
       </c>
       <c r="N171">
         <f t="shared" si="23"/>
-        <v>0.54793080748471312</v>
+        <v>0.53863117997179022</v>
       </c>
       <c r="O171">
         <f t="shared" ref="O171:O234" si="27">-SQRT(($N$4*EXP(-$N$6*(M171/$N$7-1)))^2*$C$41)</f>
-        <v>-4.6698459125703575</v>
+        <v>-4.651758042028912</v>
       </c>
       <c r="P171">
         <f t="shared" si="24"/>
-        <v>-4.1219151050856446</v>
+        <v>-4.113126862057122</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.4">
@@ -23153,15 +23163,15 @@
       </c>
       <c r="N172">
         <f t="shared" ref="N172:N235" si="32">$N$3*EXP(-$N$5*(M172/$N$7-1))*$C$41</f>
-        <v>0.50687844177322128</v>
+        <v>0.49821592297602429</v>
       </c>
       <c r="O172">
         <f t="shared" si="27"/>
-        <v>-4.5881192752894604</v>
+        <v>-4.570223927005113</v>
       </c>
       <c r="P172">
         <f t="shared" ref="P172:P235" si="33">N172+O172</f>
-        <v>-4.0812408335162393</v>
+        <v>-4.0720080040290885</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.4">
@@ -23200,15 +23210,15 @@
       </c>
       <c r="N173">
         <f t="shared" si="32"/>
-        <v>0.46890182341429482</v>
+        <v>0.46083315473837283</v>
       </c>
       <c r="O173">
         <f t="shared" si="27"/>
-        <v>-4.5078229300066912</v>
+        <v>-4.490118908648137</v>
       </c>
       <c r="P173">
         <f t="shared" si="33"/>
-        <v>-4.0389211065923964</v>
+        <v>-4.0292857539097646</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.4">
@@ -23247,15 +23257,15 @@
       </c>
       <c r="N174">
         <f t="shared" si="32"/>
-        <v>0.43377050961583402</v>
+        <v>0.42625533772099117</v>
       </c>
       <c r="O174">
         <f t="shared" si="27"/>
-        <v>-4.428931845284712</v>
+        <v>-4.4114179383352941</v>
       </c>
       <c r="P174">
         <f t="shared" si="33"/>
-        <v>-3.995161335668878</v>
+        <v>-3.9851626006143031</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.4">
@@ -23294,15 +23304,15 @@
       </c>
       <c r="N175">
         <f t="shared" si="32"/>
-        <v>0.40127132294415524</v>
+        <v>0.39427200727080702</v>
       </c>
       <c r="O175">
         <f t="shared" si="27"/>
-        <v>-4.3514214277595711</v>
+        <v>-4.3340964064859318</v>
       </c>
       <c r="P175">
         <f t="shared" si="33"/>
-        <v>-3.9501501048154157</v>
+        <v>-3.9398243992151247</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.4">
@@ -23341,15 +23351,15 @@
       </c>
       <c r="N176">
         <f t="shared" si="32"/>
-        <v>0.37120705775954582</v>
+        <v>0.36468849058519542</v>
       </c>
       <c r="O176">
         <f t="shared" si="27"/>
-        <v>-4.275267514474006</v>
+        <v>-4.2581301348660681</v>
       </c>
       <c r="P176">
         <f t="shared" si="33"/>
-        <v>-3.9040604567144603</v>
+        <v>-3.8934416442808728</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.4">
@@ -23388,15 +23398,15 @@
       </c>
       <c r="N177">
         <f t="shared" si="32"/>
-        <v>0.34339528356895721</v>
+        <v>0.33732472179785822</v>
       </c>
       <c r="O177">
         <f t="shared" si="27"/>
-        <v>-4.2004463653449324</v>
+        <v>-4.1834953690279368</v>
       </c>
       <c r="P177">
         <f t="shared" si="33"/>
-        <v>-3.8570510817759751</v>
+        <v>-3.8461706472300787</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.4">
@@ -23435,15 +23445,15 @@
       </c>
       <c r="N178">
         <f t="shared" si="32"/>
-        <v>0.31766723803454433</v>
+        <v>0.31201414597267241</v>
       </c>
       <c r="O178">
         <f t="shared" si="27"/>
-        <v>-4.1269346557627511</v>
+        <v>-4.1101687708820309</v>
       </c>
       <c r="P178">
         <f t="shared" si="33"/>
-        <v>-3.8092674177282069</v>
+        <v>-3.7981546249093583</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
@@ -23482,15 +23492,15 @@
       </c>
       <c r="N179">
         <f t="shared" si="32"/>
-        <v>0.29386680292081435</v>
+        <v>0.28860270533445975</v>
       </c>
       <c r="O179">
         <f t="shared" si="27"/>
-        <v>-4.0547094693201764</v>
+        <v>-4.0381274113993371</v>
       </c>
       <c r="P179">
         <f t="shared" si="33"/>
-        <v>-3.7608426663993622</v>
+        <v>-3.7495247060648773</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
@@ -23529,15 +23539,15 @@
       </c>
       <c r="N180">
         <f t="shared" si="32"/>
-        <v>0.27184955676641054</v>
+        <v>0.26694790156618176</v>
       </c>
       <c r="O180">
         <f t="shared" si="27"/>
-        <v>-3.983748290668319</v>
+        <v>-3.9673487634415059</v>
       </c>
       <c r="P180">
         <f t="shared" si="33"/>
-        <v>-3.7118987339019087</v>
+        <v>-3.7004008618753241</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
@@ -23576,15 +23586,15 @@
       </c>
       <c r="N181">
         <f t="shared" si="32"/>
-        <v>0.25148189853213065</v>
+        <v>0.246917928465028</v>
       </c>
       <c r="O181">
         <f t="shared" si="27"/>
-        <v>-3.9140289984977898</v>
+        <v>-3.8978106947166595</v>
       </c>
       <c r="P181">
         <f t="shared" si="33"/>
-        <v>-3.6625470999656593</v>
+        <v>-3.6508927662516317</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.4">
@@ -23623,15 +23633,15 @@
       </c>
       <c r="N182">
         <f t="shared" si="32"/>
-        <v>0.23264023690745683</v>
+        <v>0.22839086967816219</v>
       </c>
       <c r="O182">
         <f t="shared" si="27"/>
-        <v>-3.8455298586426432</v>
+        <v>-3.8294914608586996</v>
       </c>
       <c r="P182">
         <f t="shared" si="33"/>
-        <v>-3.6128896217351865</v>
+        <v>-3.6011005911805376</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
@@ -23670,15 +23680,15 @@
       </c>
       <c r="N183">
         <f t="shared" si="32"/>
-        <v>0.2152102403562961</v>
+        <v>0.2112539566349689</v>
       </c>
       <c r="O183">
         <f t="shared" si="27"/>
-        <v>-3.7782295173050056</v>
+        <v>-3.7623696986278961</v>
       </c>
       <c r="P183">
         <f t="shared" si="33"/>
-        <v>-3.5630192769487095</v>
+        <v>-3.5511157419929273</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
@@ -23717,15 +23727,15 @@
       </c>
       <c r="N184">
         <f t="shared" si="32"/>
-        <v>0.19908614335119898</v>
+        <v>0.19540288215906904</v>
       </c>
       <c r="O184">
         <f t="shared" si="27"/>
-        <v>-3.712106994398289</v>
+        <v>-3.6964244192306501</v>
       </c>
       <c r="P184">
         <f t="shared" si="33"/>
-        <v>-3.5130208510470902</v>
+        <v>-3.5010215370715811</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
@@ -23764,15 +23774,15 @@
       </c>
       <c r="N185">
         <f t="shared" si="32"/>
-        <v>0.18417010458626437</v>
+        <v>0.18074116558227246</v>
       </c>
       <c r="O185">
         <f t="shared" si="27"/>
-        <v>-3.6471416770068874</v>
+        <v>-3.6316350017563774</v>
       </c>
       <c r="P185">
         <f t="shared" si="33"/>
-        <v>-3.4629715724206229</v>
+        <v>-3.4508938361741048</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
@@ -23811,15 +23821,15 @@
       </c>
       <c r="N186">
         <f t="shared" si="32"/>
-        <v>0.17037161327436642</v>
+        <v>0.16717956549609767</v>
       </c>
       <c r="O186">
         <f t="shared" si="27"/>
-        <v>-3.5833133129603483</v>
+        <v>-3.56798118672938</v>
       </c>
       <c r="P186">
         <f t="shared" si="33"/>
-        <v>-3.412941699685982</v>
+        <v>-3.4008016212332826</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
@@ -23858,15 +23868,15 @@
       </c>
       <c r="N187">
         <f t="shared" si="32"/>
-        <v>0.15760693992609651</v>
+        <v>0.15463553656647069</v>
       </c>
       <c r="O187">
         <f t="shared" si="27"/>
-        <v>-3.5206020045199953</v>
+        <v>-3.5054430697737837</v>
       </c>
       <c r="P187">
         <f t="shared" si="33"/>
-        <v>-3.3629950645938989</v>
+        <v>-3.3508075332073131</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
@@ -23905,15 +23915,15 @@
       </c>
       <c r="N188">
         <f t="shared" si="32"/>
-        <v>0.14579862827773979</v>
+        <v>0.14303272710538603</v>
       </c>
       <c r="O188">
         <f t="shared" si="27"/>
-        <v>-3.4589882021760467</v>
+        <v>-3.444001095389484</v>
       </c>
       <c r="P188">
         <f t="shared" si="33"/>
-        <v>-3.313189573898307</v>
+        <v>-3.300968368284098</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.4">
@@ -23952,15 +23962,15 @@
       </c>
       <c r="N189">
         <f t="shared" si="32"/>
-        <v>0.13487502528529699</v>
+        <v>0.13230051434140863</v>
       </c>
       <c r="O189">
         <f t="shared" si="27"/>
-        <v>-3.3984526985532835</v>
+        <v>-3.3836360508371879</v>
       </c>
       <c r="P189">
         <f t="shared" si="33"/>
-        <v>-3.2635776732679864</v>
+        <v>-3.2513355364957794</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.4">
@@ -23999,15 +24009,15 @@
       </c>
       <c r="N190">
         <f t="shared" si="32"/>
-        <v>0.1247698463325454</v>
+        <v>0.12237357456035117</v>
       </c>
       <c r="O190">
         <f t="shared" si="27"/>
-        <v>-3.338976622423381</v>
+        <v>-3.324329060130661</v>
       </c>
       <c r="P190">
         <f t="shared" si="33"/>
-        <v>-3.2142067760908355</v>
+        <v>-3.2019554855703096</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.4">
@@ -24046,15 +24056,15 @@
       </c>
       <c r="N191">
         <f t="shared" si="32"/>
-        <v>0.11542177301481506</v>
+        <v>0.1131914854996956</v>
       </c>
       <c r="O191">
         <f t="shared" si="27"/>
-        <v>-3.280541432822019</v>
+        <v>-3.266061578134237</v>
       </c>
       <c r="P191">
         <f t="shared" si="33"/>
-        <v>-3.1651196598072038</v>
+        <v>-3.1528700926345414</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
@@ -24093,15 +24103,15 @@
       </c>
       <c r="N192">
         <f t="shared" si="32"/>
-        <v>0.10677408105782434</v>
+        <v>0.10469835857666394</v>
       </c>
       <c r="O192">
         <f t="shared" si="27"/>
-        <v>-3.2231289132689636</v>
+        <v>-3.208815384763815</v>
       </c>
       <c r="P192">
         <f t="shared" si="33"/>
-        <v>-3.1163548322111394</v>
+        <v>-3.1041170261871511</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.4">
@@ -24140,15 +24150,15 @@
       </c>
       <c r="N193">
         <f t="shared" si="32"/>
-        <v>9.8774296113779983E-2</v>
+        <v>9.6842498711417715E-2</v>
       </c>
       <c r="O193">
         <f t="shared" si="27"/>
-        <v>-3.1667211660892893</v>
+        <v>-3.1525725792894903</v>
       </c>
       <c r="P193">
         <f t="shared" si="33"/>
-        <v>-3.0679468699755095</v>
+        <v>-3.0557300805780727</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.4">
@@ -24187,15 +24197,15 @@
       </c>
       <c r="N194">
         <f t="shared" si="32"/>
-        <v>9.1373875346106331E-2</v>
+        <v>8.9576089674831536E-2</v>
       </c>
       <c r="O194">
         <f t="shared" si="27"/>
-        <v>-3.1113006068339906</v>
+        <v>-3.0973155747380345</v>
       </c>
       <c r="P194">
         <f t="shared" si="33"/>
-        <v>-3.0199267314878844</v>
+        <v>-3.0077394850632029</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.4">
@@ -24234,15 +24244,15 @@
       </c>
       <c r="N195">
         <f t="shared" si="32"/>
-        <v>8.4527912870654046E-2</v>
+        <v>8.2854903045654807E-2</v>
       </c>
       <c r="O195">
         <f t="shared" si="27"/>
-        <v>-3.0568499587982396</v>
+        <v>-3.0430270923935097</v>
       </c>
       <c r="P195">
         <f t="shared" si="33"/>
-        <v>-2.9723220459275854</v>
+        <v>-2.9601721893478548</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.4">
@@ -24281,15 +24291,15 @@
       </c>
       <c r="N196">
         <f t="shared" si="32"/>
-        <v>7.8194867266000723E-2</v>
+        <v>7.6638029005565475E-2</v>
       </c>
       <c r="O196">
         <f t="shared" si="27"/>
-        <v>-3.0033522476355765</v>
+        <v>-2.9896901563942495</v>
       </c>
       <c r="P196">
         <f t="shared" si="33"/>
-        <v>-2.9251573803695758</v>
+        <v>-2.913052127388684</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.4">
@@ -24328,15 +24338,15 @@
       </c>
       <c r="N197">
         <f t="shared" si="32"/>
-        <v>7.2336309499370713E-2</v>
+        <v>7.0887627333551015E-2</v>
       </c>
       <c r="O197">
         <f t="shared" si="27"/>
-        <v>-2.9507907960663577</v>
+        <v>-2.9372880884245562</v>
       </c>
       <c r="P197">
         <f t="shared" si="33"/>
-        <v>-2.8784544865669872</v>
+        <v>-2.8664004610910054</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.4">
@@ -24375,15 +24385,15 @@
       </c>
       <c r="N198">
         <f t="shared" si="32"/>
-        <v>6.6916689738584278E-2</v>
+        <v>6.5568697083996E-2</v>
       </c>
       <c r="O198">
         <f t="shared" si="27"/>
-        <v>-2.8991492186788097</v>
+        <v>-2.8858045024994432</v>
       </c>
       <c r="P198">
         <f t="shared" si="33"/>
-        <v>-2.8322325289402253</v>
+        <v>-2.8202358054154471</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.4">
@@ -24422,15 +24432,15 @@
       </c>
       <c r="N199">
         <f t="shared" si="32"/>
-        <v>6.1903121635046847E-2</v>
+        <v>6.0648863546572451E-2</v>
       </c>
       <c r="O199">
         <f t="shared" si="27"/>
-        <v>-2.848411416821071</v>
+        <v>-2.8352232998407687</v>
       </c>
       <c r="P199">
         <f t="shared" si="33"/>
-        <v>-2.7865082951860241</v>
+        <v>-2.7745744362941962</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.4">
@@ -24469,15 +24479,15 @@
       </c>
       <c r="N200">
         <f t="shared" si="32"/>
-        <v>5.7265182768804504E-2</v>
+        <v>5.6098181191228239E-2</v>
       </c>
       <c r="O200">
         <f t="shared" si="27"/>
-        <v>-2.798561573582631</v>
+        <v>-2.7855286638432037</v>
       </c>
       <c r="P200">
         <f t="shared" si="33"/>
-        <v>-2.7412963908138264</v>
+        <v>-2.7294304826519755</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.4">
@@ -24516,15 +24526,15 @@
       </c>
       <c r="N201">
         <f t="shared" si="32"/>
-        <v>5.2974730044760561E-2</v>
+        <v>5.1888951398854896E-2</v>
       </c>
       <c r="O201">
         <f t="shared" si="27"/>
-        <v>-2.7495841488635877</v>
+        <v>-2.7367050551284198</v>
       </c>
       <c r="P201">
         <f t="shared" si="33"/>
-        <v>-2.6966094188188272</v>
+        <v>-2.684816103729565</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.4">
@@ -24563,15 +24573,15 @@
       </c>
       <c r="N202">
         <f t="shared" si="32"/>
-        <v>4.9005728919877235E-2</v>
+        <v>4.7995553868219243E-2</v>
       </c>
       <c r="O202">
         <f t="shared" si="27"/>
-        <v>-2.7014638745302118</v>
+        <v>-2.6887372066859569</v>
       </c>
       <c r="P202">
         <f t="shared" si="33"/>
-        <v>-2.6524581456103347</v>
+        <v>-2.6407416528177379</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.4">
@@ -24610,15 +24620,15 @@
       </c>
       <c r="N203">
         <f t="shared" si="32"/>
-        <v>4.5334095425107628E-2</v>
+        <v>4.4394290672984719E-2</v>
       </c>
       <c r="O203">
         <f t="shared" si="27"/>
-        <v>-2.6541857496552828</v>
+        <v>-2.6416101190992873</v>
       </c>
       <c r="P203">
         <f t="shared" si="33"/>
-        <v>-2.608851654230175</v>
+        <v>-2.5972158284263025</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.4">
@@ -24657,15 +24667,15 @@
       </c>
       <c r="N204">
         <f t="shared" si="32"/>
-        <v>4.1937550023445562E-2</v>
+        <v>4.1063242019642024E-2</v>
       </c>
       <c r="O204">
         <f t="shared" si="27"/>
-        <v>-2.6077350358417282</v>
+        <v>-2.5953090558555227</v>
       </c>
       <c r="P204">
         <f t="shared" si="33"/>
-        <v>-2.5657974858182828</v>
+        <v>-2.5542458138358808</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.4">
@@ -24704,15 +24714,15 @@
       </c>
       <c r="N205">
         <f t="shared" si="32"/>
-        <v>3.8795482417300783E-2</v>
+        <v>3.7982132828395285E-2</v>
       </c>
       <c r="O205">
         <f t="shared" si="27"/>
-        <v>-2.5620972526281016</v>
+        <v>-2.5498195387373594</v>
       </c>
       <c r="P205">
         <f t="shared" si="33"/>
-        <v>-2.5233017702108009</v>
+        <v>-2.5118374059089641</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.4">
@@ -24751,15 +24761,15 @@
       </c>
       <c r="N206">
         <f t="shared" si="32"/>
-        <v>3.5888826484848556E-2</v>
+        <v>3.5132209324918812E-2</v>
       </c>
       <c r="O206">
         <f t="shared" si="27"/>
-        <v>-2.5172581729744716</v>
+        <v>-2.5051273432957717</v>
       </c>
       <c r="P206">
         <f t="shared" si="33"/>
-        <v>-2.4813693464896232</v>
+        <v>-2.469995133970853</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.4">
@@ -24798,15 +24808,15 @@
       </c>
       <c r="N207">
         <f t="shared" si="32"/>
-        <v>3.3199944586465101E-2</v>
+        <v>3.2496124891837896E-2</v>
       </c>
       <c r="O207">
         <f t="shared" si="27"/>
-        <v>-2.473203818827308</v>
+        <v>-2.4612184944020639</v>
       </c>
       <c r="P207">
         <f t="shared" si="33"/>
-        <v>-2.4400038742408428</v>
+        <v>-2.428722369510226</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.4">
@@ -24845,15 +24855,15 @@
       </c>
       <c r="N208">
         <f t="shared" si="32"/>
-        <v>3.0712520539218229E-2</v>
+        <v>3.0057834485146474E-2</v>
       </c>
       <c r="O208">
         <f t="shared" si="27"/>
-        <v>-2.4299204567619879</v>
+        <v>-2.4180792618778919</v>
       </c>
       <c r="P208">
         <f t="shared" si="33"/>
-        <v>-2.3992079362227696</v>
+        <v>-2.3880214273927454</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.4">
@@ -24892,15 +24902,15 @@
       </c>
       <c r="N209">
         <f t="shared" si="32"/>
-        <v>2.8411460609980971E-2</v>
+        <v>2.7802496972904774E-2</v>
       </c>
       <c r="O209">
         <f t="shared" si="27"/>
-        <v>-2.3873945937015701</v>
+        <v>-2.3756961562018666</v>
       </c>
       <c r="P209">
         <f t="shared" si="33"/>
-        <v>-2.3589831330915891</v>
+        <v>-2.3478936592289616</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.4">
@@ -24939,15 +24949,15 @@
       </c>
       <c r="N210">
         <f t="shared" si="32"/>
-        <v>2.6282801926391396E-2</v>
+        <v>2.5716384801784634E-2</v>
       </c>
       <c r="O210">
         <f t="shared" si="27"/>
-        <v>-2.3456129727104758</v>
+        <v>-2.3340559242914223</v>
       </c>
       <c r="P210">
         <f t="shared" si="33"/>
-        <v>-2.3193301707840845</v>
+        <v>-2.3083395394896375</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.4">
@@ -24986,15 +24996,15 @@
       </c>
       <c r="N211">
         <f t="shared" si="32"/>
-        <v>2.4313627749896451E-2</v>
+        <v>2.3786800441628328E-2</v>
       </c>
       <c r="O211">
         <f t="shared" si="27"/>
-        <v>-2.3045625688618054</v>
+        <v>-2.2931455453586125</v>
       </c>
       <c r="P211">
         <f t="shared" si="33"/>
-        <v>-2.2802489411119091</v>
+        <v>-2.2693587449169841</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.4">
@@ -25033,15 +25043,15 @@
       </c>
       <c r="N212">
         <f t="shared" si="32"/>
-        <v>2.24919890967538E-2</v>
+        <v>2.2001999099445068E-2</v>
       </c>
       <c r="O212">
         <f t="shared" si="27"/>
-        <v>-2.264230585176966</v>
+        <v>-2.2529522268385396</v>
       </c>
       <c r="P212">
         <f t="shared" si="33"/>
-        <v>-2.2417385960802121</v>
+        <v>-2.2309502277390947</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.4">
@@ -25080,15 +25090,15 @@
       </c>
       <c r="N213">
         <f t="shared" si="32"/>
-        <v>2.0806832231387021E-2</v>
+        <v>2.0351117232429432E-2</v>
       </c>
       <c r="O213">
         <f t="shared" si="27"/>
-        <v>-2.224604448636367</v>
+        <v>-2.2134634003891631</v>
       </c>
       <c r="P213">
         <f t="shared" si="33"/>
-        <v>-2.2037976164049797</v>
+        <v>-2.1931122831567338</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.4">
@@ -25127,15 +25137,15 @@
       </c>
       <c r="N214">
         <f t="shared" si="32"/>
-        <v>1.9247931592122673E-2</v>
+        <v>1.8824106424880804E-2</v>
       </c>
       <c r="O214">
         <f t="shared" si="27"/>
-        <v>-2.1856718062599283</v>
+        <v>-2.1746667179612049</v>
       </c>
       <c r="P214">
         <f t="shared" si="33"/>
-        <v>-2.1664238746678057</v>
+        <v>-2.1558426115363241</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.4">
@@ -25174,15 +25184,15 @@
       </c>
       <c r="N215">
         <f t="shared" si="32"/>
-        <v>1.7805827742301005E-2</v>
+        <v>1.7411672226554133E-2</v>
       </c>
       <c r="O215">
         <f t="shared" si="27"/>
-        <v>-2.1474205212561857</v>
+        <v>-2.1365500479369532</v>
       </c>
       <c r="P215">
         <f t="shared" si="33"/>
-        <v>-2.1296146935138847</v>
+        <v>-2.1191383757103992</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.4">
@@ -25221,15 +25231,15 @@
       </c>
       <c r="N216">
         <f t="shared" si="32"/>
-        <v>1.6471769970247081E-2</v>
+        <v>1.6105217580168738E-2</v>
       </c>
       <c r="O216">
         <f t="shared" si="27"/>
-        <v>-2.1098386692387896</v>
+        <v>-2.0991014713367391</v>
       </c>
       <c r="P216">
         <f t="shared" si="33"/>
-        <v>-2.0933668992685424</v>
+        <v>-2.0829962537565705</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.4">
@@ -25268,15 +25278,15 @@
       </c>
       <c r="N217">
         <f t="shared" si="32"/>
-        <v>1.5237663189797397E-2</v>
+        <v>1.4896790493735801E-2</v>
       </c>
       <c r="O217">
         <f t="shared" si="27"/>
-        <v>-2.0729145345092177</v>
+        <v>-2.062309278091893</v>
       </c>
       <c r="P217">
         <f t="shared" si="33"/>
-        <v>-2.0576768713194205</v>
+        <v>-2.0474124875981574</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.4">
@@ -25315,15 +25325,15 @@
       </c>
       <c r="N218">
         <f t="shared" si="32"/>
-        <v>1.4096018819173925E-2</v>
+        <v>1.3779035639202603E-2</v>
       </c>
       <c r="O218">
         <f t="shared" si="27"/>
-        <v>-2.0366366064045431</v>
+        <v>-2.0261619633830552</v>
       </c>
       <c r="P218">
         <f t="shared" si="33"/>
-        <v>-2.022540587585369</v>
+        <v>-2.0123829277438525</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.4">
@@ -25362,15 +25372,15 @@
       </c>
       <c r="N219">
         <f t="shared" si="32"/>
-        <v>1.3039909340137294E-2</v>
+        <v>1.2745149582808051E-2</v>
       </c>
       <c r="O219">
         <f t="shared" si="27"/>
-        <v>-2.0009935757091237</v>
+        <v>-1.9906482240426355</v>
       </c>
       <c r="P219">
         <f t="shared" si="33"/>
-        <v>-1.9879536663689865</v>
+        <v>-1.9779030744598274</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.4">
@@ -25409,15 +25419,15 @@
       </c>
       <c r="N220">
         <f t="shared" si="32"/>
-        <v>1.2062926261683642E-2</v>
+        <v>1.1788839374651066E-2</v>
       </c>
       <c r="O220">
         <f t="shared" si="27"/>
-        <v>-1.9659743311290876</v>
+        <v>-1.9557569550203497</v>
       </c>
       <c r="P220">
         <f t="shared" si="33"/>
-        <v>-1.953911404867404</v>
+        <v>-1.9439681156456987</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.4">
@@ -25456,15 +25466,15 @@
       </c>
       <c r="N221">
         <f t="shared" si="32"/>
-        <v>1.1159141233207735E-2</v>
+        <v>1.0904284245419097E-2</v>
       </c>
       <c r="O221">
         <f t="shared" si="27"/>
-        <v>-1.9315679558285146</v>
+        <v>-1.9214772459107017</v>
       </c>
       <c r="P221">
         <f t="shared" si="33"/>
-        <v>-1.9204088145953069</v>
+        <v>-1.9105729616652827</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.4">
@@ -25503,15 +25513,15 @@
       </c>
       <c r="N222">
         <f t="shared" si="32"/>
-        <v>1.0323070071166687E-2</v>
+        <v>1.0086100177135907E-2</v>
       </c>
       <c r="O222">
         <f t="shared" si="27"/>
-        <v>-1.8977637240262468</v>
+        <v>-1.8877983775413221</v>
       </c>
       <c r="P222">
         <f t="shared" si="33"/>
-        <v>-1.8874406539550801</v>
+        <v>-1.8777122773641861</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.4">
@@ -25550,15 +25560,15 @@
       </c>
       <c r="N223">
         <f t="shared" si="32"/>
-        <v>9.5496394809571547E-3</v>
+        <v>9.3293071322822167E-3</v>
       </c>
       <c r="O223">
         <f t="shared" si="27"/>
-        <v>-1.864551097652249</v>
+        <v>-1.8547098186211208</v>
       </c>
       <c r="P223">
         <f t="shared" si="33"/>
-        <v>-1.8550014581712919</v>
+        <v>-1.8453805114888386</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.4">
@@ -25597,15 +25607,15 @@
       </c>
       <c r="N224">
         <f t="shared" si="32"/>
-        <v>8.8341562720738835E-3</v>
+        <v>8.629298741822243E-3</v>
       </c>
       <c r="O224">
         <f t="shared" si="27"/>
-        <v>-1.831919723062492</v>
+        <v>-1.8222012224471766</v>
       </c>
       <c r="P224">
         <f t="shared" si="33"/>
-        <v>-1.823085566790418</v>
+        <v>-1.8135719237053545</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.4">
@@ -25644,15 +25654,15 @@
       </c>
       <c r="N225">
         <f t="shared" si="32"/>
-        <v>8.1722788797468134E-3</v>
+        <v>7.9818142676366787E-3</v>
       </c>
       <c r="O225">
         <f t="shared" si="27"/>
-        <v>-1.7998594278113274</v>
+        <v>-1.7902624236693465</v>
       </c>
       <c r="P225">
         <f t="shared" si="33"/>
-        <v>-1.7916871489315804</v>
+        <v>-1.7822806094017098</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.4">
@@ -25691,15 +25701,15 @@
       </c>
       <c r="N226">
         <f t="shared" si="32"/>
-        <v>7.5599910202491065E-3</v>
+        <v>7.3829126687060438E-3</v>
       </c>
       <c r="O226">
         <f t="shared" si="27"/>
-        <v>-1.768360217480343</v>
+        <v>-1.7588834351115989</v>
       </c>
       <c r="P226">
         <f t="shared" si="33"/>
-        <v>-1.7608002264600939</v>
+        <v>-1.751500522442893</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.4">
@@ -25738,15 +25748,15 @@
       </c>
       <c r="N227">
         <f t="shared" si="32"/>
-        <v>6.9935773200164907E-3</v>
+        <v>6.828948613192813E-3</v>
       </c>
       <c r="O227">
         <f t="shared" si="27"/>
-        <v>-1.7374122725627263</v>
+        <v>-1.7280544446490398</v>
       </c>
       <c r="P227">
         <f t="shared" si="33"/>
-        <v>-1.7304186952427099</v>
+        <v>-1.7212254960358471</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.4">
@@ -25785,15 +25795,15 @@
       </c>
       <c r="N228">
         <f t="shared" si="32"/>
-        <v>6.4696007706947596E-3</v>
+        <v>6.316550290415582E-3</v>
       </c>
       <c r="O228">
         <f t="shared" si="27"/>
-        <v>-1.707005945402146</v>
+        <v>-1.6977658121396957</v>
       </c>
       <c r="P228">
         <f t="shared" si="33"/>
-        <v>-1.7005363446314512</v>
+        <v>-1.69144926184928</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.4">
@@ -25832,15 +25842,15 @@
       </c>
       <c r="N229">
         <f t="shared" si="32"/>
-        <v>5.9848818733122412E-3</v>
+        <v>5.8425988876631809E-3</v>
       </c>
       <c r="O229">
         <f t="shared" si="27"/>
-        <v>-1.6771317571852111</v>
+        <v>-1.6680080664100649</v>
       </c>
       <c r="P229">
         <f t="shared" si="33"/>
-        <v>-1.671146875311899</v>
+        <v>-1.6621654675224018</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.4">
@@ -25879,15 +25889,15 @@
       </c>
       <c r="N230">
         <f t="shared" si="32"/>
-        <v>5.5364793450237513E-3</v>
+        <v>5.4042096069303828E-3</v>
       </c>
       <c r="O230">
         <f t="shared" si="27"/>
-        <v>-1.6477803949865575</v>
+        <v>-1.6387719022935006</v>
       </c>
       <c r="P230">
         <f t="shared" si="33"/>
-        <v>-1.6422439156415338</v>
+        <v>-1.6333676926865701</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.4">
@@ -25926,15 +25936,15 @@
       </c>
       <c r="N231">
         <f t="shared" si="32"/>
-        <v>5.1216722713543668E-3</v>
+        <v>4.9987141060302874E-3</v>
       </c>
       <c r="O231">
         <f t="shared" si="27"/>
-        <v>-1.618942708865664</v>
+        <v>-1.6100481777205251</v>
       </c>
       <c r="P231">
         <f t="shared" si="33"/>
-        <v>-1.6138210365943098</v>
+        <v>-1.6050494636144947</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.4">
@@ -25973,15 +25983,15 @@
       </c>
       <c r="N232">
         <f t="shared" si="32"/>
-        <v>4.7379435956421316E-3</v>
+        <v>4.6236442572069108E-3</v>
       </c>
       <c r="O232">
         <f t="shared" si="27"/>
-        <v>-1.5906097090144564</v>
+        <v>-1.5818279108601134</v>
       </c>
       <c r="P232">
         <f t="shared" si="33"/>
-        <v>-1.5858717654188144</v>
+        <v>-1.5772042666029065</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.4">
@@ -26020,15 +26030,15 @@
       </c>
       <c r="N233">
         <f t="shared" si="32"/>
-        <v>4.3829648454937406E-3</v>
+        <v>4.2767171243925893E-3</v>
       </c>
       <c r="O233">
         <f t="shared" si="27"/>
-        <v>-1.5627725629548452</v>
+        <v>-1.5541022773111108</v>
       </c>
       <c r="P233">
         <f t="shared" si="33"/>
-        <v>-1.5583895981093514</v>
+        <v>-1.5498255601867184</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.4">
@@ -26067,15 +26077,15 @@
       </c>
       <c r="N234">
         <f t="shared" si="32"/>
-        <v>4.0545820035728731E-3</v>
+        <v>3.9558210676704855E-3</v>
       </c>
       <c r="O234">
         <f t="shared" si="27"/>
-        <v>-1.5354225927853045</v>
+        <v>-1.5268626073428591</v>
       </c>
       <c r="P234">
         <f t="shared" si="33"/>
-        <v>-1.5313680107817316</v>
+        <v>-1.5229067862751886</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.4">
@@ -26114,15 +26124,15 @@
       </c>
       <c r="N235">
         <f t="shared" si="32"/>
-        <v>3.7508024369849037E-3</v>
+        <v>3.6590028903649395E-3</v>
       </c>
       <c r="O235">
         <f t="shared" ref="O235:O278" si="36">-SQRT(($N$4*EXP(-$N$6*(M235/$N$7-1)))^2*$C$41)</f>
-        <v>-1.5085512724756398</v>
+        <v>-1.5001003831841992</v>
       </c>
       <c r="P235">
         <f t="shared" si="33"/>
-        <v>-1.5048004700386548</v>
+        <v>-1.4964413802938343</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.4">
@@ -26161,15 +26171,15 @@
       </c>
       <c r="N236">
         <f t="shared" ref="N236:N278" si="41">$N$3*EXP(-$N$5*(M236/$N$7-1))*$C$41</f>
-        <v>3.4697828059451598E-3</v>
+        <v>3.3844559505273797E-3</v>
       </c>
       <c r="O236">
         <f t="shared" si="36"/>
-        <v>-1.4821502252090939</v>
+        <v>-1.4738072363599852</v>
       </c>
       <c r="P236">
         <f t="shared" ref="P236:P278" si="42">N236+O236</f>
-        <v>-1.4786804424031488</v>
+        <v>-1.4704227804094578</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.4">
@@ -26208,15 +26218,15 @@
       </c>
       <c r="N237">
         <f t="shared" si="41"/>
-        <v>3.2098178783606184E-3</v>
+        <v>3.1305091644564841E-3</v>
       </c>
       <c r="O237">
         <f t="shared" si="36"/>
-        <v>-1.4562112207709821</v>
+        <v>-1.4479749450742874</v>
       </c>
       <c r="P237">
         <f t="shared" si="42"/>
-        <v>-1.4530014028926215</v>
+        <v>-1.4448444359098309</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.4">
@@ -26255,15 +26265,15 @@
       </c>
       <c r="N238">
         <f t="shared" si="41"/>
-        <v>2.9693301824512681E-3</v>
+        <v>2.8956168353199878E-3</v>
       </c>
       <c r="O238">
         <f t="shared" si="36"/>
-        <v>-1.4307261729830085</v>
+        <v>-1.422595431639454</v>
       </c>
       <c r="P238">
         <f t="shared" si="42"/>
-        <v>-1.4277568428005574</v>
+        <v>-1.419699814804134</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.4">
@@ -26302,15 +26312,15 @@
       </c>
       <c r="N239">
         <f t="shared" si="41"/>
-        <v>2.7468604346235601E-3</v>
+        <v>2.6783492449683746E-3</v>
       </c>
       <c r="O239">
         <f t="shared" si="36"/>
-        <v>-1.4056871371825093</v>
+        <v>-1.3976607599502482</v>
       </c>
       <c r="P239">
         <f t="shared" si="42"/>
-        <v>-1.4029402767478858</v>
+        <v>-1.3949824107052797</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.4">
@@ -26349,15 +26359,15 @@
       </c>
       <c r="N240">
         <f t="shared" si="41"/>
-        <v>2.5410586845116302E-3</v>
+        <v>2.4773839516753181E-3</v>
       </c>
       <c r="O240">
         <f t="shared" si="36"/>
-        <v>-1.3810863077457818</v>
+        <v>-1.3731631330022371</v>
       </c>
       <c r="P240">
         <f t="shared" si="42"/>
-        <v>-1.3785452490612702</v>
+        <v>-1.3706857490505617</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.4">
@@ -26396,15 +26406,15 @@
       </c>
       <c r="N241">
         <f t="shared" si="41"/>
-        <v>2.3506761234546973E-3</v>
+        <v>2.2914977408373485E-3</v>
       </c>
       <c r="O241">
         <f t="shared" si="36"/>
-        <v>-1.3569160156547893</v>
+        <v>-1.3490948904537039</v>
       </c>
       <c r="P241">
         <f t="shared" si="42"/>
-        <v>-1.3545653395313346</v>
+        <v>-1.3468033927128666</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.4">
@@ -26443,15 +26453,15 @@
       </c>
       <c r="N242">
         <f t="shared" si="41"/>
-        <v>2.1745575067039316E-3</v>
+        <v>2.1195591796385528E-3</v>
       </c>
       <c r="O242">
         <f t="shared" si="36"/>
-        <v>-1.3331687261064231</v>
+        <v>-1.325448506230269</v>
       </c>
       <c r="P242">
         <f t="shared" si="42"/>
-        <v>-1.3309941685997191</v>
+        <v>-1.3233289470506304</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.4">
@@ -26490,15 +26500,15 @@
       </c>
       <c r="N243">
         <f t="shared" si="41"/>
-        <v>2.011634143376954E-3</v>
+        <v>1.9605217303633169E-3</v>
       </c>
       <c r="O243">
         <f t="shared" si="36"/>
-        <v>-1.3098370361636253</v>
+        <v>-1.3022165861715116</v>
       </c>
       <c r="P243">
         <f t="shared" si="42"/>
-        <v>-1.3078254020202484</v>
+        <v>-1.3002560644411483</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.4">
@@ -26537,15 +26547,15 @@
       </c>
       <c r="N244">
         <f t="shared" si="41"/>
-        <v>1.8609174116225684E-3</v>
+        <v>1.8134173804395574E-3</v>
       </c>
       <c r="O244">
         <f t="shared" si="36"/>
-        <v>-1.2869136724476025</v>
+        <v>-1.2793918657188337</v>
       </c>
       <c r="P244">
         <f t="shared" si="42"/>
-        <v>-1.2850527550359798</v>
+        <v>-1.2775784483383941</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.4">
@@ -26584,15 +26594,15 @@
       </c>
       <c r="N245">
         <f t="shared" si="41"/>
-        <v>1.7214927596459746E-3</v>
+        <v>1.6773507504407345E-3</v>
       </c>
       <c r="O245">
         <f t="shared" si="36"/>
-        <v>-1.2643914888704444</v>
+        <v>-1.2569672076438558</v>
       </c>
       <c r="P245">
         <f t="shared" si="42"/>
-        <v>-1.2626699961107983</v>
+        <v>-1.255289856893415</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.4">
@@ -26631,15 +26641,15 @@
       </c>
       <c r="N246">
         <f t="shared" si="41"/>
-        <v>1.5925141561922065E-3</v>
+        <v>1.551493644183623E-3</v>
       </c>
       <c r="O246">
         <f t="shared" si="36"/>
-        <v>-1.2422634644074073</v>
+        <v>-1.2349355998166187</v>
       </c>
       <c r="P246">
         <f t="shared" si="42"/>
-        <v>-1.2406709502512152</v>
+        <v>-1.2333841061724351</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.4">
@@ -26678,15 +26688,15 @@
       </c>
       <c r="N247">
         <f t="shared" si="41"/>
-        <v>1.4731989568135837E-3</v>
+        <v>1.4350800077501341E-3</v>
       </c>
       <c r="O247">
         <f t="shared" si="36"/>
-        <v>-1.2205227009081998</v>
+        <v>-1.2132901530129174</v>
       </c>
       <c r="P247">
         <f t="shared" si="42"/>
-        <v>-1.2190495019513863</v>
+        <v>-1.2118550730051674</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.4">
@@ -26725,15 +26735,15 @@
       </c>
       <c r="N248">
         <f t="shared" si="41"/>
-        <v>1.3628231547692931E-3</v>
+        <v>1.3274012667501298E-3</v>
       </c>
       <c r="O248">
         <f t="shared" si="36"/>
-        <v>-1.1991624209465586</v>
+        <v>-1.1920240987600499</v>
       </c>
       <c r="P248">
         <f t="shared" si="42"/>
-        <v>-1.1977995977917892</v>
+        <v>-1.1906966974932998</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.4">
@@ -26772,15 +26782,15 @@
       </c>
       <c r="N249">
         <f t="shared" si="41"/>
-        <v>1.2607169877397295E-3</v>
+        <v>1.2278020134447079E-3</v>
       </c>
       <c r="O249">
         <f t="shared" si="36"/>
-        <v>-1.1781759657074735</v>
+        <v>-1.1711307872203451</v>
       </c>
       <c r="P249">
         <f t="shared" si="42"/>
-        <v>-1.1769152487197339</v>
+        <v>-1.1699029852069005</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.4">
@@ -26819,15 +26829,15 @@
       </c>
       <c r="N250">
         <f t="shared" si="41"/>
-        <v>1.1662608736968522E-3</v>
+        <v>1.1356760174786238E-3</v>
       </c>
       <c r="O250">
         <f t="shared" si="36"/>
-        <v>-1.1575567929113744</v>
+        <v>-1.1506036851117649</v>
       </c>
       <c r="P250">
         <f t="shared" si="42"/>
-        <v>-1.1563905320376775</v>
+        <v>-1.1494680090942864</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.4">
@@ -26866,15 +26876,15 @@
       </c>
       <c r="N251">
         <f t="shared" si="41"/>
-        <v>1.0788816512694974E-3</v>
+        <v>1.0504625359406097E-3</v>
       </c>
       <c r="O251">
         <f t="shared" si="36"/>
-        <v>-1.1372984747746555</v>
+        <v>-1.1304363736649752</v>
       </c>
       <c r="P251">
         <f t="shared" si="42"/>
-        <v>-1.1362195931233861</v>
+        <v>-1.1293859111290345</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.4">
@@ -26913,15 +26923,15 @@
       </c>
       <c r="N252">
         <f t="shared" si="41"/>
-        <v>9.9804910179002605E-4</v>
+        <v>9.7164290029180139E-4</v>
       </c>
       <c r="O252">
         <f t="shared" si="36"/>
-        <v>-1.1173946960058887</v>
+        <v>-1.1106225466162054</v>
       </c>
       <c r="P252">
         <f t="shared" si="42"/>
-        <v>-1.1163966469040987</v>
+        <v>-1.1096509037159137</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.4">
@@ -26960,15 +26970,15 @@
       </c>
       <c r="N253">
         <f t="shared" si="41"/>
-        <v>9.232727319180838E-4</v>
+        <v>8.9873735938817269E-4</v>
       </c>
       <c r="O253">
         <f t="shared" si="36"/>
-        <v>-1.0978392518371101</v>
+        <v>-1.0911560082353031</v>
       </c>
       <c r="P253">
         <f t="shared" si="42"/>
-        <v>-1.0969159791051919</v>
+        <v>-1.0902572708759148</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.4">
@@ -27007,15 +27017,15 @@
       </c>
       <c r="N254">
         <f t="shared" si="41"/>
-        <v>8.5409879731831106E-4</v>
+        <v>8.3130215938123934E-4</v>
       </c>
       <c r="O254">
         <f t="shared" si="36"/>
-        <v>-1.0786260460895492</v>
+        <v>-1.0720306713883421</v>
       </c>
       <c r="P254">
         <f t="shared" si="42"/>
-        <v>-1.0777719472922309</v>
+        <v>-1.0711993692289608</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.4">
@@ -27054,15 +27064,15 @@
       </c>
       <c r="N255">
         <f t="shared" si="41"/>
-        <v>7.901075493317014E-4</v>
+        <v>7.6892684272339656E-4</v>
       </c>
       <c r="O255">
         <f t="shared" si="36"/>
-        <v>-1.059749089273222</v>
+        <v>-1.0532405556341933</v>
       </c>
       <c r="P255">
         <f t="shared" si="42"/>
-        <v>-1.0589589817238902</v>
+        <v>-1.0524716287914699</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.4">
@@ -27101,15 +27111,15 @@
       </c>
       <c r="N256">
         <f t="shared" si="41"/>
-        <v>7.309106879333201E-4</v>
+        <v>7.1123174983769367E-4</v>
       </c>
       <c r="O256">
         <f t="shared" si="36"/>
-        <v>-1.041202496719781</v>
+        <v>-1.0347797853544582</v>
       </c>
       <c r="P256">
         <f t="shared" si="42"/>
-        <v>-1.0404715860318476</v>
+        <v>-1.0340685536046206</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.4">
@@ -27148,15 +27158,15 @@
       </c>
       <c r="N257">
         <f t="shared" si="41"/>
-        <v>6.7614900552086753E-4</v>
+        <v>6.5786570824547831E-4</v>
       </c>
       <c r="O257">
         <f t="shared" si="36"/>
-        <v>-1.0229804867480332</v>
+        <v>-1.0166425879161769</v>
       </c>
       <c r="P257">
         <f t="shared" si="42"/>
-        <v>-1.0223043377425123</v>
+        <v>-1.0159847222079315</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.4">
@@ -27195,15 +27205,15 @@
       </c>
       <c r="N258">
         <f t="shared" si="41"/>
-        <v>6.2549020723659933E-4</v>
+        <v>6.0850389508636184E-4</v>
       </c>
       <c r="O258">
         <f t="shared" si="36"/>
-        <v>-1.0050773788615732</v>
+        <v>-0.99882329186674346</v>
       </c>
       <c r="P258">
         <f t="shared" si="42"/>
-        <v>-1.0044518886543365</v>
+        <v>-0.99821478797165708</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.4">
@@ -27242,15 +27252,15 @@
       </c>
       <c r="N259">
         <f t="shared" si="41"/>
-        <v>5.7862689459625151E-4</v>
+        <v>5.628458600202748E-4</v>
       </c>
       <c r="O259">
         <f t="shared" si="36"/>
-        <v>-0.98748759197795299</v>
+        <v>-0.98131632516045453</v>
       </c>
       <c r="P259">
         <f t="shared" si="42"/>
-        <v>-0.98690896508335679</v>
+        <v>-0.98075347930043422</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.4">
@@ -27289,15 +27299,15 @@
       </c>
       <c r="N260">
         <f t="shared" si="41"/>
-        <v>5.3527470018960245E-4</v>
+        <v>5.2061369647765708E-4</v>
       </c>
       <c r="O260">
         <f t="shared" si="36"/>
-        <v>-0.97020564268884968</v>
+        <v>-0.96411621341615095</v>
       </c>
       <c r="P260">
         <f t="shared" si="42"/>
-        <v>-0.96967036798866013</v>
+        <v>-0.96359559971967323</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.4">
@@ -27336,15 +27346,15 @@
       </c>
       <c r="N261">
         <f t="shared" si="41"/>
-        <v>4.9517056213398429E-4</v>
+        <v>4.8155035012670402E-4</v>
       </c>
       <c r="O261">
         <f t="shared" si="36"/>
-        <v>-0.95322614355067137</v>
+        <v>-0.94721757820538699</v>
       </c>
       <c r="P261">
         <f t="shared" si="42"/>
-        <v>-0.95273097298853737</v>
+        <v>-0.94673602785526023</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.4">
@@ -27383,15 +27393,15 @@
       </c>
       <c r="N262">
         <f t="shared" si="41"/>
-        <v>4.5807112781014246E-4</v>
+        <v>4.4541805426186008E-4</v>
       </c>
       <c r="O262">
         <f t="shared" si="36"/>
-        <v>-0.9365438014050923</v>
+        <v>-0.93061513537061902</v>
       </c>
       <c r="P262">
         <f t="shared" si="42"/>
-        <v>-0.93608573027728215</v>
+        <v>-0.93016971731635711</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.4">
@@ -27430,15 +27440,15 @@
       </c>
       <c r="N263">
         <f t="shared" si="41"/>
-        <v>4.2375127719421885E-4</v>
+        <v>4.1199688259019708E-4</v>
       </c>
       <c r="O263">
         <f t="shared" si="36"/>
-        <v>-0.92015341572896625</v>
+        <v>-0.91430369337285278</v>
       </c>
       <c r="P263">
         <f t="shared" si="42"/>
-        <v>-0.91972966445177207</v>
+        <v>-0.91389169649026258</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.4">
@@ -27477,15 +27487,15 @@
       </c>
       <c r="N264">
         <f t="shared" si="41"/>
-        <v>3.9200275682547893E-4</v>
+        <v>3.8108341060699567E-4</v>
       </c>
       <c r="O264">
         <f t="shared" si="36"/>
-        <v>-0.90404987701313178</v>
+        <v>-0.89827815166827418</v>
       </c>
       <c r="P264">
         <f t="shared" si="42"/>
-        <v>-0.90365787425630628</v>
+        <v>-0.89789706825766724</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.4">
@@ -27524,15 +27534,15 @@
       </c>
       <c r="N265">
         <f t="shared" si="41"/>
-        <v>3.6263291612061599E-4</v>
+        <v>3.524894774126502E-4</v>
       </c>
       <c r="O265">
         <f t="shared" si="36"/>
-        <v>-0.88822816516957626</v>
+        <v>-0.88253349911331436</v>
       </c>
       <c r="P265">
         <f t="shared" si="42"/>
-        <v>-0.88786553225345566</v>
+        <v>-0.88218100963590174</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.4">
@@ -27571,15 +27581,15 @@
       </c>
       <c r="N266">
         <f t="shared" si="41"/>
-        <v>3.3546353836661245E-4</v>
+        <v>3.2604104043452888E-4</v>
       </c>
       <c r="O266">
         <f t="shared" si="36"/>
-        <v>-0.87268334796648861</v>
+        <v>-0.86706481239768418</v>
       </c>
       <c r="P266">
         <f t="shared" si="42"/>
-        <v>-0.87234788442812194</v>
+        <v>-0.86673877135724964</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.4">
@@ -27618,15 +27628,15 @@
       </c>
       <c r="N267">
         <f t="shared" si="41"/>
-        <v>3.1032975929856508E-4</v>
+        <v>3.0157711608277E-4</v>
       </c>
       <c r="O267">
         <f t="shared" si="36"/>
-        <v>-0.85741057949069077</v>
+        <v>-0.85186725450486522</v>
       </c>
       <c r="P267">
         <f t="shared" si="42"/>
-        <v>-0.85710024973139221</v>
+        <v>-0.85156567738878242</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.4">
@@ -27665,15 +27675,15 @@
       </c>
       <c r="N268">
         <f t="shared" si="41"/>
-        <v>2.8707906670041465E-4</v>
+        <v>2.7894879989215327E-4</v>
       </c>
       <c r="O268">
         <f t="shared" si="36"/>
-        <v>-0.84240509863698354</v>
+        <v>-0.83693607319959051</v>
       </c>
       <c r="P268">
         <f t="shared" si="42"/>
-        <v>-0.84211801957028309</v>
+        <v>-0.83665712439969842</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.4">
@@ -27712,15 +27722,15 @@
       </c>
       <c r="N269">
         <f t="shared" si="41"/>
-        <v>2.6557037495811232E-4</v>
+        <v>2.580183601859105E-4</v>
       </c>
       <c r="O269">
         <f t="shared" si="36"/>
-        <v>-0.8276622276239245</v>
+        <v>-0.82226659954182924</v>
       </c>
       <c r="P269">
         <f t="shared" si="42"/>
-        <v>-0.82739665724896638</v>
+        <v>-0.82200858118164333</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.4">
@@ -27759,15 +27769,15 @@
       </c>
       <c r="N270">
         <f t="shared" si="41"/>
-        <v>2.4567316894962845E-4</v>
+        <v>2.3865839974491736E-4</v>
       </c>
       <c r="O270">
         <f t="shared" si="36"/>
-        <v>-0.81317737053559136</v>
+        <v>-0.80785424642682779</v>
       </c>
       <c r="P270">
         <f t="shared" si="42"/>
-        <v>-0.81293169736664173</v>
+        <v>-0.80761558802708289</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.4">
@@ -27806,15 +27816,15 @@
       </c>
       <c r="N271">
         <f t="shared" si="41"/>
-        <v>2.2726671207687286E-4</v>
+        <v>2.2075108037956885E-4</v>
       </c>
       <c r="O271">
         <f t="shared" si="36"/>
-        <v>-0.79894601188885206</v>
+        <v>-0.79369450715072765</v>
       </c>
       <c r="P271">
         <f t="shared" si="42"/>
-        <v>-0.79871874517677521</v>
+        <v>-0.79347375607034809</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.4">
@@ -27853,15 +27863,15 @@
       </c>
       <c r="N272">
         <f t="shared" si="41"/>
-        <v>2.1023931363388967E-4</v>
+        <v>2.0418740568457623E-4</v>
       </c>
       <c r="O272">
         <f t="shared" si="36"/>
-        <v>-0.78496371522572328</v>
+        <v>-0.77978295400133946</v>
       </c>
       <c r="P272">
         <f t="shared" si="42"/>
-        <v>-0.78475347591208944</v>
+        <v>-0.77957876659565484</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.4">
@@ -27900,15 +27910,15 @@
       </c>
       <c r="N273">
         <f t="shared" si="41"/>
-        <v>1.9448765106566931E-4</v>
+        <v>1.8886655761099586E-4</v>
       </c>
       <c r="O273">
         <f t="shared" si="36"/>
-        <v>-0.77122612173035032</v>
+        <v>-0.76611523687359862</v>
       </c>
       <c r="P273">
         <f t="shared" si="42"/>
-        <v>-0.77103163407928466</v>
+        <v>-0.76592637031598765</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.4">
@@ -27947,15 +27957,15 @@
       </c>
       <c r="N274">
         <f t="shared" si="41"/>
-        <v>1.7991614300506508E-4</v>
+        <v>1.7469528281744692E-4</v>
       </c>
       <c r="O274">
         <f t="shared" si="36"/>
-        <v>-0.75772894887020414</v>
+        <v>-0.75268708190931133</v>
       </c>
       <c r="P274">
         <f t="shared" si="42"/>
-        <v>-0.75754903272719909</v>
+        <v>-0.75251238662649389</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.4">
@@ -27994,15 +28004,15 @@
       </c>
       <c r="N275">
         <f t="shared" si="41"/>
-        <v>1.6643636928336008E-4</v>
+        <v>1.6158732506538182E-4</v>
       </c>
       <c r="O275">
         <f t="shared" si="36"/>
-        <v>-0.74446798906104739</v>
+        <v>-0.73949429016072044</v>
       </c>
       <c r="P275">
         <f t="shared" si="42"/>
-        <v>-0.74430155269176401</v>
+        <v>-0.73933270283565511</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.4">
@@ -28041,15 +28051,15 @@
       </c>
       <c r="N276">
         <f t="shared" si="41"/>
-        <v>1.5396653439512183E-4</v>
+        <v>1.4946290020360984E-4</v>
       </c>
       <c r="O276">
         <f t="shared" si="36"/>
-        <v>-0.73143910835527204</v>
+        <v>-0.72653273627751236</v>
       </c>
       <c r="P276">
         <f t="shared" si="42"/>
-        <v>-0.73128514182087689</v>
+        <v>-0.72638327337730879</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.4">
@@ -28088,15 +28098,15 @@
       </c>
       <c r="N277">
         <f t="shared" si="41"/>
-        <v>1.4243097116162719E-4</v>
+        <v>1.3824821054643513E-4</v>
       </c>
       <c r="O277">
         <f t="shared" si="36"/>
-        <v>-0.71863824515318986</v>
+        <v>-0.71379836721682743</v>
       </c>
       <c r="P277">
         <f t="shared" si="42"/>
-        <v>-0.71849581418202824</v>
+        <v>-0.71366011900628101</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.4">
@@ -28135,15 +28145,15 @@
       </c>
       <c r="N278">
         <f t="shared" si="41"/>
-        <v>1.3175968158108471E-4</v>
+        <v>1.2787499568959863E-4</v>
       </c>
       <c r="O278">
         <f t="shared" si="36"/>
-        <v>-0.70606140893687719</v>
+        <v>-0.70128720097588715</v>
       </c>
       <c r="P278">
         <f t="shared" si="42"/>
-        <v>-0.70592964925529611</v>
+        <v>-0.70115932598019759</v>
       </c>
     </row>
   </sheetData>
